--- a/Resources/returns.xlsx
+++ b/Resources/returns.xlsx
@@ -543,25 +543,25 @@
         <v>-0.0227235607298919</v>
       </c>
       <c r="C2">
-        <v>-0.05672751649289764</v>
+        <v>-0.05672745033597026</v>
       </c>
       <c r="D2">
-        <v>-0.01016524520136919</v>
+        <v>-0.0101653195788538</v>
       </c>
       <c r="E2">
-        <v>0.03323557260921084</v>
+        <v>0.03323515939186761</v>
       </c>
       <c r="F2">
         <v>0.126348971208228</v>
       </c>
       <c r="G2">
-        <v>-0.006983676853340337</v>
+        <v>-0.00698337791760506</v>
       </c>
       <c r="H2">
-        <v>0.01040650646100749</v>
+        <v>0.01040658164057762</v>
       </c>
       <c r="I2">
-        <v>0.0005268899230495006</v>
+        <v>0.0005268899782302494</v>
       </c>
       <c r="J2">
         <v>-0.02423388460361686</v>
@@ -570,19 +570,19 @@
         <v>-0.01298703506522136</v>
       </c>
       <c r="L2">
-        <v>0.01783449614873467</v>
+        <v>0.01783461015376364</v>
       </c>
       <c r="M2">
-        <v>0.02674060674214207</v>
+        <v>0.02674052636084512</v>
       </c>
       <c r="N2">
-        <v>0.02208409492899577</v>
+        <v>0.02208399237445446</v>
       </c>
       <c r="O2">
         <v>-0.009243041298220733</v>
       </c>
       <c r="P2">
-        <v>0.05086381262479645</v>
+        <v>0.05086391176573501</v>
       </c>
       <c r="Q2">
         <v>0.03259079736521953</v>
@@ -603,7 +603,7 @@
         <v>-0.03487543000888149</v>
       </c>
       <c r="W2">
-        <v>-0.009003079191166496</v>
+        <v>-0.009003081043883698</v>
       </c>
       <c r="X2">
         <v>0.07726358337304706</v>
@@ -617,28 +617,28 @@
         <v>44179</v>
       </c>
       <c r="B3">
-        <v>-0.004014627274879778</v>
+        <v>-0.00401469676576216</v>
       </c>
       <c r="C3">
         <v>-0.004927252611292232</v>
       </c>
       <c r="D3">
-        <v>-0.003851142651427386</v>
+        <v>-0.003851142940807351</v>
       </c>
       <c r="E3">
-        <v>-0.01426638706890737</v>
+        <v>-0.01426589552503021</v>
       </c>
       <c r="F3">
         <v>-0.02914173876138104</v>
       </c>
       <c r="G3">
-        <v>0.0185338313225798</v>
+        <v>0.01853340428999584</v>
       </c>
       <c r="H3">
-        <v>0.02970064973659037</v>
+        <v>0.02970064752670565</v>
       </c>
       <c r="I3">
-        <v>0.03054237105400448</v>
+        <v>0.03054247892450834</v>
       </c>
       <c r="J3">
         <v>0.0315654127675431</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.01019928441594664</v>
+        <v>0.01019950181864737</v>
       </c>
       <c r="M3">
-        <v>0.04739553212905223</v>
+        <v>0.04739553583954637</v>
       </c>
       <c r="N3">
-        <v>0.0422166855353503</v>
+        <v>0.04221679010997925</v>
       </c>
       <c r="O3">
         <v>-0.01323755743567312</v>
       </c>
       <c r="P3">
-        <v>-0.02442907219622314</v>
+        <v>-0.02442946493215681</v>
       </c>
       <c r="Q3">
         <v>0.06512193409505551</v>
@@ -680,13 +680,13 @@
         <v>0.06489681932989266</v>
       </c>
       <c r="W3">
-        <v>-0.01883787701477491</v>
+        <v>-0.01883756944166848</v>
       </c>
       <c r="X3">
         <v>0.181546455730204</v>
       </c>
       <c r="Y3">
-        <v>0.02011484063272939</v>
+        <v>0.02011495766180582</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -694,25 +694,25 @@
         <v>44186</v>
       </c>
       <c r="B4">
-        <v>0.04568339112115338</v>
+        <v>0.04568353385051238</v>
       </c>
       <c r="C4">
-        <v>0.005205629345621077</v>
+        <v>0.005205704067215988</v>
       </c>
       <c r="D4">
-        <v>0.009020815107121383</v>
+        <v>0.009020740355758949</v>
       </c>
       <c r="E4">
-        <v>-0.006675526863860193</v>
+        <v>-0.006675626113434197</v>
       </c>
       <c r="F4">
         <v>-0.006990173098062269</v>
       </c>
       <c r="G4">
-        <v>-0.009493689966545982</v>
+        <v>-0.009493809313033008</v>
       </c>
       <c r="H4">
-        <v>-0.009769795424291905</v>
+        <v>-0.009769722459212038</v>
       </c>
       <c r="I4">
         <v>-0.01635155529002541</v>
@@ -721,13 +721,13 @@
         <v>-0.02625036810822901</v>
       </c>
       <c r="K4">
-        <v>-0.01879692916859244</v>
+        <v>-0.01879702485696977</v>
       </c>
       <c r="L4">
-        <v>-0.0132030224586055</v>
+        <v>-0.01320302104511861</v>
       </c>
       <c r="M4">
-        <v>-0.04569894201099656</v>
+        <v>-0.04569879593628057</v>
       </c>
       <c r="N4">
         <v>-0.005154235716580469</v>
@@ -736,13 +736,13 @@
         <v>0.08483464039641264</v>
       </c>
       <c r="P4">
-        <v>-0.02644530944338663</v>
+        <v>-0.02644521294512703</v>
       </c>
       <c r="Q4">
         <v>0.0435108055787754</v>
       </c>
       <c r="R4">
-        <v>0.2846804875029263</v>
+        <v>0.2846806007692824</v>
       </c>
       <c r="S4">
         <v>0.1713725819307215</v>
@@ -751,19 +751,19 @@
         <v>0.5481171068116184</v>
       </c>
       <c r="U4">
-        <v>-0.006959771826538841</v>
+        <v>-0.006959701470380497</v>
       </c>
       <c r="V4">
-        <v>-0.002077702839179296</v>
+        <v>-0.002077626618377515</v>
       </c>
       <c r="W4">
-        <v>-0.00176997443558391</v>
+        <v>-0.001770397535200252</v>
       </c>
       <c r="X4">
         <v>0.1248815294054011</v>
       </c>
       <c r="Y4">
-        <v>-0.02929561933763491</v>
+        <v>-0.02929573069825786</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -771,40 +771,40 @@
         <v>44193</v>
       </c>
       <c r="B5">
-        <v>0.02047864711660163</v>
+        <v>0.02047864575020797</v>
       </c>
       <c r="C5">
-        <v>-0.0348616807105856</v>
+        <v>-0.03486182678841687</v>
       </c>
       <c r="D5">
-        <v>-0.01149447972372641</v>
+        <v>-0.01149425716996832</v>
       </c>
       <c r="E5">
-        <v>-0.0005376351708391569</v>
+        <v>-0.0005377363850156414</v>
       </c>
       <c r="F5">
         <v>0.1039337737386237</v>
       </c>
       <c r="G5">
-        <v>0.01031073401652938</v>
+        <v>0.01031097519236934</v>
       </c>
       <c r="H5">
-        <v>0.03312201357323907</v>
+        <v>0.03312178982315883</v>
       </c>
       <c r="I5">
-        <v>0.008311686648804217</v>
+        <v>0.008311789908549194</v>
       </c>
       <c r="J5">
         <v>-0.0004785257609510873</v>
       </c>
       <c r="K5">
-        <v>-0.0210728318707224</v>
+        <v>-0.02107273640428509</v>
       </c>
       <c r="L5">
-        <v>0.03220317542425621</v>
+        <v>0.03220306344023771</v>
       </c>
       <c r="M5">
-        <v>0.001525763073431996</v>
+        <v>0.001525684629340551</v>
       </c>
       <c r="N5">
         <v>0.007603266052183422</v>
@@ -813,13 +813,13 @@
         <v>-0.04051351187188013</v>
       </c>
       <c r="P5">
-        <v>-0.009134370301329242</v>
+        <v>-0.009134371257284446</v>
       </c>
       <c r="Q5">
-        <v>0.03486688476769517</v>
+        <v>0.0348669953965135</v>
       </c>
       <c r="R5">
-        <v>-0.01596236117783623</v>
+        <v>-0.01596244793742263</v>
       </c>
       <c r="S5">
         <v>-0.1416137037408104</v>
@@ -828,19 +828,19 @@
         <v>0.14864863384545</v>
       </c>
       <c r="U5">
-        <v>0.004444444444444917</v>
+        <v>0.004444373280311442</v>
       </c>
       <c r="V5">
-        <v>-0.001387891818220965</v>
+        <v>-0.001387968091704272</v>
       </c>
       <c r="W5">
-        <v>-0.001500774716509778</v>
+        <v>-0.001500245146756729</v>
       </c>
       <c r="X5">
         <v>-0.04693653450531809</v>
       </c>
       <c r="Y5">
-        <v>0.01450941753026469</v>
+        <v>0.01450965389774117</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -848,13 +848,13 @@
         <v>44200</v>
       </c>
       <c r="B6">
-        <v>0.07043368086176982</v>
+        <v>0.07043367625654318</v>
       </c>
       <c r="C6">
-        <v>0.0853291697525882</v>
+        <v>0.08532917632461334</v>
       </c>
       <c r="D6">
-        <v>0.03746782649836589</v>
+        <v>0.03746759678462386</v>
       </c>
       <c r="E6">
         <v>0.009951651652777116</v>
@@ -863,13 +863,13 @@
         <v>-0.01725431140888845</v>
       </c>
       <c r="G6">
-        <v>-0.002515536476873526</v>
+        <v>-0.002515654616002228</v>
       </c>
       <c r="H6">
-        <v>0.008867705713968999</v>
+        <v>0.008867776972880437</v>
       </c>
       <c r="I6">
-        <v>-0.04070064248056482</v>
+        <v>-0.04070074072101804</v>
       </c>
       <c r="J6">
         <v>0.06575165882409317</v>
@@ -878,22 +878,22 @@
         <v>0.02544025657529492</v>
       </c>
       <c r="L6">
-        <v>0.01690160563466758</v>
+        <v>0.01690171074023361</v>
       </c>
       <c r="M6">
-        <v>-0.002343890158508111</v>
+        <v>-0.002343811953237518</v>
       </c>
       <c r="N6">
-        <v>0.01848747534340589</v>
+        <v>0.01848757138623025</v>
       </c>
       <c r="O6">
         <v>-0.04615198330542036</v>
       </c>
       <c r="P6">
-        <v>0.1028624153829321</v>
+        <v>0.1028626374862469</v>
       </c>
       <c r="Q6">
-        <v>0.08370975131932457</v>
+        <v>0.08370963546914312</v>
       </c>
       <c r="R6">
         <v>-0.0143129620523903</v>
@@ -911,13 +911,13 @@
         <v>0.0653231809341468</v>
       </c>
       <c r="W6">
-        <v>0.1096995627229345</v>
+        <v>0.1096994332609298</v>
       </c>
       <c r="X6">
         <v>0.5859628139574049</v>
       </c>
       <c r="Y6">
-        <v>0.06407328092602071</v>
+        <v>0.06407314950432563</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -925,49 +925,49 @@
         <v>44207</v>
       </c>
       <c r="B7">
-        <v>0.02660198768336852</v>
+        <v>0.02660204714014935</v>
       </c>
       <c r="C7">
-        <v>-0.05390089574032275</v>
+        <v>-0.05390082860101664</v>
       </c>
       <c r="D7">
-        <v>0.03486934102254446</v>
+        <v>0.03486956479269576</v>
       </c>
       <c r="E7">
-        <v>0.1185085648208992</v>
+        <v>0.1185086651456104</v>
       </c>
       <c r="F7">
         <v>0.04809161323373234</v>
       </c>
       <c r="G7">
-        <v>-0.02889248437489422</v>
+        <v>-0.02889242857829777</v>
       </c>
       <c r="H7">
         <v>-0.00721218674308588</v>
       </c>
       <c r="I7">
-        <v>0.005907631540319924</v>
+        <v>0.005907524786826768</v>
       </c>
       <c r="J7">
         <v>0.1259359660952351</v>
       </c>
       <c r="K7">
-        <v>-0.02099230597201829</v>
+        <v>-0.0209922088227471</v>
       </c>
       <c r="L7">
-        <v>0.001624694446023867</v>
+        <v>0.001624487560840659</v>
       </c>
       <c r="M7">
-        <v>0.03993911996269328</v>
+        <v>0.03993888166490644</v>
       </c>
       <c r="N7">
-        <v>-0.02350008684980753</v>
+        <v>-0.02350036753213136</v>
       </c>
       <c r="O7">
         <v>-0.01235361080662367</v>
       </c>
       <c r="P7">
-        <v>0.05345339386414882</v>
+        <v>0.05345358028202862</v>
       </c>
       <c r="Q7">
         <v>-0.1262820147964073</v>
@@ -988,13 +988,13 @@
         <v>-0.03000659228342428</v>
       </c>
       <c r="W7">
-        <v>0.008248097917496588</v>
+        <v>0.008248192801745935</v>
       </c>
       <c r="X7">
         <v>0.1182595900838863</v>
       </c>
       <c r="Y7">
-        <v>-0.05107515315812983</v>
+        <v>-0.05107525704528926</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -1002,55 +1002,55 @@
         <v>44214</v>
       </c>
       <c r="B8">
-        <v>-0.03498243235749621</v>
+        <v>-0.03498236869578064</v>
       </c>
       <c r="C8">
-        <v>-0.01733366286542148</v>
+        <v>-0.01733373787272541</v>
       </c>
       <c r="D8">
-        <v>-0.001203455809469012</v>
+        <v>-0.00120359660333158</v>
       </c>
       <c r="E8">
-        <v>-0.004761821900738816</v>
+        <v>-0.004761911168695399</v>
       </c>
       <c r="F8">
         <v>-0.02986168551151347</v>
       </c>
       <c r="G8">
-        <v>-0.03546522866737689</v>
+        <v>-0.03546523083006103</v>
       </c>
       <c r="H8">
-        <v>-0.006129414660187238</v>
+        <v>-0.00612934413986721</v>
       </c>
       <c r="I8">
-        <v>0.007474704209424088</v>
+        <v>0.007474811129236647</v>
       </c>
       <c r="J8">
         <v>-0.02460441605860153</v>
       </c>
       <c r="K8">
-        <v>0.04288486413349513</v>
+        <v>0.04288485987792834</v>
       </c>
       <c r="L8">
-        <v>0.02027444880793272</v>
+        <v>0.02027445090007318</v>
       </c>
       <c r="M8">
-        <v>0.004179207757347703</v>
+        <v>0.004179509901263589</v>
       </c>
       <c r="N8">
-        <v>-0.03374385713528338</v>
+        <v>-0.03374367051477478</v>
       </c>
       <c r="O8">
         <v>-0.02736154363675691</v>
       </c>
       <c r="P8">
-        <v>-0.009605003492728525</v>
+        <v>-0.009605273600479247</v>
       </c>
       <c r="Q8">
         <v>0.0733675409679857</v>
       </c>
       <c r="R8">
-        <v>0.07077478141733651</v>
+        <v>0.07077466533982379</v>
       </c>
       <c r="S8">
         <v>0.4771589623545707</v>
@@ -1062,16 +1062,16 @@
         <v>0.1086992974665126</v>
       </c>
       <c r="V8">
-        <v>0.09078697678880254</v>
+        <v>0.0907869027720889</v>
       </c>
       <c r="W8">
-        <v>-0.01746008113725384</v>
+        <v>-0.01746036249574301</v>
       </c>
       <c r="X8">
         <v>0.111905610662377</v>
       </c>
       <c r="Y8">
-        <v>-0.03626066421410101</v>
+        <v>-0.03626077958553287</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -1079,55 +1079,55 @@
         <v>44221</v>
       </c>
       <c r="B9">
-        <v>-0.0382688665852603</v>
+        <v>-0.03826910612976542</v>
       </c>
       <c r="C9">
-        <v>-0.04345008168114939</v>
+        <v>-0.0434499323369214</v>
       </c>
       <c r="D9">
-        <v>-0.03975900190210802</v>
+        <v>-0.03975900470607996</v>
       </c>
       <c r="E9">
-        <v>0.01913869172961458</v>
+        <v>0.01913887197807851</v>
       </c>
       <c r="F9">
         <v>-0.009008976278837899</v>
       </c>
       <c r="G9">
-        <v>-0.007820510502350775</v>
+        <v>-0.007820447774169459</v>
       </c>
       <c r="H9">
-        <v>-0.03768844024998097</v>
+        <v>-0.0376884375757891</v>
       </c>
       <c r="I9">
-        <v>0.08532060920584161</v>
+        <v>0.08532050386668422</v>
       </c>
       <c r="J9">
         <v>-0.04526861004367089</v>
       </c>
       <c r="K9">
-        <v>0.04672915159501589</v>
+        <v>0.04672895684504019</v>
       </c>
       <c r="L9">
-        <v>-0.002567955236059905</v>
+        <v>-0.002567854355354449</v>
       </c>
       <c r="M9">
-        <v>-0.04296953730015995</v>
+        <v>-0.04296968097863396</v>
       </c>
       <c r="N9">
-        <v>-0.08620392071501159</v>
+        <v>-0.08620382077376709</v>
       </c>
       <c r="O9">
         <v>-0.08787682590621415</v>
       </c>
       <c r="P9">
-        <v>-0.05460679081001774</v>
+        <v>-0.05460688260079249</v>
       </c>
       <c r="Q9">
-        <v>-0.08817497708822197</v>
+        <v>-0.0881750822725581</v>
       </c>
       <c r="R9">
-        <v>0.01405266951504891</v>
+        <v>0.0140528878487769</v>
       </c>
       <c r="S9">
         <v>0.1440372668699554</v>
@@ -1139,16 +1139,16 @@
         <v>-0.03659634794922273</v>
       </c>
       <c r="V9">
-        <v>-0.07336624542411352</v>
+        <v>-0.07336625040247258</v>
       </c>
       <c r="W9">
-        <v>-0.07779302727903026</v>
+        <v>-0.07779293821508004</v>
       </c>
       <c r="X9">
         <v>-0.05533130590197022</v>
       </c>
       <c r="Y9">
-        <v>-0.02469131590370455</v>
+        <v>-0.02469131885955855</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1156,16 +1156,16 @@
         <v>44228</v>
       </c>
       <c r="B10">
-        <v>0.07235563085673058</v>
+        <v>0.07235582782283201</v>
       </c>
       <c r="C10">
-        <v>0.05301696776296594</v>
+        <v>0.05301688373474445</v>
       </c>
       <c r="D10">
-        <v>0.07277283754929109</v>
+        <v>0.07277291633830973</v>
       </c>
       <c r="E10">
-        <v>-0.02347403475403675</v>
+        <v>-0.02347429589758065</v>
       </c>
       <c r="F10">
         <v>0.2185607368540556</v>
@@ -1174,37 +1174,37 @@
         <v>0.0106076887726505</v>
       </c>
       <c r="H10">
-        <v>0.06883459842717654</v>
+        <v>0.06883444588340737</v>
       </c>
       <c r="I10">
-        <v>-0.06005867938671317</v>
+        <v>-0.06005858815778464</v>
       </c>
       <c r="J10">
         <v>0.07854898976983349</v>
       </c>
       <c r="K10">
-        <v>0.03571425324858901</v>
+        <v>0.03571434739911505</v>
       </c>
       <c r="L10">
         <v>0.008091581968258099</v>
       </c>
       <c r="M10">
-        <v>0.03526095345663349</v>
+        <v>0.03526087502156972</v>
       </c>
       <c r="N10">
-        <v>0.04306175877002394</v>
+        <v>0.04306153532179846</v>
       </c>
       <c r="O10">
         <v>0.1051550014275002</v>
       </c>
       <c r="P10">
-        <v>0.1139605120125025</v>
+        <v>0.113960717262646</v>
       </c>
       <c r="Q10">
-        <v>0.001499279775849516</v>
+        <v>0.001499395304647599</v>
       </c>
       <c r="R10">
-        <v>0.01274955945318701</v>
+        <v>0.01274945118734361</v>
       </c>
       <c r="S10">
         <v>-0.1940381386395648</v>
@@ -1213,19 +1213,19 @@
         <v>0.1368110594683525</v>
       </c>
       <c r="U10">
-        <v>0.04189457984325751</v>
+        <v>0.04189451505224784</v>
       </c>
       <c r="V10">
-        <v>0.1809712844362867</v>
+        <v>0.1809713709173679</v>
       </c>
       <c r="W10">
-        <v>0.08597242372813563</v>
+        <v>0.08597231900440394</v>
       </c>
       <c r="X10">
         <v>0.04115875493881638</v>
       </c>
       <c r="Y10">
-        <v>0.01084986430458468</v>
+        <v>0.01084998837930828</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1233,28 +1233,28 @@
         <v>44235</v>
       </c>
       <c r="B11">
-        <v>0.02369918487028633</v>
+        <v>0.02369894290278496</v>
       </c>
       <c r="C11">
         <v>0.07507075197531887</v>
       </c>
       <c r="D11">
-        <v>-0.04561409634326885</v>
+        <v>-0.04561402788118407</v>
       </c>
       <c r="E11">
-        <v>0.0288459187449166</v>
+        <v>0.02884619302969682</v>
       </c>
       <c r="F11">
         <v>-0.02331366026638482</v>
       </c>
       <c r="G11">
-        <v>-0.01504984363393469</v>
+        <v>-0.01504990668603834</v>
       </c>
       <c r="H11">
-        <v>0.02642685260392219</v>
+        <v>0.02642699239813506</v>
       </c>
       <c r="I11">
-        <v>-0.1688311286000995</v>
+        <v>-0.1688311802299718</v>
       </c>
       <c r="J11">
         <v>0.0819650783442476</v>
@@ -1266,19 +1266,19 @@
         <v>0.01295237451481901</v>
       </c>
       <c r="M11">
-        <v>0.04450495933163157</v>
+        <v>0.04450503846706022</v>
       </c>
       <c r="N11">
-        <v>-0.001853820584769239</v>
+        <v>-0.001853820779149973</v>
       </c>
       <c r="O11">
         <v>-0.008239239157236344</v>
       </c>
       <c r="P11">
-        <v>0.01141149804783592</v>
+        <v>0.01141140989331113</v>
       </c>
       <c r="Q11">
-        <v>-0.02619759944509348</v>
+        <v>-0.02619771462823561</v>
       </c>
       <c r="R11">
         <v>-0.002189465044085348</v>
@@ -1290,19 +1290,19 @@
         <v>0.2649350143212161</v>
       </c>
       <c r="U11">
-        <v>0.03195919171193085</v>
+        <v>0.03195925588510495</v>
       </c>
       <c r="V11">
-        <v>0.03380287489127776</v>
+        <v>0.03380299890575822</v>
       </c>
       <c r="W11">
-        <v>-0.0007446567120021896</v>
+        <v>-0.0007446567838117479</v>
       </c>
       <c r="X11">
         <v>-0.0392275832148673</v>
       </c>
       <c r="Y11">
-        <v>0.01371507248222836</v>
+        <v>0.01371495105671494</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -1310,28 +1310,28 @@
         <v>44242</v>
       </c>
       <c r="B12">
-        <v>0.04792913202995042</v>
+        <v>0.04792925442694185</v>
       </c>
       <c r="C12">
-        <v>0.07198475985214059</v>
+        <v>0.07198468936377833</v>
       </c>
       <c r="D12">
-        <v>0.03063745067647838</v>
+        <v>0.03063730501038786</v>
       </c>
       <c r="E12">
-        <v>0.02336460896048109</v>
+        <v>0.02336442881039913</v>
       </c>
       <c r="F12">
         <v>0.01845951049468031</v>
       </c>
       <c r="G12">
-        <v>-0.003918006351620429</v>
+        <v>-0.003917878571370714</v>
       </c>
       <c r="H12">
-        <v>0.04240585840424371</v>
+        <v>0.04240578834474262</v>
       </c>
       <c r="I12">
-        <v>-0.04187505947720682</v>
+        <v>-0.04187499996117683</v>
       </c>
       <c r="J12">
         <v>0.008077391622866914</v>
@@ -1340,13 +1340,13 @@
         <v>-0.003424663206148315</v>
       </c>
       <c r="L12">
-        <v>-0.02161121383219355</v>
+        <v>-0.02161131313291742</v>
       </c>
       <c r="M12">
-        <v>-0.01032606468342823</v>
+        <v>-0.01032613721881204</v>
       </c>
       <c r="N12">
-        <v>-0.02306956723341569</v>
+        <v>-0.0230694646079892</v>
       </c>
       <c r="O12">
         <v>-0.03162268118994838</v>
@@ -1355,7 +1355,7 @@
         <v>0.05422329073427634</v>
       </c>
       <c r="Q12">
-        <v>-0.02036902042408073</v>
+        <v>-0.02036890455150986</v>
       </c>
       <c r="R12">
         <v>0.003291298191383296</v>
@@ -1367,19 +1367,19 @@
         <v>-0.1670088732184288</v>
       </c>
       <c r="U12">
-        <v>-0.01149084091613861</v>
+        <v>-0.01149090117604401</v>
       </c>
       <c r="V12">
-        <v>-0.01144425664784088</v>
+        <v>-0.01144437523448338</v>
       </c>
       <c r="W12">
-        <v>-0.08025558771209507</v>
+        <v>-0.08025540244713547</v>
       </c>
       <c r="X12">
         <v>-0.1155245987610292</v>
       </c>
       <c r="Y12">
-        <v>0.01647059838159226</v>
+        <v>0.01647060035448478</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -1387,13 +1387,13 @@
         <v>44249</v>
       </c>
       <c r="B13">
-        <v>-0.005742481119205167</v>
+        <v>-0.005742369662330438</v>
       </c>
       <c r="C13">
-        <v>0.0237600447344446</v>
+        <v>0.02376004629678641</v>
       </c>
       <c r="D13">
-        <v>0.07644562495206175</v>
+        <v>0.07644569987457062</v>
       </c>
       <c r="E13">
         <v>-0.01826495132666273</v>
@@ -1402,28 +1402,28 @@
         <v>-0.01750003793457089</v>
       </c>
       <c r="G13">
-        <v>-0.0282409916808517</v>
+        <v>-0.02824111840052479</v>
       </c>
       <c r="H13">
-        <v>-0.04192603199973699</v>
+        <v>-0.04192616095034019</v>
       </c>
       <c r="I13">
-        <v>0.1298107151012091</v>
+        <v>0.1298108447652737</v>
       </c>
       <c r="J13">
         <v>-0.06859295055824621</v>
       </c>
       <c r="K13">
-        <v>0.05326451839529267</v>
+        <v>0.05326469333073502</v>
       </c>
       <c r="L13">
-        <v>-0.0277334755875136</v>
+        <v>-0.02773337690815336</v>
       </c>
       <c r="M13">
-        <v>-0.03800112811359935</v>
+        <v>-0.0380009843143676</v>
       </c>
       <c r="N13">
-        <v>-0.05444907096119445</v>
+        <v>-0.05444917849070074</v>
       </c>
       <c r="O13">
         <v>-0.06793961893985934</v>
@@ -1432,7 +1432,7 @@
         <v>0.03818976771849769</v>
       </c>
       <c r="Q13">
-        <v>-0.09415454912782251</v>
+        <v>-0.09415460949843424</v>
       </c>
       <c r="R13">
         <v>0.04428655375199919</v>
@@ -1444,19 +1444,19 @@
         <v>-0.2021364028533438</v>
       </c>
       <c r="U13">
-        <v>-0.03396731328167224</v>
+        <v>-0.03396731535233322</v>
       </c>
       <c r="V13">
         <v>0.01378176282716193</v>
       </c>
       <c r="W13">
-        <v>-0.02068666442265155</v>
+        <v>-0.02068697702973088</v>
       </c>
       <c r="X13">
         <v>-0.1343710574977062</v>
       </c>
       <c r="Y13">
-        <v>-0.03472236952442342</v>
+        <v>-0.03472231469528175</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -1464,55 +1464,55 @@
         <v>44256</v>
       </c>
       <c r="B14">
-        <v>0.02541287215440957</v>
+        <v>0.02541275720501379</v>
       </c>
       <c r="C14">
-        <v>0.1021129388521393</v>
+        <v>0.1021130096396698</v>
       </c>
       <c r="D14">
         <v>0.03071684117124884</v>
       </c>
       <c r="E14">
-        <v>0.01250646884053608</v>
+        <v>0.01250629362223821</v>
       </c>
       <c r="F14">
         <v>0.01526732851595658</v>
       </c>
       <c r="G14">
-        <v>0.01983330529207361</v>
+        <v>0.01983343887385192</v>
       </c>
       <c r="H14">
-        <v>-0.03596199077361029</v>
+        <v>-0.03596179372346997</v>
       </c>
       <c r="I14">
-        <v>-0.07274816121619121</v>
+        <v>-0.07274826763333453</v>
       </c>
       <c r="J14">
         <v>-0.01850883923815838</v>
       </c>
       <c r="K14">
-        <v>-0.02120721479791432</v>
+        <v>-0.02120729432002133</v>
       </c>
       <c r="L14">
         <v>-0.008750425647009785</v>
       </c>
       <c r="M14">
-        <v>-0.02477454621254094</v>
+        <v>-0.02477462051243817</v>
       </c>
       <c r="N14">
-        <v>0.01489865875680296</v>
+        <v>0.01489866045110144</v>
       </c>
       <c r="O14">
         <v>-0.0347387759216492</v>
       </c>
       <c r="P14">
-        <v>0.1206547936339464</v>
+        <v>0.1206548723710659</v>
       </c>
       <c r="Q14">
-        <v>-0.09701173135799357</v>
+        <v>-0.09701160453219415</v>
       </c>
       <c r="R14">
-        <v>0.07120438185782274</v>
+        <v>0.07120428088777353</v>
       </c>
       <c r="S14">
         <v>-0.1176301437659213</v>
@@ -1521,19 +1521,19 @@
         <v>-0.2811534509112599</v>
       </c>
       <c r="U14">
-        <v>0.008907551645304101</v>
+        <v>0.008907552207405134</v>
       </c>
       <c r="V14">
-        <v>-0.0201195968431892</v>
+        <v>-0.02011947714460227</v>
       </c>
       <c r="W14">
-        <v>0.02968377697213898</v>
+        <v>0.02968399761758311</v>
       </c>
       <c r="X14">
         <v>-0.1876808935632464</v>
       </c>
       <c r="Y14">
-        <v>0.09549768238962186</v>
+        <v>0.09549774925918375</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -1541,25 +1541,25 @@
         <v>44263</v>
       </c>
       <c r="B15">
-        <v>0.03472243858950086</v>
+        <v>0.0347223292670864</v>
       </c>
       <c r="C15">
-        <v>0.01385279377087589</v>
+        <v>0.01385256065893281</v>
       </c>
       <c r="D15">
-        <v>-0.01876387591296147</v>
+        <v>-0.01876381318102183</v>
       </c>
       <c r="E15">
-        <v>0.0116549275483453</v>
+        <v>0.0116551026193108</v>
       </c>
       <c r="F15">
         <v>-0.01629087042962085</v>
       </c>
       <c r="G15">
-        <v>0.01714552484045995</v>
+        <v>0.0171454588797173</v>
       </c>
       <c r="H15">
-        <v>0.07386913566337183</v>
+        <v>0.07386913050677513</v>
       </c>
       <c r="I15">
         <v>0.06039857854827768</v>
@@ -1568,7 +1568,7 @@
         <v>0.08406366460980363</v>
       </c>
       <c r="K15">
-        <v>0.035109680420085</v>
+        <v>0.03510959259755753</v>
       </c>
       <c r="L15">
         <v>0.0224216011674323</v>
@@ -1577,19 +1577,19 @@
         <v>0.02950138312635087</v>
       </c>
       <c r="N15">
-        <v>-0.01469104039153701</v>
+        <v>-0.01469092998557442</v>
       </c>
       <c r="O15">
         <v>0.02260844811747442</v>
       </c>
       <c r="P15">
-        <v>0.017068805191365</v>
+        <v>0.0170688039921123</v>
       </c>
       <c r="Q15">
-        <v>0.1251799196197891</v>
+        <v>0.1251798365752077</v>
       </c>
       <c r="R15">
-        <v>-0.1300099065616122</v>
+        <v>-0.1300098245576993</v>
       </c>
       <c r="S15">
         <v>0.183181188917285</v>
@@ -1598,13 +1598,13 @@
         <v>0.4469914547092491</v>
       </c>
       <c r="U15">
-        <v>0.04848202857534578</v>
+        <v>0.04848215670118994</v>
       </c>
       <c r="V15">
-        <v>0.04106553540139091</v>
+        <v>0.04106540822866878</v>
       </c>
       <c r="W15">
-        <v>0.04692932085980317</v>
+        <v>0.04692942491340912</v>
       </c>
       <c r="X15">
         <v>0.2022900996761972</v>
@@ -1618,16 +1618,16 @@
         <v>44270</v>
       </c>
       <c r="B16">
-        <v>-0.006468023332597439</v>
+        <v>-0.006467812708237597</v>
       </c>
       <c r="C16">
-        <v>0.02297014860169999</v>
+        <v>0.02297038381002148</v>
       </c>
       <c r="D16">
-        <v>-0.04499438073701689</v>
+        <v>-0.04499431392891784</v>
       </c>
       <c r="E16">
-        <v>0.004608279164948881</v>
+        <v>0.004608364695102507</v>
       </c>
       <c r="F16">
         <v>-0.03821652523755981</v>
@@ -1636,7 +1636,7 @@
         <v>-0.001014545301299075</v>
       </c>
       <c r="H16">
-        <v>-0.007335914087423956</v>
+        <v>-0.007335913610550637</v>
       </c>
       <c r="I16">
         <v>-0.04403992494405573</v>
@@ -1648,22 +1648,22 @@
         <v>0.01136367082657275</v>
       </c>
       <c r="L16">
-        <v>0.002756726034540025</v>
+        <v>0.002756623033268069</v>
       </c>
       <c r="M16">
-        <v>0.002274324807214567</v>
+        <v>0.002274248923032518</v>
       </c>
       <c r="N16">
-        <v>-0.03434997742602042</v>
+        <v>-0.03434986370320159</v>
       </c>
       <c r="O16">
         <v>-0.0284253188505259</v>
       </c>
       <c r="P16">
-        <v>-0.08842984392644748</v>
+        <v>-0.08842990689843544</v>
       </c>
       <c r="Q16">
-        <v>-0.04901955253797563</v>
+        <v>-0.0490196181324698</v>
       </c>
       <c r="R16">
         <v>0.0314606821918213</v>
@@ -1675,19 +1675,19 @@
         <v>-0.00891090586026233</v>
       </c>
       <c r="U16">
-        <v>0.01758013589425578</v>
+        <v>0.01757995588188477</v>
       </c>
       <c r="V16">
         <v>-0.01865676633025148</v>
       </c>
       <c r="W16">
-        <v>-0.03112188093913382</v>
+        <v>-0.03112187784595111</v>
       </c>
       <c r="X16">
         <v>-0.1898412956762565</v>
       </c>
       <c r="Y16">
-        <v>0.01791531357307208</v>
+        <v>0.01791520340498698</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -1695,25 +1695,25 @@
         <v>44277</v>
       </c>
       <c r="B17">
-        <v>-0.0003223216174224053</v>
+        <v>-0.0003224279248097428</v>
       </c>
       <c r="C17">
-        <v>-0.01800235642528214</v>
+        <v>-0.01800224404330575</v>
       </c>
       <c r="D17">
-        <v>0.02473506890943011</v>
+        <v>0.0247347978232344</v>
       </c>
       <c r="E17">
-        <v>0.004587055203869594</v>
+        <v>0.004587225088954039</v>
       </c>
       <c r="F17">
         <v>-0.03211919529768259</v>
       </c>
       <c r="G17">
-        <v>0.05812043771163644</v>
+        <v>0.05812031007063201</v>
       </c>
       <c r="H17">
-        <v>-0.004223042219682505</v>
+        <v>-0.004223172914537443</v>
       </c>
       <c r="I17">
         <v>0.01228491733683001</v>
@@ -1722,28 +1722,28 @@
         <v>0.04325869714919928</v>
       </c>
       <c r="K17">
-        <v>0.03852325106245846</v>
+        <v>0.03852317001752348</v>
       </c>
       <c r="L17">
-        <v>0.03055483595815733</v>
+        <v>0.03055504453292612</v>
       </c>
       <c r="M17">
-        <v>-0.03891550754136863</v>
+        <v>-0.03891543477574533</v>
       </c>
       <c r="N17">
-        <v>0.03077599790843766</v>
+        <v>0.03077575874772909</v>
       </c>
       <c r="O17">
         <v>-0.08297208857987082</v>
       </c>
       <c r="P17">
-        <v>0.02159664012016016</v>
+        <v>0.02159671590236512</v>
       </c>
       <c r="Q17">
-        <v>0.06409672593284377</v>
+        <v>0.06409679932961176</v>
       </c>
       <c r="R17">
-        <v>-0.03921571098971988</v>
+        <v>-0.03921560595007567</v>
       </c>
       <c r="S17">
         <v>0.03170113942826025</v>
@@ -1752,19 +1752,19 @@
         <v>-0.1438561939192358</v>
       </c>
       <c r="U17">
-        <v>-0.002758373256231406</v>
+        <v>-0.002758256331766296</v>
       </c>
       <c r="V17">
-        <v>0.04019553761814798</v>
+        <v>0.04019565718669482</v>
       </c>
       <c r="W17">
-        <v>0.03767339798658464</v>
+        <v>0.03767339412197712</v>
       </c>
       <c r="X17">
         <v>-0.1110240369782495</v>
       </c>
       <c r="Y17">
-        <v>0.03359994856951931</v>
+        <v>0.03359995220601308</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -1772,13 +1772,13 @@
         <v>44284</v>
       </c>
       <c r="B18">
-        <v>-0.008897923753965364</v>
+        <v>-0.008897817378003325</v>
       </c>
       <c r="C18">
-        <v>0.02759716572433057</v>
+        <v>0.02759704812385766</v>
       </c>
       <c r="D18">
-        <v>-0.005747142956441076</v>
+        <v>-0.005747143707336866</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1787,40 +1787,40 @@
         <v>0.06979138851746236</v>
       </c>
       <c r="G18">
-        <v>-0.008637767110874051</v>
+        <v>-0.008637647522893421</v>
       </c>
       <c r="H18">
-        <v>0.01420693909385884</v>
+        <v>0.01420707155502043</v>
       </c>
       <c r="I18">
-        <v>0.05097077410263151</v>
+        <v>0.050970894718537</v>
       </c>
       <c r="J18">
         <v>-0.01229057052335469</v>
       </c>
       <c r="K18">
-        <v>-0.04018552592498026</v>
+        <v>-0.04018529494508616</v>
       </c>
       <c r="L18">
-        <v>-0.01273267951413548</v>
+        <v>-0.01273277791765148</v>
       </c>
       <c r="M18">
         <v>0.0433300766648439</v>
       </c>
       <c r="N18">
-        <v>0.04122769645134627</v>
+        <v>0.04122781541363896</v>
       </c>
       <c r="O18">
         <v>-0.02937207341604908</v>
       </c>
       <c r="P18">
-        <v>-0.005544892981391825</v>
+        <v>-0.005544966750227864</v>
       </c>
       <c r="Q18">
-        <v>0.09688292110732677</v>
+        <v>0.09688279146563561</v>
       </c>
       <c r="R18">
-        <v>-0.02664396892796017</v>
+        <v>-0.0266440753420234</v>
       </c>
       <c r="S18">
         <v>0.01125654878628879</v>
@@ -1829,19 +1829,19 @@
         <v>0.1633606326789145</v>
       </c>
       <c r="U18">
-        <v>0.02489449661121701</v>
+        <v>0.02489437903904457</v>
       </c>
       <c r="V18">
-        <v>-0.005221864286473754</v>
+        <v>-0.005222093582492038</v>
       </c>
       <c r="W18">
-        <v>0.006242163683820579</v>
+        <v>0.00624196535161059</v>
       </c>
       <c r="X18">
         <v>0.03614456615804018</v>
       </c>
       <c r="Y18">
-        <v>0.0330238115606849</v>
+        <v>0.0330238150186366</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -1849,34 +1849,34 @@
         <v>44291</v>
       </c>
       <c r="B19">
-        <v>0.01671959157554803</v>
+        <v>0.01671958978101795</v>
       </c>
       <c r="C19">
-        <v>0.001918326617798005</v>
+        <v>0.001918215249054001</v>
       </c>
       <c r="D19">
-        <v>0.009248423958330143</v>
+        <v>0.009248622289784958</v>
       </c>
       <c r="E19">
-        <v>0.02785405193761825</v>
+        <v>0.02785370585962577</v>
       </c>
       <c r="F19">
         <v>-0.04860902146775448</v>
       </c>
       <c r="G19">
-        <v>0.01556439811318966</v>
+        <v>0.01556451979418116</v>
       </c>
       <c r="H19">
-        <v>0.03449729222137843</v>
+        <v>0.03449709545785473</v>
       </c>
       <c r="I19">
-        <v>-0.05167439272621133</v>
+        <v>-0.05167444417882439</v>
       </c>
       <c r="J19">
         <v>0.02425842589744165</v>
       </c>
       <c r="K19">
-        <v>0.03059583768794494</v>
+        <v>0.03059575140675541</v>
       </c>
       <c r="L19">
         <v>-0.009703284166742376</v>
@@ -1885,16 +1885,16 @@
         <v>0.0194299540077969</v>
       </c>
       <c r="N19">
-        <v>0.03763366528277579</v>
+        <v>0.03763377501087395</v>
       </c>
       <c r="O19">
         <v>-0.07843475341796879</v>
       </c>
       <c r="P19">
-        <v>-0.02648556491060994</v>
+        <v>-0.02648541572305552</v>
       </c>
       <c r="Q19">
-        <v>-0.03625195768620315</v>
+        <v>-0.03625178468433521</v>
       </c>
       <c r="R19">
         <v>-0.044845854799485</v>
@@ -1906,19 +1906,19 @@
         <v>-0.1775326389525921</v>
       </c>
       <c r="U19">
-        <v>-0.002840950805951259</v>
+        <v>-0.002840951131854896</v>
       </c>
       <c r="V19">
-        <v>0.02266959412637659</v>
+        <v>0.02266971229743531</v>
       </c>
       <c r="W19">
-        <v>0.006709791991241332</v>
+        <v>0.006709890894765147</v>
       </c>
       <c r="X19">
         <v>-0.08394779425343846</v>
       </c>
       <c r="Y19">
-        <v>0.01248746894477648</v>
+        <v>0.01248757157399893</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -1926,28 +1926,28 @@
         <v>44298</v>
       </c>
       <c r="B20">
-        <v>-0.01329086062653395</v>
+        <v>-0.01329085922347162</v>
       </c>
       <c r="C20">
-        <v>0.01053042854340158</v>
+        <v>0.01053042971391682</v>
       </c>
       <c r="D20">
-        <v>0.02061878825386176</v>
+        <v>0.02061865670500063</v>
       </c>
       <c r="E20">
-        <v>0.03065301089485217</v>
+        <v>0.03065301342226712</v>
       </c>
       <c r="F20">
         <v>-0.09781504577775102</v>
       </c>
       <c r="G20">
-        <v>0.006452937064663322</v>
+        <v>0.006453056107608157</v>
       </c>
       <c r="H20">
-        <v>0.0372877265801137</v>
+        <v>0.0372878566143755</v>
       </c>
       <c r="I20">
-        <v>0.01643860483522563</v>
+        <v>0.01643842231082315</v>
       </c>
       <c r="J20">
         <v>-0.03006500199371653</v>
@@ -1956,25 +1956,25 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.006139471268595154</v>
+        <v>0.006139369321279453</v>
       </c>
       <c r="M20">
         <v>0.02545078204980666</v>
       </c>
       <c r="N20">
-        <v>0.02792899798739645</v>
+        <v>0.02792878353717576</v>
       </c>
       <c r="O20">
         <v>0.008492110473456327</v>
       </c>
       <c r="P20">
-        <v>0.01413996604060408</v>
+        <v>0.01413988725053228</v>
       </c>
       <c r="Q20">
-        <v>-0.005091635769851277</v>
+        <v>-0.005091696776050036</v>
       </c>
       <c r="R20">
-        <v>0.02804891500293838</v>
+        <v>0.02804879740975097</v>
       </c>
       <c r="S20">
         <v>-0.07876130317561048</v>
@@ -1983,7 +1983,7 @@
         <v>-0.2280487718360894</v>
       </c>
       <c r="U20">
-        <v>0.03960109001129353</v>
+        <v>0.03960132465355337</v>
       </c>
       <c r="V20">
         <v>0.03177518857200057</v>
@@ -1995,7 +1995,7 @@
         <v>-0.1566563339152224</v>
       </c>
       <c r="Y20">
-        <v>0.03305370026184606</v>
+        <v>0.03305380037512418</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -2003,55 +2003,55 @@
         <v>44305</v>
       </c>
       <c r="B21">
-        <v>-0.02028683677247844</v>
+        <v>-0.02028704857786279</v>
       </c>
       <c r="C21">
-        <v>-0.03334608934126093</v>
+        <v>-0.03334587301482539</v>
       </c>
       <c r="D21">
-        <v>0.02356891081240886</v>
+        <v>0.02356891231582314</v>
       </c>
       <c r="E21">
-        <v>0.02603446039994828</v>
+        <v>0.02603446248271002</v>
       </c>
       <c r="F21">
         <v>-0.02757087043083795</v>
       </c>
       <c r="G21">
-        <v>-0.02411666743452556</v>
+        <v>-0.02411654264456042</v>
       </c>
       <c r="H21">
-        <v>0.02289321970122504</v>
+        <v>0.02289346140824211</v>
       </c>
       <c r="I21">
-        <v>0.004192669935649151</v>
+        <v>0.004192789497440508</v>
       </c>
       <c r="J21">
         <v>0.06465081668980233</v>
       </c>
       <c r="K21">
-        <v>0.004687536857441943</v>
+        <v>0.004687536487631982</v>
       </c>
       <c r="L21">
-        <v>0.02021711970867002</v>
+        <v>0.02021712175717405</v>
       </c>
       <c r="M21">
         <v>0.01257651445478292</v>
       </c>
       <c r="N21">
-        <v>0.03544678080875552</v>
+        <v>0.03544688733055801</v>
       </c>
       <c r="O21">
         <v>-0.01029190215558229</v>
       </c>
       <c r="P21">
-        <v>-0.01923754737194194</v>
+        <v>-0.01923754591845217</v>
       </c>
       <c r="Q21">
         <v>0.05967730970912744</v>
       </c>
       <c r="R21">
-        <v>-0.03736643141903884</v>
+        <v>-0.03736632130836115</v>
       </c>
       <c r="S21">
         <v>0.05991959588461504</v>
@@ -2060,19 +2060,19 @@
         <v>0.04897313531056779</v>
       </c>
       <c r="U21">
-        <v>-0.02069060151395186</v>
+        <v>-0.02069070988520505</v>
       </c>
       <c r="V21">
         <v>0.004835869119319769</v>
       </c>
       <c r="W21">
-        <v>0.05954583126714019</v>
+        <v>0.05954602380697271</v>
       </c>
       <c r="X21">
         <v>0.02716592427811881</v>
       </c>
       <c r="Y21">
-        <v>0.04298008847499268</v>
+        <v>0.0429798904897245</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -2080,37 +2080,37 @@
         <v>44312</v>
       </c>
       <c r="B22">
-        <v>0.02410270091472011</v>
+        <v>0.02410281275014392</v>
       </c>
       <c r="C22">
-        <v>0.04174835488491269</v>
+        <v>0.0417482363426076</v>
       </c>
       <c r="D22">
-        <v>-0.01096481948517958</v>
+        <v>-0.01096482016849876</v>
       </c>
       <c r="E22">
-        <v>0.008233972567407211</v>
+        <v>0.008234129149968128</v>
       </c>
       <c r="F22">
         <v>0.06321841175496745</v>
       </c>
       <c r="G22">
-        <v>0.00249103389434624</v>
+        <v>0.002490667013117509</v>
       </c>
       <c r="H22">
-        <v>-0.005714143935840577</v>
+        <v>-0.005714260734279386</v>
       </c>
       <c r="I22">
-        <v>0.006263221533198582</v>
+        <v>0.006263102967717371</v>
       </c>
       <c r="J22">
         <v>0.1897801655510583</v>
       </c>
       <c r="K22">
-        <v>-0.006220757625632456</v>
+        <v>-0.006220992709430662</v>
       </c>
       <c r="L22">
-        <v>-0.01685613597812718</v>
+        <v>-0.01685613765223359</v>
       </c>
       <c r="M22">
         <v>-0.004066893529335314</v>
@@ -2122,7 +2122,7 @@
         <v>0.1431272411076225</v>
       </c>
       <c r="P22">
-        <v>0.03005230339388887</v>
+        <v>0.03005230107875456</v>
       </c>
       <c r="Q22">
         <v>-0.01750364671423488</v>
@@ -2143,13 +2143,13 @@
         <v>-0.02938191288241032</v>
       </c>
       <c r="W22">
-        <v>-0.03910533817445427</v>
+        <v>-0.0391056036470312</v>
       </c>
       <c r="X22">
         <v>0.01894212635155568</v>
       </c>
       <c r="Y22">
-        <v>-0.01007335477659954</v>
+        <v>-0.01007326279608767</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -2160,10 +2160,10 @@
         <v>0.04830642534158591</v>
       </c>
       <c r="C23">
-        <v>0.01730947383092563</v>
+        <v>0.01730958306239372</v>
       </c>
       <c r="D23">
-        <v>-0.004434715680983525</v>
+        <v>-0.004434778970545561</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -2175,37 +2175,37 @@
         <v>0.01296657829975456</v>
       </c>
       <c r="H23">
-        <v>0.02777787680086363</v>
+        <v>0.02777751701701581</v>
       </c>
       <c r="I23">
-        <v>-0.07528158121678807</v>
+        <v>-0.07528147225951443</v>
       </c>
       <c r="J23">
         <v>0.08789447843541653</v>
       </c>
       <c r="K23">
-        <v>-0.04381843692375376</v>
+        <v>-0.04381836483278989</v>
       </c>
       <c r="L23">
-        <v>0.03545746006901473</v>
+        <v>0.03545766569121644</v>
       </c>
       <c r="M23">
-        <v>0.0232867116839659</v>
+        <v>0.02328664006119463</v>
       </c>
       <c r="N23">
-        <v>0.002246655974990519</v>
+        <v>0.002246753473405416</v>
       </c>
       <c r="O23">
         <v>-0.05788951460468794</v>
       </c>
       <c r="P23">
-        <v>0.09067067636782977</v>
+        <v>0.09067089395438122</v>
       </c>
       <c r="Q23">
         <v>-0.05112324264870849</v>
       </c>
       <c r="R23">
-        <v>0.02355711639869984</v>
+        <v>0.02355700282226114</v>
       </c>
       <c r="S23">
         <v>-0.09030749889430967</v>
@@ -2220,13 +2220,13 @@
         <v>0.006001944956233629</v>
       </c>
       <c r="W23">
-        <v>-0.002437119867831572</v>
+        <v>-0.002437120098279122</v>
       </c>
       <c r="X23">
         <v>-0.1915117835141256</v>
       </c>
       <c r="Y23">
-        <v>0.04810351851052275</v>
+        <v>0.04810361237251159</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -2234,55 +2234,55 @@
         <v>44326</v>
       </c>
       <c r="B24">
-        <v>0.01717919714859995</v>
+        <v>0.01717909542913398</v>
       </c>
       <c r="C24">
-        <v>0.004253792169230053</v>
+        <v>0.004253684339599939</v>
       </c>
       <c r="D24">
-        <v>0.0007763882774294295</v>
+        <v>0.0007763883757059276</v>
       </c>
       <c r="E24">
-        <v>-0.02083341550018736</v>
+        <v>-0.02083341388906634</v>
       </c>
       <c r="F24">
         <v>0.0225225542712153</v>
       </c>
       <c r="G24">
-        <v>0.02116176508835221</v>
+        <v>0.02116164495923556</v>
       </c>
       <c r="H24">
-        <v>-0.001818641760176987</v>
+        <v>-0.001818526564547174</v>
       </c>
       <c r="I24">
-        <v>0.03557696577483171</v>
+        <v>0.03557690206489639</v>
       </c>
       <c r="J24">
         <v>-0.06371644260631648</v>
       </c>
       <c r="K24">
-        <v>-0.02291332349791986</v>
+        <v>-0.02291332539140023</v>
       </c>
       <c r="L24">
-        <v>0.01020769636247221</v>
+        <v>0.01020759780573877</v>
       </c>
       <c r="M24">
-        <v>0.03289475802415742</v>
+        <v>0.03289476032655592</v>
       </c>
       <c r="N24">
-        <v>0.00428050842346317</v>
+        <v>0.004280410727204753</v>
       </c>
       <c r="O24">
         <v>0.02563200681073474</v>
       </c>
       <c r="P24">
-        <v>-0.02658953893280591</v>
+        <v>-0.02658980592676907</v>
       </c>
       <c r="Q24">
         <v>-0.0755101767077867</v>
       </c>
       <c r="R24">
-        <v>-0.04718058200931952</v>
+        <v>-0.04718047628209976</v>
       </c>
       <c r="S24">
         <v>-0.04835263275721413</v>
@@ -2297,13 +2297,13 @@
         <v>-0.01478587079040738</v>
       </c>
       <c r="W24">
-        <v>-0.01491067528709489</v>
+        <v>-0.01491067670045265</v>
       </c>
       <c r="X24">
         <v>0.06637747233351377</v>
       </c>
       <c r="Y24">
-        <v>-0.05163269699757289</v>
+        <v>-0.0516327819277651</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -2311,55 +2311,55 @@
         <v>44333</v>
       </c>
       <c r="B25">
-        <v>-0.008231225114621599</v>
+        <v>-0.008231025934696823</v>
       </c>
       <c r="C25">
         <v>0.01970532518389367</v>
       </c>
       <c r="D25">
-        <v>-0.004535188979804428</v>
+        <v>-0.004535126311720039</v>
       </c>
       <c r="E25">
-        <v>0.01702137674772453</v>
+        <v>0.01702121744558682</v>
       </c>
       <c r="F25">
         <v>0.03592011767843672</v>
       </c>
       <c r="G25">
-        <v>-7.246602713828487E-05</v>
+        <v>-7.246603566313237E-05</v>
       </c>
       <c r="H25">
-        <v>0.01310857996136483</v>
+        <v>0.01310869730648312</v>
       </c>
       <c r="I25">
-        <v>0.1952954740085244</v>
+        <v>0.1952955475445379</v>
       </c>
       <c r="J25">
         <v>-0.03402629051264094</v>
       </c>
       <c r="K25">
-        <v>-0.01842549123634507</v>
+        <v>-0.01842540822013738</v>
       </c>
       <c r="L25">
         <v>0.004347519566107794</v>
       </c>
       <c r="M25">
-        <v>0.03748550786558069</v>
+        <v>0.03748564593333836</v>
       </c>
       <c r="N25">
-        <v>0.003771544521874226</v>
+        <v>0.003771447656646165</v>
       </c>
       <c r="O25">
         <v>-0.05220813647135392</v>
       </c>
       <c r="P25">
-        <v>-0.01631827907056704</v>
+        <v>-0.0163181381807691</v>
       </c>
       <c r="Q25">
         <v>0.02472411120795592</v>
       </c>
       <c r="R25">
-        <v>-0.01690827416444729</v>
+        <v>-0.01690815770745535</v>
       </c>
       <c r="S25">
         <v>0.05845328946888828</v>
@@ -2374,7 +2374,7 @@
         <v>0.004475992773158133</v>
       </c>
       <c r="W25">
-        <v>-0.007077975994078001</v>
+        <v>-0.007078072898213938</v>
       </c>
       <c r="X25">
         <v>0.1346623057858547</v>
@@ -2388,25 +2388,25 @@
         <v>44340</v>
       </c>
       <c r="B26">
-        <v>0.009713702101640687</v>
+        <v>0.009713600290717661</v>
       </c>
       <c r="C26">
-        <v>0.03088309353517471</v>
+        <v>0.03088330323907607</v>
       </c>
       <c r="D26">
-        <v>0.02733491315060332</v>
+        <v>0.02733504194683856</v>
       </c>
       <c r="E26">
-        <v>-0.0161088739832167</v>
+        <v>-0.01610887523418447</v>
       </c>
       <c r="F26">
         <v>0.0592082591426637</v>
       </c>
       <c r="G26">
-        <v>-0.02282604104815578</v>
+        <v>-0.02282616138179239</v>
       </c>
       <c r="H26">
-        <v>0.05730135835502859</v>
+        <v>0.05730147268312957</v>
       </c>
       <c r="I26">
         <v>-0.003107210550495565</v>
@@ -2418,25 +2418,25 @@
         <v>-0.01365186889918435</v>
       </c>
       <c r="L26">
-        <v>-0.01000254142997248</v>
+        <v>-0.01000244527295491</v>
       </c>
       <c r="M26">
-        <v>-0.02848222264691758</v>
+        <v>-0.02848235141740629</v>
       </c>
       <c r="N26">
-        <v>-0.004198384221347662</v>
+        <v>-0.004198288125218497</v>
       </c>
       <c r="O26">
         <v>0.09644212128588014</v>
       </c>
       <c r="P26">
-        <v>-0.009334677566624316</v>
+        <v>-0.009334819456642385</v>
       </c>
       <c r="Q26">
         <v>0.02886685110269793</v>
       </c>
       <c r="R26">
-        <v>-0.00122866654852305</v>
+        <v>-0.00122878486290634</v>
       </c>
       <c r="S26">
         <v>-0.006372197113210687</v>
@@ -2445,13 +2445,13 @@
         <v>0.1004366912248218</v>
       </c>
       <c r="U26">
-        <v>-0.007066142388318819</v>
+        <v>-0.00706620183210549</v>
       </c>
       <c r="V26">
         <v>-0.0188728444109707</v>
       </c>
       <c r="W26">
-        <v>0.03501747898843699</v>
+        <v>0.0350174857754546</v>
       </c>
       <c r="X26">
         <v>0.100753009493932</v>
@@ -2468,25 +2468,25 @@
         <v>0.01339481736986237</v>
       </c>
       <c r="C27">
-        <v>-0.006482131394698221</v>
+        <v>-0.006482333497664028</v>
       </c>
       <c r="D27">
-        <v>-0.002217315193432601</v>
+        <v>-0.002217438735200306</v>
       </c>
       <c r="E27">
-        <v>0.01930465544145132</v>
+        <v>0.01930489375074584</v>
       </c>
       <c r="F27">
         <v>-0.004941303779538053</v>
       </c>
       <c r="G27">
-        <v>0.008157093641694146</v>
+        <v>0.008157216002244505</v>
       </c>
       <c r="H27">
-        <v>0.01267490754985179</v>
+        <v>0.01267468991533005</v>
       </c>
       <c r="I27">
-        <v>-0.02155846628713876</v>
+        <v>-0.02155856954688384</v>
       </c>
       <c r="J27">
         <v>0.01758197171924181</v>
@@ -2495,13 +2495,13 @@
         <v>0.02941170304376839</v>
       </c>
       <c r="L27">
-        <v>-0.01326144655103301</v>
+        <v>-0.01326154239150867</v>
       </c>
       <c r="M27">
-        <v>0.01843985411029148</v>
+        <v>0.01843985535000781</v>
       </c>
       <c r="N27">
-        <v>0.01163721241059745</v>
+        <v>0.01163730931872431</v>
       </c>
       <c r="O27">
         <v>0.01004777828282943</v>
@@ -2522,13 +2522,13 @@
         <v>0.01058200057031233</v>
       </c>
       <c r="U27">
-        <v>0.008154279175119239</v>
+        <v>0.008154219796471684</v>
       </c>
       <c r="V27">
         <v>0.0323269876624046</v>
       </c>
       <c r="W27">
-        <v>0.0007247920354334081</v>
+        <v>0.0007251666923682176</v>
       </c>
       <c r="X27">
         <v>-0.003908822027726466</v>
@@ -2542,43 +2542,43 @@
         <v>44354</v>
       </c>
       <c r="B28">
-        <v>-0.03695011247035973</v>
+        <v>-0.03695021101187601</v>
       </c>
       <c r="C28">
-        <v>-0.01798626258258285</v>
+        <v>-0.01798636495699357</v>
       </c>
       <c r="D28">
-        <v>-0.0255556040352396</v>
+        <v>-0.02555554364222334</v>
       </c>
       <c r="E28">
-        <v>-0.006555072317654287</v>
+        <v>-0.006555148736173577</v>
       </c>
       <c r="F28">
         <v>-0.03227807164708929</v>
       </c>
       <c r="G28">
-        <v>-0.008017589459030861</v>
+        <v>-0.008017709838737619</v>
       </c>
       <c r="H28">
-        <v>0.03366397677181476</v>
+        <v>0.03366419392359377</v>
       </c>
       <c r="I28">
-        <v>0.006636563183700872</v>
+        <v>0.006636669419017416</v>
       </c>
       <c r="J28">
         <v>0.0545525425132134</v>
       </c>
       <c r="K28">
-        <v>-0.006722685367513748</v>
+        <v>-0.006722600508694665</v>
       </c>
       <c r="L28">
         <v>-0.006085480612010641</v>
       </c>
       <c r="M28">
-        <v>0.05136815594438238</v>
+        <v>0.05136822534836405</v>
       </c>
       <c r="N28">
-        <v>0.03767849775321475</v>
+        <v>0.0376783025571652</v>
       </c>
       <c r="O28">
         <v>0.08268101304723507</v>
@@ -2590,7 +2590,7 @@
         <v>-0.05274824743203999</v>
       </c>
       <c r="R28">
-        <v>-0.0153753074268862</v>
+        <v>-0.0153754214734938</v>
       </c>
       <c r="S28">
         <v>0.1339754573335967</v>
@@ -2599,13 +2599,13 @@
         <v>0.09424081188143396</v>
       </c>
       <c r="U28">
-        <v>0.005294076847724982</v>
+        <v>0.005294196241675486</v>
       </c>
       <c r="V28">
         <v>-0.04580743690346323</v>
       </c>
       <c r="W28">
-        <v>-0.01485154536198663</v>
+        <v>-0.01485163614534668</v>
       </c>
       <c r="X28">
         <v>0.0415304271070045</v>
@@ -2619,25 +2619,25 @@
         <v>44361</v>
       </c>
       <c r="B29">
-        <v>-0.07717242859103024</v>
+        <v>-0.07717264113219291</v>
       </c>
       <c r="C29">
-        <v>-0.01741768852864911</v>
+        <v>-0.01741758609495414</v>
       </c>
       <c r="D29">
-        <v>0.05359164841228714</v>
+        <v>0.05359177561681316</v>
       </c>
       <c r="E29">
-        <v>-0.02090155437183616</v>
+        <v>-0.0209017086319232</v>
       </c>
       <c r="F29">
         <v>-0.05452213922179128</v>
       </c>
       <c r="G29">
-        <v>-0.02098479326167468</v>
+        <v>-0.02098449734563756</v>
       </c>
       <c r="H29">
-        <v>0.01294372581915892</v>
+        <v>0.01294362118101189</v>
       </c>
       <c r="I29">
         <v>-0.05696204256846682</v>
@@ -2646,7 +2646,7 @@
         <v>-0.03810750564163634</v>
       </c>
       <c r="K29">
-        <v>0.04737738568893768</v>
+        <v>0.0473772107750341</v>
       </c>
       <c r="L29">
         <v>-0.01806507022290049</v>
@@ -2655,19 +2655,19 @@
         <v>-0.004450456438475858</v>
       </c>
       <c r="N29">
-        <v>-0.03101056933655377</v>
+        <v>-0.03101047988422212</v>
       </c>
       <c r="O29">
         <v>0.01445999538030329</v>
       </c>
       <c r="P29">
-        <v>-0.02847024240254858</v>
+        <v>-0.02847031027238445</v>
       </c>
       <c r="Q29">
         <v>0.07112770861594497</v>
       </c>
       <c r="R29">
-        <v>-0.04624650012758391</v>
+        <v>-0.04624638965669625</v>
       </c>
       <c r="S29">
         <v>-0.02046327363332012</v>
@@ -2682,13 +2682,13 @@
         <v>-0.03254683799208147</v>
       </c>
       <c r="W29">
-        <v>-0.04853517494780291</v>
+        <v>-0.04853545525714731</v>
       </c>
       <c r="X29">
         <v>-0.08414443557542306</v>
       </c>
       <c r="Y29">
-        <v>-0.0705521908840312</v>
+        <v>-0.0705522798102457</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -2696,13 +2696,13 @@
         <v>44368</v>
       </c>
       <c r="B30">
-        <v>0.04144108303207394</v>
+        <v>0.0414414294545018</v>
       </c>
       <c r="C30">
         <v>0.02814319504805041</v>
       </c>
       <c r="D30">
-        <v>-0.02272718354861547</v>
+        <v>-0.02272724117175162</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2711,10 +2711,10 @@
         <v>0.04070552488960821</v>
       </c>
       <c r="G30">
-        <v>0.0218891445732825</v>
+        <v>0.02188908174351245</v>
       </c>
       <c r="H30">
-        <v>0.01154160255458425</v>
+        <v>0.01154170453562764</v>
       </c>
       <c r="I30">
         <v>0.02768464676411431</v>
@@ -2723,28 +2723,28 @@
         <v>0.09483257092927655</v>
       </c>
       <c r="K30">
-        <v>0.0032309342253245</v>
+        <v>0.003231179194837619</v>
       </c>
       <c r="L30">
-        <v>0.01376750552806194</v>
+        <v>0.01376720295217271</v>
       </c>
       <c r="M30">
-        <v>-0.006802747259677777</v>
+        <v>-0.006802810328081832</v>
       </c>
       <c r="N30">
-        <v>0.004807009390802586</v>
+        <v>0.004807104660227823</v>
       </c>
       <c r="O30">
         <v>0.09131405590516839</v>
       </c>
       <c r="P30">
-        <v>0.0705297240866547</v>
+        <v>0.07052986873124389</v>
       </c>
       <c r="Q30">
         <v>0.02184363036845771</v>
       </c>
       <c r="R30">
-        <v>0.02518909261835756</v>
+        <v>0.0251892140622012</v>
       </c>
       <c r="S30">
         <v>0.08159241727824762</v>
@@ -2753,19 +2753,19 @@
         <v>0.05025765182285746</v>
       </c>
       <c r="U30">
-        <v>0.02408385350354214</v>
+        <v>0.02408373269527253</v>
       </c>
       <c r="V30">
         <v>0.01289610781482153</v>
       </c>
       <c r="W30">
-        <v>0.0680150365282628</v>
+        <v>0.06801505010646558</v>
       </c>
       <c r="X30">
         <v>0.0918752244829022</v>
       </c>
       <c r="Y30">
-        <v>0.04950497512461571</v>
+        <v>0.04950507553747663</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -2773,25 +2773,25 @@
         <v>44375</v>
       </c>
       <c r="B31">
-        <v>0.0128529142904108</v>
+        <v>0.01285302075745354</v>
       </c>
       <c r="C31">
         <v>-0.01102021390723096</v>
       </c>
       <c r="D31">
-        <v>0.01328903613441224</v>
+        <v>0.01328903531353554</v>
       </c>
       <c r="E31">
-        <v>0.01304346683876956</v>
+        <v>0.01304362709430307</v>
       </c>
       <c r="F31">
         <v>0.002281715329786493</v>
       </c>
       <c r="G31">
-        <v>0.00726323271074425</v>
+        <v>0.00726341321156565</v>
       </c>
       <c r="H31">
-        <v>-0.007334973431577518</v>
+        <v>-0.007334871874647542</v>
       </c>
       <c r="I31">
         <v>0.04217686486112249</v>
@@ -2800,28 +2800,28 @@
         <v>0.02088977635825318</v>
       </c>
       <c r="K31">
-        <v>-0.09661822512025542</v>
+        <v>-0.09661845332681152</v>
       </c>
       <c r="L31">
-        <v>0.02904767916734974</v>
+        <v>0.02904798630395411</v>
       </c>
       <c r="M31">
-        <v>0.03796490930843821</v>
+        <v>0.03796484821883994</v>
       </c>
       <c r="N31">
-        <v>0.05017633443582659</v>
+        <v>0.05017623486477918</v>
       </c>
       <c r="O31">
         <v>-0.1014965861833015</v>
       </c>
       <c r="P31">
-        <v>-0.02304367051138945</v>
+        <v>-0.02304379952009283</v>
       </c>
       <c r="Q31">
         <v>0.05002139151983531</v>
       </c>
       <c r="R31">
-        <v>-0.06695326470869722</v>
+        <v>-0.06695337523734912</v>
       </c>
       <c r="S31">
         <v>0.04992707380542361</v>
@@ -2830,19 +2830,19 @@
         <v>-0.152147218301561</v>
       </c>
       <c r="U31">
-        <v>-0.02234882065274779</v>
+        <v>-0.0223487643055853</v>
       </c>
       <c r="V31">
         <v>0.03847209152274256</v>
       </c>
       <c r="W31">
-        <v>-0.01628284928226242</v>
+        <v>-0.01628266540407219</v>
       </c>
       <c r="X31">
         <v>0.01978019319375357</v>
       </c>
       <c r="Y31">
-        <v>-0.0004491618441249123</v>
+        <v>-0.0004492530074790002</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -2850,25 +2850,25 @@
         <v>44382</v>
       </c>
       <c r="B32">
-        <v>0.0040866996730895</v>
+        <v>0.00408659412752721</v>
       </c>
       <c r="C32">
-        <v>-0.02264559102248342</v>
+        <v>-0.02264569536562044</v>
       </c>
       <c r="D32">
-        <v>-0.02622950739723462</v>
+        <v>-0.02622950579826133</v>
       </c>
       <c r="E32">
-        <v>-0.008240194774098208</v>
+        <v>-0.008240351293685722</v>
       </c>
       <c r="F32">
         <v>-0.01658541061291752</v>
       </c>
       <c r="G32">
-        <v>0.008315024644975022</v>
+        <v>0.008314843955705697</v>
       </c>
       <c r="H32">
-        <v>0.0143679319548129</v>
+        <v>0.01436762434917638</v>
       </c>
       <c r="I32">
         <v>-0.04856400368361768</v>
@@ -2877,22 +2877,22 @@
         <v>0.001712302594320869</v>
       </c>
       <c r="K32">
-        <v>-0.03921574980516862</v>
+        <v>-0.03921566333288096</v>
       </c>
       <c r="L32">
-        <v>0.00455694195491918</v>
+        <v>0.004556845274350296</v>
       </c>
       <c r="M32">
-        <v>0.02677212735792889</v>
+        <v>0.02677225298920738</v>
       </c>
       <c r="N32">
-        <v>-0.02069705406558597</v>
+        <v>-0.02069714434914316</v>
       </c>
       <c r="O32">
         <v>-0.01090250167658369</v>
       </c>
       <c r="P32">
-        <v>-0.03071073954440984</v>
+        <v>-0.030710808391191</v>
       </c>
       <c r="Q32">
         <v>-0.01587950406577909</v>
@@ -2907,7 +2907,7 @@
         <v>-0.02026047316600554</v>
       </c>
       <c r="U32">
-        <v>-0.007619983166184729</v>
+        <v>-0.007619923293979092</v>
       </c>
       <c r="V32">
         <v>-0.03704682276663773</v>
@@ -2919,7 +2919,7 @@
         <v>-0.09513547401901024</v>
       </c>
       <c r="Y32">
-        <v>-0.04449439198321326</v>
+        <v>-0.04449430483696648</v>
       </c>
     </row>
     <row r="33" spans="1:25">
@@ -2927,28 +2927,28 @@
         <v>44389</v>
       </c>
       <c r="B33">
-        <v>-0.02478021242903938</v>
+        <v>-0.02478010774087336</v>
       </c>
       <c r="C33">
-        <v>-0.03861719570556821</v>
+        <v>-0.03861698630675181</v>
       </c>
       <c r="D33">
-        <v>-0.006734006523222535</v>
+        <v>-0.006734006101654311</v>
       </c>
       <c r="E33">
-        <v>-0.01008308184329765</v>
+        <v>-0.01008308264224578</v>
       </c>
       <c r="F33">
         <v>0.0006613732217186641</v>
       </c>
       <c r="G33">
-        <v>0.02539569098828709</v>
+        <v>0.02539592795028334</v>
       </c>
       <c r="H33">
-        <v>0.01173611522731322</v>
+        <v>0.01173621652622092</v>
       </c>
       <c r="I33">
-        <v>-0.06476388866766414</v>
+        <v>-0.06476399776481734</v>
       </c>
       <c r="J33">
         <v>-0.04051280225444021</v>
@@ -2957,25 +2957,25 @@
         <v>-0.003710572879816132</v>
       </c>
       <c r="L33">
-        <v>-0.009720153286558286</v>
+        <v>-0.009720057980036279</v>
       </c>
       <c r="M33">
-        <v>0.02056541760444741</v>
+        <v>0.02056553676968531</v>
       </c>
       <c r="N33">
-        <v>-0.005294935387019195</v>
+        <v>-0.005294843683506745</v>
       </c>
       <c r="O33">
         <v>-0.1699326167480162</v>
       </c>
       <c r="P33">
-        <v>-0.06385750589419603</v>
+        <v>-0.06385751469526491</v>
       </c>
       <c r="Q33">
         <v>-0.06081917882788879</v>
       </c>
       <c r="R33">
-        <v>-0.07677047746449228</v>
+        <v>-0.07677054128077454</v>
       </c>
       <c r="S33">
         <v>-0.1887535975416519</v>
@@ -2996,7 +2996,7 @@
         <v>-0.1150050776100758</v>
       </c>
       <c r="Y33">
-        <v>0.07478834374596377</v>
+        <v>0.07478824829459407</v>
       </c>
     </row>
     <row r="34" spans="1:25">
@@ -3004,28 +3004,28 @@
         <v>44396</v>
       </c>
       <c r="B34">
-        <v>-0.008360284013490205</v>
+        <v>-0.008360175767759936</v>
       </c>
       <c r="C34">
-        <v>0.007077277033458174</v>
+        <v>0.007077165198337232</v>
       </c>
       <c r="D34">
-        <v>0.007909614775068352</v>
+        <v>0.007909677303872709</v>
       </c>
       <c r="E34">
-        <v>0.0163933258380522</v>
+        <v>0.0163935672809985</v>
       </c>
       <c r="F34">
         <v>-0.03469925347614833</v>
       </c>
       <c r="G34">
-        <v>-0.005123914497355608</v>
+        <v>-0.005124375499594547</v>
       </c>
       <c r="H34">
         <v>0.03039996247345855</v>
       </c>
       <c r="I34">
-        <v>0.04313370639417369</v>
+        <v>0.04313382807781019</v>
       </c>
       <c r="J34">
         <v>0.1695171101708062</v>
@@ -3034,10 +3034,10 @@
         <v>-0.01303532677169794</v>
       </c>
       <c r="L34">
-        <v>0.02195106709505268</v>
+        <v>0.02195116428172184</v>
       </c>
       <c r="M34">
-        <v>0.02716816622701157</v>
+        <v>0.02716804629082459</v>
       </c>
       <c r="N34">
         <v>0.007498284217067663</v>
@@ -3046,13 +3046,13 @@
         <v>-0.00995944122777237</v>
       </c>
       <c r="P34">
-        <v>-0.004884924186138617</v>
+        <v>-0.004884704067848467</v>
       </c>
       <c r="Q34">
         <v>0.03083703288128992</v>
       </c>
       <c r="R34">
-        <v>-0.03584207910560466</v>
+        <v>-0.03584194333734547</v>
       </c>
       <c r="S34">
         <v>0.04856513907266491</v>
@@ -3061,7 +3061,7 @@
         <v>0.03356891560824549</v>
       </c>
       <c r="U34">
-        <v>0.03987638052420328</v>
+        <v>0.03987644293558734</v>
       </c>
       <c r="V34">
         <v>0.03752334549019065</v>
@@ -3073,7 +3073,7 @@
         <v>0.03075737139641421</v>
       </c>
       <c r="Y34">
-        <v>-0.007877576517784535</v>
+        <v>-0.007877488407922462</v>
       </c>
     </row>
     <row r="35" spans="1:25">
@@ -3081,40 +3081,40 @@
         <v>44403</v>
       </c>
       <c r="B35">
-        <v>0.007567772254092331</v>
+        <v>0.007567770615620084</v>
       </c>
       <c r="C35">
         <v>0.0300095448677149</v>
       </c>
       <c r="D35">
-        <v>0.01121086608567934</v>
+        <v>0.01121080215087522</v>
       </c>
       <c r="E35">
-        <v>0.006451567684010895</v>
+        <v>0.006451487915302367</v>
       </c>
       <c r="F35">
         <v>0.04895576790519285</v>
       </c>
       <c r="G35">
-        <v>0.02385388164764679</v>
+        <v>0.02385411947198701</v>
       </c>
       <c r="H35">
-        <v>0.0007765052653008198</v>
+        <v>0.0007764092225968078</v>
       </c>
       <c r="I35">
-        <v>0.03263007797460005</v>
+        <v>0.03262996614618396</v>
       </c>
       <c r="J35">
         <v>0.03442763731893961</v>
       </c>
       <c r="K35">
-        <v>-0.02641517199041776</v>
+        <v>-0.0264152672564395</v>
       </c>
       <c r="L35">
-        <v>0.002386703161912918</v>
+        <v>0.002386607835807242</v>
       </c>
       <c r="M35">
-        <v>0.01593959006766421</v>
+        <v>0.01593970374324605</v>
       </c>
       <c r="N35">
         <v>-0.1311195556241616</v>
@@ -3123,13 +3123,13 @@
         <v>-0.0948211647475925</v>
       </c>
       <c r="P35">
-        <v>0.009291631717111004</v>
+        <v>0.009291705003604989</v>
       </c>
       <c r="Q35">
         <v>-0.0119658357488529</v>
       </c>
       <c r="R35">
-        <v>-0.05055782848619306</v>
+        <v>-0.05055789655405829</v>
       </c>
       <c r="S35">
         <v>0.04294738769531237</v>
@@ -3138,7 +3138,7 @@
         <v>0.04102568407997209</v>
       </c>
       <c r="U35">
-        <v>-0.02214625133675241</v>
+        <v>-0.02214625000757786</v>
       </c>
       <c r="V35">
         <v>-0.06380779112110879</v>
@@ -3150,7 +3150,7 @@
         <v>0.01753081798081313</v>
       </c>
       <c r="Y35">
-        <v>0.06704895375316888</v>
+        <v>0.0670490432677846</v>
       </c>
     </row>
     <row r="36" spans="1:25">
@@ -3158,16 +3158,16 @@
         <v>44410</v>
       </c>
       <c r="B36">
-        <v>0.03768616302055738</v>
+        <v>0.03768594004213632</v>
       </c>
       <c r="C36">
-        <v>0.06417113902444282</v>
+        <v>0.06417103196834306</v>
       </c>
       <c r="D36">
-        <v>0.02993338407466051</v>
+        <v>0.02993325854471141</v>
       </c>
       <c r="E36">
-        <v>-0.0006409272795977472</v>
+        <v>-0.0006409272294461976</v>
       </c>
       <c r="F36">
         <v>0.02708888837968071</v>
@@ -3176,22 +3176,22 @@
         <v>-0.005765375914419946</v>
       </c>
       <c r="H36">
-        <v>0.03995337865590831</v>
+        <v>0.03995338249016123</v>
       </c>
       <c r="I36">
-        <v>0.0163635532720281</v>
+        <v>0.01636366333887684</v>
       </c>
       <c r="J36">
         <v>0.03681614085769214</v>
       </c>
       <c r="K36">
-        <v>-0.003875966716648804</v>
+        <v>-0.003875771394362792</v>
       </c>
       <c r="L36">
-        <v>0.005284504753550134</v>
+        <v>0.005284694498967513</v>
       </c>
       <c r="M36">
-        <v>0.08086215971384281</v>
+        <v>0.08086215066600944</v>
       </c>
       <c r="N36">
         <v>0.01594073378280036</v>
@@ -3200,7 +3200,7 @@
         <v>0.05289153502271282</v>
       </c>
       <c r="P36">
-        <v>0.005037415988097038</v>
+        <v>0.005037341956868335</v>
       </c>
       <c r="Q36">
         <v>0.07569204503962546</v>
@@ -3215,19 +3215,19 @@
         <v>-0.04597704479356479</v>
       </c>
       <c r="U36">
-        <v>0.06627152741790998</v>
+        <v>0.06627146197298472</v>
       </c>
       <c r="V36">
         <v>0.007450231760846915</v>
       </c>
       <c r="W36">
-        <v>0.01484615118433497</v>
+        <v>0.01484605988183807</v>
       </c>
       <c r="X36">
         <v>-0.05058654814443608</v>
       </c>
       <c r="Y36">
-        <v>-0.02439014568988873</v>
+        <v>-0.02439022753368203</v>
       </c>
     </row>
     <row r="37" spans="1:25">
@@ -3235,25 +3235,25 @@
         <v>44417</v>
       </c>
       <c r="B37">
-        <v>0.01574609932529292</v>
+        <v>0.01574589224876277</v>
       </c>
       <c r="C37">
-        <v>0.01386244075010512</v>
+        <v>0.0138625427451371</v>
       </c>
       <c r="D37">
-        <v>0.03121629006809856</v>
+        <v>0.0312163519845774</v>
       </c>
       <c r="E37">
-        <v>0.0006413383308294662</v>
+        <v>0.0006413382806134127</v>
       </c>
       <c r="F37">
         <v>-0.008579671671206213</v>
       </c>
       <c r="G37">
-        <v>0.01576979193431116</v>
+        <v>0.01576990602793038</v>
       </c>
       <c r="H37">
-        <v>0.005222010662358834</v>
+        <v>0.00522201114425247</v>
       </c>
       <c r="I37">
         <v>0.009446722272183017</v>
@@ -3262,13 +3262,13 @@
         <v>0.04104821304958572</v>
       </c>
       <c r="K37">
-        <v>0.01361861990034807</v>
+        <v>0.01361861856257063</v>
       </c>
       <c r="L37">
-        <v>0.01813877506337169</v>
+        <v>0.01813867726574436</v>
       </c>
       <c r="M37">
-        <v>0.03238161531052586</v>
+        <v>0.03238150843722942</v>
       </c>
       <c r="N37">
         <v>-0.02801741993500617</v>
@@ -3277,13 +3277,13 @@
         <v>-0.5531665230935705</v>
       </c>
       <c r="P37">
-        <v>-0.01883854519519579</v>
+        <v>-0.01883868967231761</v>
       </c>
       <c r="Q37">
         <v>-0.02854845002260442</v>
       </c>
       <c r="R37">
-        <v>0.09453043324919808</v>
+        <v>0.09453031859236227</v>
       </c>
       <c r="S37">
         <v>-0.02533276639738302</v>
@@ -3292,19 +3292,19 @@
         <v>-0.09810674307660749</v>
       </c>
       <c r="U37">
-        <v>0.01297207661443545</v>
+        <v>0.01297219173962971</v>
       </c>
       <c r="V37">
         <v>-0.01506433017867548</v>
       </c>
       <c r="W37">
-        <v>0.0322769517472774</v>
+        <v>0.03227695465113278</v>
       </c>
       <c r="X37">
         <v>-0.0351351297612007</v>
       </c>
       <c r="Y37">
-        <v>0.08008471107638027</v>
+        <v>0.08008462508925462</v>
       </c>
     </row>
     <row r="38" spans="1:25">
@@ -3312,7 +3312,7 @@
         <v>44424</v>
       </c>
       <c r="B38">
-        <v>-0.03287906796346096</v>
+        <v>-0.0328789727331652</v>
       </c>
       <c r="C38">
         <v>-0.03110583234356445</v>
@@ -3321,16 +3321,16 @@
         <v>-0.03131529891590412</v>
       </c>
       <c r="E38">
-        <v>-0.0001709713229057774</v>
+        <v>-0.0001709713095272569</v>
       </c>
       <c r="F38">
         <v>-0.02051285017184934</v>
       </c>
       <c r="G38">
-        <v>0.01009474387702913</v>
+        <v>0.01009440577624221</v>
       </c>
       <c r="H38">
-        <v>-0.08497224876060649</v>
+        <v>-0.08497225656121665</v>
       </c>
       <c r="I38">
         <v>-0.0216577918577503</v>
@@ -3339,28 +3339,28 @@
         <v>-0.0317893702061911</v>
       </c>
       <c r="K38">
-        <v>0.01151640555261424</v>
+        <v>0.01151621061314856</v>
       </c>
       <c r="L38">
-        <v>0.01809935373752092</v>
+        <v>0.01809925936719448</v>
       </c>
       <c r="M38">
-        <v>0.05160696247121899</v>
+        <v>0.05160686219712973</v>
       </c>
       <c r="N38">
-        <v>-0.02067841507084889</v>
+        <v>-0.02067852228844813</v>
       </c>
       <c r="O38">
         <v>-0.05686794005685669</v>
       </c>
       <c r="P38">
-        <v>-0.05692691349920453</v>
+        <v>-0.05692691773033487</v>
       </c>
       <c r="Q38">
         <v>0.04346030465068895</v>
       </c>
       <c r="R38">
-        <v>-0.003259117662402278</v>
+        <v>-0.003259013249437448</v>
       </c>
       <c r="S38">
         <v>-0.07753304712461717</v>
@@ -3369,19 +3369,19 @@
         <v>-0.04961827545828235</v>
       </c>
       <c r="U38">
-        <v>-0.02490841441757141</v>
+        <v>-0.02490852523760101</v>
       </c>
       <c r="V38">
         <v>-0.038375842771882</v>
       </c>
       <c r="W38">
-        <v>-0.03435924368649323</v>
+        <v>-0.03435924668103141</v>
       </c>
       <c r="X38">
         <v>-0.03041217430342635</v>
       </c>
       <c r="Y38">
-        <v>-0.08316985782586661</v>
+        <v>-0.08316970522420009</v>
       </c>
     </row>
     <row r="39" spans="1:25">
@@ -3389,25 +3389,25 @@
         <v>44431</v>
       </c>
       <c r="B39">
-        <v>0.0538390921384222</v>
+        <v>0.05383920321162328</v>
       </c>
       <c r="C39">
-        <v>0.02857642620472145</v>
+        <v>0.02857652861523974</v>
       </c>
       <c r="D39">
-        <v>0.02047420969658753</v>
+        <v>0.02047432991036624</v>
       </c>
       <c r="E39">
-        <v>0.008078426412942097</v>
+        <v>0.008078425780715381</v>
       </c>
       <c r="F39">
         <v>-0.007853374475373487</v>
       </c>
       <c r="G39">
-        <v>-0.01916050165782224</v>
+        <v>-0.01916039471929887</v>
       </c>
       <c r="H39">
-        <v>0.006488237379735251</v>
+        <v>0.006488238030680549</v>
       </c>
       <c r="I39">
         <v>0.0429079270231425</v>
@@ -3416,22 +3416,22 @@
         <v>0.02931025066429993</v>
       </c>
       <c r="K39">
-        <v>0.04554076860322454</v>
+        <v>0.0455409645831033</v>
       </c>
       <c r="L39">
-        <v>-0.03627944309349163</v>
+        <v>-0.03627953413829688</v>
       </c>
       <c r="M39">
-        <v>-0.04194463316431962</v>
+        <v>-0.0419446371638752</v>
       </c>
       <c r="N39">
-        <v>0.009778230982542935</v>
+        <v>0.00977834153459356</v>
       </c>
       <c r="O39">
         <v>0.1131725693181027</v>
       </c>
       <c r="P39">
-        <v>0.05745164556706661</v>
+        <v>0.05745172890715633</v>
       </c>
       <c r="Q39">
         <v>0.01071002430045276</v>
@@ -3452,13 +3452,13 @@
         <v>0.08097155564270953</v>
       </c>
       <c r="W39">
-        <v>0.05096800600375362</v>
+        <v>0.05096792034899034</v>
       </c>
       <c r="X39">
         <v>0.09781266545639622</v>
       </c>
       <c r="Y39">
-        <v>0.05049205005631974</v>
+        <v>0.05049195883854796</v>
       </c>
     </row>
     <row r="40" spans="1:25">
@@ -3466,25 +3466,25 @@
         <v>44438</v>
       </c>
       <c r="B40">
-        <v>-0.02183384800518184</v>
+        <v>-0.02183374799121973</v>
       </c>
       <c r="C40">
-        <v>0.01114733075392826</v>
+        <v>0.01114723007875318</v>
       </c>
       <c r="D40">
-        <v>0.005279997983231866</v>
+        <v>0.005279761757509549</v>
       </c>
       <c r="E40">
-        <v>-0.024803974237945</v>
+        <v>-0.02480412758023298</v>
       </c>
       <c r="F40">
         <v>0.06002638079893341</v>
       </c>
       <c r="G40">
-        <v>0.01222672233687927</v>
+        <v>0.01222683709511263</v>
       </c>
       <c r="H40">
-        <v>0.01128119526005267</v>
+        <v>0.01128129606466954</v>
       </c>
       <c r="I40">
         <v>-0.00733752761517148</v>
@@ -3493,13 +3493,13 @@
         <v>-0.04380857044914899</v>
       </c>
       <c r="K40">
-        <v>0.009074358940759364</v>
+        <v>0.009074266474037307</v>
       </c>
       <c r="L40">
-        <v>0.01821622495872566</v>
+        <v>0.01821613220743856</v>
       </c>
       <c r="M40">
-        <v>-0.02387603685636097</v>
+        <v>-0.02387603923269188</v>
       </c>
       <c r="N40">
         <v>0.06477491676765212</v>
@@ -3508,7 +3508,7 @@
         <v>0.1120833555857341</v>
       </c>
       <c r="P40">
-        <v>-0.0161378977579868</v>
+        <v>-0.01613774869737816</v>
       </c>
       <c r="Q40">
         <v>0.04199370300211758</v>
@@ -3529,7 +3529,7 @@
         <v>0.0815943979281839</v>
       </c>
       <c r="W40">
-        <v>0.001331793600846787</v>
+        <v>0.001331965585307016</v>
       </c>
       <c r="X40">
         <v>-0.007518825566588561</v>
@@ -3543,22 +3543,22 @@
         <v>44445</v>
       </c>
       <c r="B41">
-        <v>-0.01335501502204028</v>
+        <v>-0.01335521814930607</v>
       </c>
       <c r="C41">
         <v>-0.01322922677295923</v>
       </c>
       <c r="D41">
-        <v>-0.01470589958575752</v>
+        <v>-0.01470590130904137</v>
       </c>
       <c r="E41">
-        <v>0.0296732203363923</v>
+        <v>0.02967338191579683</v>
       </c>
       <c r="F41">
         <v>-0.01991280796806305</v>
       </c>
       <c r="G41">
-        <v>0.0005555330305828665</v>
+        <v>0.0005553090253287429</v>
       </c>
       <c r="H41">
         <v>0.03745017257801031</v>
@@ -3570,22 +3570,22 @@
         <v>0.03164147821387142</v>
       </c>
       <c r="K41">
-        <v>0.007259624710221679</v>
+        <v>0.007259715521368504</v>
       </c>
       <c r="L41">
-        <v>-0.04610377952383315</v>
+        <v>-0.04610360251487655</v>
       </c>
       <c r="M41">
-        <v>-0.00333549323505522</v>
+        <v>-0.003335289650497564</v>
       </c>
       <c r="N41">
-        <v>0.002755909600870243</v>
+        <v>0.002755807775279839</v>
       </c>
       <c r="O41">
         <v>0.02622700792746668</v>
       </c>
       <c r="P41">
-        <v>-0.01621996127062597</v>
+        <v>-0.01622018607156295</v>
       </c>
       <c r="Q41">
         <v>-0.05838041778198622</v>
@@ -3606,7 +3606,7 @@
         <v>0.005936142647064546</v>
       </c>
       <c r="W41">
-        <v>-0.009309641417998615</v>
+        <v>-0.009309555654374302</v>
       </c>
       <c r="X41">
         <v>-0.08484847740474566</v>
@@ -3620,49 +3620,49 @@
         <v>44452</v>
       </c>
       <c r="B42">
-        <v>0.002033538936005996</v>
+        <v>0.00203353914674298</v>
       </c>
       <c r="C42">
-        <v>0.005328167520500582</v>
+        <v>0.005328367096023578</v>
       </c>
       <c r="D42">
-        <v>0.00852862488857542</v>
+        <v>0.008528744835073265</v>
       </c>
       <c r="E42">
-        <v>-0.009203661610304281</v>
+        <v>-0.009203815527530579</v>
       </c>
       <c r="F42">
         <v>0.03333320834942577</v>
       </c>
       <c r="G42">
-        <v>0.001456792892946313</v>
+        <v>0.001457017100025437</v>
       </c>
       <c r="H42">
         <v>-0.01881720353486538</v>
       </c>
       <c r="I42">
-        <v>-0.004190706186208204</v>
+        <v>-0.004190602788571973</v>
       </c>
       <c r="J42">
         <v>0.07681626548153964</v>
       </c>
       <c r="K42">
-        <v>-0.03963971241473208</v>
+        <v>-0.03963970884094903</v>
       </c>
       <c r="L42">
-        <v>-0.01329583259127198</v>
+        <v>-0.01329554079202699</v>
       </c>
       <c r="M42">
-        <v>0.02533874750993137</v>
+        <v>0.02533874491768806</v>
       </c>
       <c r="N42">
-        <v>-0.005598419704585189</v>
+        <v>-0.005598521818830582</v>
       </c>
       <c r="O42">
         <v>0.08506754200902344</v>
       </c>
       <c r="P42">
-        <v>0.02185987589164196</v>
+        <v>0.02186003157842453</v>
       </c>
       <c r="Q42">
         <v>-0.009200038053015946</v>
@@ -3677,13 +3677,13 @@
         <v>-0.03318903676345775</v>
       </c>
       <c r="U42">
-        <v>0.02354864443951832</v>
+        <v>0.0235487550095117</v>
       </c>
       <c r="V42">
         <v>-0.07007607155306894</v>
       </c>
       <c r="W42">
-        <v>-0.02136701119907058</v>
+        <v>-0.02136718248843472</v>
       </c>
       <c r="X42">
         <v>0.09561256128028561</v>
@@ -3697,16 +3697,16 @@
         <v>44459</v>
       </c>
       <c r="B43">
-        <v>0.03399293620233013</v>
+        <v>0.03399293971788242</v>
       </c>
       <c r="C43">
-        <v>0.01863565871774986</v>
+        <v>0.01863545650049336</v>
       </c>
       <c r="D43">
-        <v>-0.02642701269418779</v>
+        <v>-0.02642713062059365</v>
       </c>
       <c r="E43">
-        <v>-0.0231151266336318</v>
+        <v>-0.02311512843736518</v>
       </c>
       <c r="F43">
         <v>-0.03102907327646232</v>
@@ -3718,28 +3718,28 @@
         <v>0.008219205407414609</v>
       </c>
       <c r="I43">
-        <v>-0.02025247768348259</v>
+        <v>-0.02025257941337</v>
       </c>
       <c r="J43">
         <v>0.007217492130681125</v>
       </c>
       <c r="K43">
-        <v>0.003752395060893976</v>
+        <v>0.003752300830697664</v>
       </c>
       <c r="L43">
-        <v>-0.002367032827941373</v>
+        <v>-0.002367426436136966</v>
       </c>
       <c r="M43">
-        <v>-0.002331351195917319</v>
+        <v>-0.002331450738661922</v>
       </c>
       <c r="N43">
-        <v>-0.01928528619483583</v>
+        <v>-0.01928508589865152</v>
       </c>
       <c r="O43">
         <v>0.123822419163746</v>
       </c>
       <c r="P43">
-        <v>0.04405360901432953</v>
+        <v>0.04405360569469141</v>
       </c>
       <c r="Q43">
         <v>0.05127168294565898</v>
@@ -3754,13 +3754,13 @@
         <v>-0.01641785967294096</v>
       </c>
       <c r="U43">
-        <v>-0.01043327118230331</v>
+        <v>-0.01043337808135059</v>
       </c>
       <c r="V43">
         <v>-0.03199374373286812</v>
       </c>
       <c r="W43">
-        <v>0.02206210824527322</v>
+        <v>0.02206219865656278</v>
       </c>
       <c r="X43">
         <v>0.01888930914130182</v>
@@ -3774,55 +3774,55 @@
         <v>44466</v>
       </c>
       <c r="B44">
-        <v>0.02508573972511119</v>
+        <v>0.02508614231460515</v>
       </c>
       <c r="C44">
         <v>0.04934551448528879</v>
       </c>
       <c r="D44">
-        <v>0.007600323046887958</v>
+        <v>0.007600445094952724</v>
       </c>
       <c r="E44">
-        <v>0.0337904169795924</v>
+        <v>0.03379041967873797</v>
       </c>
       <c r="F44">
         <v>0.1214330621709554</v>
       </c>
       <c r="G44">
-        <v>-0.02765591907363252</v>
+        <v>-0.02765580668089407</v>
       </c>
       <c r="H44">
-        <v>-0.0718167966204496</v>
+        <v>-0.07181670057774558</v>
       </c>
       <c r="I44">
-        <v>-0.006711444959432211</v>
+        <v>-0.006711338980324277</v>
       </c>
       <c r="J44">
         <v>-0.0970569281685929</v>
       </c>
       <c r="K44">
-        <v>-0.01682241871826673</v>
+        <v>-0.01682232519127902</v>
       </c>
       <c r="L44">
-        <v>-0.02366779594428425</v>
+        <v>-0.02366750184998867</v>
       </c>
       <c r="M44">
         <v>-0.04502263592858113</v>
       </c>
       <c r="N44">
-        <v>0.03454864135451485</v>
+        <v>0.03454853722898865</v>
       </c>
       <c r="O44">
         <v>0.02634722195255379</v>
       </c>
       <c r="P44">
-        <v>0.05799618367717252</v>
+        <v>0.05799625166624867</v>
       </c>
       <c r="Q44">
         <v>-0.04685093958621389</v>
       </c>
       <c r="R44">
-        <v>0.04415030726070612</v>
+        <v>0.04415020082979937</v>
       </c>
       <c r="S44">
         <v>0.1207751347757953</v>
@@ -3831,19 +3831,19 @@
         <v>0.001517413021720593</v>
       </c>
       <c r="U44">
-        <v>-0.06934307406009688</v>
+        <v>-0.06934318322517041</v>
       </c>
       <c r="V44">
         <v>-0.07784764365441244</v>
       </c>
       <c r="W44">
-        <v>-0.00905929545198636</v>
+        <v>-0.00905938200218126</v>
       </c>
       <c r="X44">
         <v>-0.05190951628378593</v>
       </c>
       <c r="Y44">
-        <v>-0.08136834872234544</v>
+        <v>-0.08136853486286255</v>
       </c>
     </row>
     <row r="45" spans="1:25">
@@ -3851,7 +3851,7 @@
         <v>44473</v>
       </c>
       <c r="B45">
-        <v>0.01848870472420261</v>
+        <v>0.01848850416746317</v>
       </c>
       <c r="C45">
         <v>0.01087649747195951</v>
@@ -3860,46 +3860,46 @@
         <v>0.04633640094853475</v>
       </c>
       <c r="E45">
-        <v>0.001069544830710978</v>
+        <v>0.001069699449534278</v>
       </c>
       <c r="F45">
         <v>0.002261795396563571</v>
       </c>
       <c r="G45">
-        <v>0.01540345291179679</v>
+        <v>0.01540310436294678</v>
       </c>
       <c r="H45">
-        <v>0.01422010298546983</v>
+        <v>0.01421989456635031</v>
       </c>
       <c r="I45">
-        <v>-0.1556756398030236</v>
+        <v>-0.1556757298883592</v>
       </c>
       <c r="J45">
         <v>-0.0760292681576662</v>
       </c>
       <c r="K45">
-        <v>0.07414446824528431</v>
+        <v>0.07414436606487573</v>
       </c>
       <c r="L45">
-        <v>0.002866769600219143</v>
+        <v>0.002866364194838766</v>
       </c>
       <c r="M45">
-        <v>0.03132131666694615</v>
+        <v>0.03132142139039229</v>
       </c>
       <c r="N45">
-        <v>-0.02152000822095035</v>
+        <v>-0.0215199097386265</v>
       </c>
       <c r="O45">
         <v>-0.06067672375804245</v>
       </c>
       <c r="P45">
-        <v>0.02051542925969496</v>
+        <v>0.02051522180504328</v>
       </c>
       <c r="Q45">
         <v>-0.1035455295866016</v>
       </c>
       <c r="R45">
-        <v>0.01532751384141595</v>
+        <v>0.01532761733440746</v>
       </c>
       <c r="S45">
         <v>-0.03659033872347828</v>
@@ -3908,19 +3908,19 @@
         <v>0.03181818805778658</v>
       </c>
       <c r="U45">
-        <v>-0.0002905494822070809</v>
+        <v>-0.0002903149183746123</v>
       </c>
       <c r="V45">
         <v>0.01421809736381596</v>
       </c>
       <c r="W45">
-        <v>0.01207661451974684</v>
+        <v>0.0120767029159905</v>
       </c>
       <c r="X45">
         <v>0.0633555282975351</v>
       </c>
       <c r="Y45">
-        <v>0.02063411832443229</v>
+        <v>0.02063422381951652</v>
       </c>
     </row>
     <row r="46" spans="1:25">
@@ -3928,55 +3928,55 @@
         <v>44480</v>
       </c>
       <c r="B46">
-        <v>-0.01530979466454496</v>
+        <v>-0.01530998480018642</v>
       </c>
       <c r="C46">
         <v>0.06657622587220979</v>
       </c>
       <c r="D46">
-        <v>-0.03913487004312055</v>
+        <v>-0.03913492748821112</v>
       </c>
       <c r="E46">
-        <v>-0.004231079279111594</v>
+        <v>-0.004231156138059244</v>
       </c>
       <c r="F46">
         <v>0.09196044497093991</v>
       </c>
       <c r="G46">
-        <v>0.0189797630321451</v>
+        <v>0.01897999502536551</v>
       </c>
       <c r="H46">
-        <v>0.06350508682011613</v>
+        <v>0.06350519532219989</v>
       </c>
       <c r="I46">
-        <v>0.006722120952684874</v>
+        <v>0.006722184136451537</v>
       </c>
       <c r="J46">
         <v>0.05207062011300323</v>
       </c>
       <c r="K46">
-        <v>-0.03185847463676283</v>
+        <v>-0.03185838607580926</v>
       </c>
       <c r="L46">
-        <v>0.002299090919549718</v>
+        <v>0.002299192300596609</v>
       </c>
       <c r="M46">
-        <v>0.04080992310555809</v>
+        <v>0.04080981741862111</v>
       </c>
       <c r="N46">
-        <v>0.02258095407866278</v>
+        <v>0.02258105694051604</v>
       </c>
       <c r="O46">
         <v>0.2453415380124502</v>
       </c>
       <c r="P46">
-        <v>0.006593801946495059</v>
+        <v>0.006593735540126877</v>
       </c>
       <c r="Q46">
         <v>0.1325842617899324</v>
       </c>
       <c r="R46">
-        <v>-0.00468508824195224</v>
+        <v>-0.004684987850072986</v>
       </c>
       <c r="S46">
         <v>0.1494157749519578</v>
@@ -3985,19 +3985,19 @@
         <v>-0.05139499376995793</v>
       </c>
       <c r="U46">
-        <v>0.02615142133130965</v>
+        <v>0.02615130092986373</v>
       </c>
       <c r="V46">
         <v>0.05227804576920003</v>
       </c>
       <c r="W46">
-        <v>0.02598427092715672</v>
+        <v>0.02598418462791252</v>
       </c>
       <c r="X46">
         <v>0.1489517895370247</v>
       </c>
       <c r="Y46">
-        <v>0.03402353471839459</v>
+        <v>0.0340237366272893</v>
       </c>
     </row>
     <row r="47" spans="1:25">
@@ -4005,16 +4005,16 @@
         <v>44487</v>
       </c>
       <c r="B47">
-        <v>0.03103056999592457</v>
+        <v>0.03103067030559736</v>
       </c>
       <c r="C47">
         <v>0.007096650947816752</v>
       </c>
       <c r="D47">
-        <v>-0.02465176722851781</v>
+        <v>-0.02465164913279216</v>
       </c>
       <c r="E47">
-        <v>0.01669532211470148</v>
+        <v>0.01669539962819888</v>
       </c>
       <c r="F47">
         <v>0.02609152365768508</v>
@@ -4026,34 +4026,34 @@
         <v>0.05312139749184674</v>
       </c>
       <c r="I47">
-        <v>0.04292535604811065</v>
+        <v>0.04292516506842503</v>
       </c>
       <c r="J47">
         <v>0.0916246945239203</v>
       </c>
       <c r="K47">
-        <v>-0.01462514875013299</v>
+        <v>-0.01462523888750045</v>
       </c>
       <c r="L47">
-        <v>0.01500294605794084</v>
+        <v>0.01500324962507249</v>
       </c>
       <c r="M47">
-        <v>0.02948338059212818</v>
+        <v>0.02948328303061931</v>
       </c>
       <c r="N47">
-        <v>-0.06478496181185089</v>
+        <v>-0.06478525706635097</v>
       </c>
       <c r="O47">
         <v>0</v>
       </c>
       <c r="P47">
-        <v>0.008467644383507444</v>
+        <v>0.008467844735947194</v>
       </c>
       <c r="Q47">
         <v>0.08849196550707861</v>
       </c>
       <c r="R47">
-        <v>-0.01778240050706592</v>
+        <v>-0.01778239871345366</v>
       </c>
       <c r="S47">
         <v>0.06790119352648394</v>
@@ -4062,19 +4062,19 @@
         <v>0.007739967560310701</v>
       </c>
       <c r="U47">
-        <v>-0.01203469480932762</v>
+        <v>-0.01203458046652073</v>
       </c>
       <c r="V47">
         <v>0.01887308207278715</v>
       </c>
       <c r="W47">
-        <v>0.004347916783374206</v>
+        <v>0.004347917149093217</v>
       </c>
       <c r="X47">
         <v>0.04673498727650705</v>
       </c>
       <c r="Y47">
-        <v>-0.01573662342848792</v>
+        <v>-0.01573671791727949</v>
       </c>
     </row>
     <row r="48" spans="1:25">
@@ -4082,55 +4082,55 @@
         <v>44494</v>
       </c>
       <c r="B48">
-        <v>-0.01100239076968135</v>
+        <v>-0.01100257949479022</v>
       </c>
       <c r="C48">
-        <v>0.00490212805260537</v>
+        <v>0.00490195701134466</v>
       </c>
       <c r="D48">
-        <v>-0.03296697032406282</v>
+        <v>-0.03296702959913145</v>
       </c>
       <c r="E48">
-        <v>-0.02908519242945729</v>
+        <v>-0.02908534269324303</v>
       </c>
       <c r="F48">
         <v>0.0800604557756901</v>
       </c>
       <c r="G48">
-        <v>0.02163187907960573</v>
+        <v>0.02163210820659578</v>
       </c>
       <c r="H48">
         <v>0.009204668977428998</v>
       </c>
       <c r="I48">
-        <v>0.02774381694126205</v>
+        <v>0.02774394063781482</v>
       </c>
       <c r="J48">
         <v>0.07805824566101105</v>
       </c>
       <c r="K48">
-        <v>0.00556579708842575</v>
+        <v>0.005565889921335332</v>
       </c>
       <c r="L48">
-        <v>-0.005130482086761812</v>
+        <v>-0.005130877857847937</v>
       </c>
       <c r="M48">
-        <v>0.0397105915980891</v>
+        <v>0.03971069012881379</v>
       </c>
       <c r="N48">
-        <v>0.004689985444093825</v>
+        <v>0.004690094011619461</v>
       </c>
       <c r="O48">
         <v>-0.03990021284299206</v>
       </c>
       <c r="P48">
-        <v>0.02138808677929505</v>
+        <v>0.02138775611266186</v>
       </c>
       <c r="Q48">
         <v>0.01458257248351735</v>
       </c>
       <c r="R48">
-        <v>-0.02609160795592769</v>
+        <v>-0.02609170796707927</v>
       </c>
       <c r="S48">
         <v>0.1445086712699855</v>
@@ -4139,19 +4139,19 @@
         <v>0.1105990422238923</v>
       </c>
       <c r="U48">
-        <v>0.005159148093023314</v>
+        <v>0.005159147495926719</v>
       </c>
       <c r="V48">
         <v>-0.01988548891369779</v>
       </c>
       <c r="W48">
-        <v>-0.01807372349255754</v>
+        <v>-0.01807364125673805</v>
       </c>
       <c r="X48">
         <v>0.1703363781305161</v>
       </c>
       <c r="Y48">
-        <v>-0.0009690039673078132</v>
+        <v>-0.0009691015016783933</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -4159,25 +4159,25 @@
         <v>44501</v>
       </c>
       <c r="B49">
-        <v>-0.01083053846800464</v>
+        <v>-0.01083054053473864</v>
       </c>
       <c r="C49">
-        <v>0.0147863827003083</v>
+        <v>0.01478655542396656</v>
       </c>
       <c r="D49">
-        <v>0.01282997269038511</v>
+        <v>0.01282978253407996</v>
       </c>
       <c r="E49">
-        <v>0.03127467388171024</v>
+        <v>0.03127475486208264</v>
       </c>
       <c r="F49">
         <v>0.06666656979685381</v>
       </c>
       <c r="G49">
-        <v>0.02133005681795308</v>
+        <v>0.0213300520341444</v>
       </c>
       <c r="H49">
-        <v>0.06457504340436437</v>
+        <v>0.06457486288192271</v>
       </c>
       <c r="I49">
         <v>-0.01512899131548007</v>
@@ -4186,22 +4186,22 @@
         <v>0.1159492200343888</v>
       </c>
       <c r="K49">
-        <v>0.02767532154966434</v>
+        <v>0.0276752266756326</v>
       </c>
       <c r="L49">
-        <v>0.003376638863862302</v>
+        <v>0.003376838954884054</v>
       </c>
       <c r="M49">
         <v>0.03010077586009663</v>
       </c>
       <c r="N49">
-        <v>0.02295452207242987</v>
+        <v>0.02295463158638489</v>
       </c>
       <c r="O49">
         <v>0.0441558639724533</v>
       </c>
       <c r="P49">
-        <v>0.008530962560576727</v>
+        <v>0.008531158178769704</v>
       </c>
       <c r="Q49">
         <v>-0.2454185715446923</v>
@@ -4216,19 +4216,19 @@
         <v>0.01659749450103876</v>
       </c>
       <c r="U49">
-        <v>0.03778164935071082</v>
+        <v>0.0377815298588664</v>
       </c>
       <c r="V49">
         <v>0.09560862319155561</v>
       </c>
       <c r="W49">
-        <v>0.0383556201568569</v>
+        <v>0.03835570544786049</v>
       </c>
       <c r="X49">
         <v>0.002612972901096855</v>
       </c>
       <c r="Y49">
-        <v>-0.009699438467436372</v>
+        <v>-0.009699341785399773</v>
       </c>
     </row>
     <row r="50" spans="1:25">
@@ -4236,25 +4236,25 @@
         <v>44508</v>
       </c>
       <c r="B50">
-        <v>-0.007081197694986163</v>
+        <v>-0.007081006147012792</v>
       </c>
       <c r="C50">
         <v>-0.002553640711725258</v>
       </c>
       <c r="D50">
-        <v>-0.01149427805043224</v>
+        <v>-0.01149415504342477</v>
       </c>
       <c r="E50">
-        <v>0.004316252488359318</v>
+        <v>0.00431632863154241</v>
       </c>
       <c r="F50">
         <v>0.008741298475110293</v>
       </c>
       <c r="G50">
-        <v>0.003560677602546969</v>
+        <v>0.00356056702488261</v>
       </c>
       <c r="H50">
-        <v>0.01336526492831847</v>
+        <v>0.01336535198086342</v>
       </c>
       <c r="I50">
         <v>0.02168666647482942</v>
@@ -4263,22 +4263,22 @@
         <v>0.002220176274289498</v>
       </c>
       <c r="K50">
-        <v>-0.01436266773603778</v>
+        <v>-0.01436275756896299</v>
       </c>
       <c r="L50">
-        <v>0.009667726615011363</v>
+        <v>0.009667627241749077</v>
       </c>
       <c r="M50">
-        <v>0.01075121533400236</v>
+        <v>0.01075112684954638</v>
       </c>
       <c r="N50">
-        <v>0.01617650814063354</v>
+        <v>0.01617661279485794</v>
       </c>
       <c r="O50">
         <v>-0.02338314486483395</v>
       </c>
       <c r="P50">
-        <v>-0.01845582119422529</v>
+        <v>-0.01845582237405663</v>
       </c>
       <c r="Q50">
         <v>0.1338096171472656</v>
@@ -4299,13 +4299,13 @@
         <v>0.002790400280819449</v>
       </c>
       <c r="W50">
-        <v>0.03078221780708157</v>
+        <v>0.03078221527861635</v>
       </c>
       <c r="X50">
         <v>0.1243158871656855</v>
       </c>
       <c r="Y50">
-        <v>0.02546524571225883</v>
+        <v>0.02546534429745329</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -4313,25 +4313,25 @@
         <v>44515</v>
       </c>
       <c r="B51">
-        <v>-0.03559865205620261</v>
+        <v>-0.03559884634600641</v>
       </c>
       <c r="C51">
-        <v>-0.03388558078889159</v>
+        <v>-0.03388549671078001</v>
       </c>
       <c r="D51">
-        <v>-0.05348838931928923</v>
+        <v>-0.05348832939543813</v>
       </c>
       <c r="E51">
-        <v>0.003617026986987737</v>
+        <v>0.003617102528696847</v>
       </c>
       <c r="F51">
         <v>-0.04874346286537934</v>
       </c>
       <c r="G51">
-        <v>0.001774131486818709</v>
+        <v>0.001774131292717751</v>
       </c>
       <c r="H51">
-        <v>0.1332431504849307</v>
+        <v>0.1332432453010219</v>
       </c>
       <c r="I51">
         <v>0.002358507858841508</v>
@@ -4340,22 +4340,22 @@
         <v>-0.02807779320247494</v>
       </c>
       <c r="K51">
-        <v>0.03096548326113968</v>
+        <v>0.03096539494141992</v>
       </c>
       <c r="L51">
-        <v>-0.01284777816840255</v>
+        <v>-0.0128475825893879</v>
       </c>
       <c r="M51">
-        <v>0.02454651716145539</v>
+        <v>0.02454660685360488</v>
       </c>
       <c r="N51">
-        <v>-0.03547192865139892</v>
+        <v>-0.0354720279864319</v>
       </c>
       <c r="O51">
         <v>-0.0881303930819306</v>
       </c>
       <c r="P51">
-        <v>-0.03658178771075615</v>
+        <v>-0.03658172496395096</v>
       </c>
       <c r="Q51">
         <v>-0.05627890653341028</v>
@@ -4370,19 +4370,19 @@
         <v>-0.1653439165953776</v>
       </c>
       <c r="U51">
-        <v>0.04582223649737882</v>
+        <v>0.04582212765596227</v>
       </c>
       <c r="V51">
         <v>-0.03415115137330926</v>
       </c>
       <c r="W51">
-        <v>-0.01680521666233703</v>
+        <v>-0.01680529501066264</v>
       </c>
       <c r="X51">
         <v>0.03268428065278184</v>
       </c>
       <c r="Y51">
-        <v>-0.01098375303240262</v>
+        <v>-0.01098394425052018</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -4390,22 +4390,22 @@
         <v>44522</v>
       </c>
       <c r="B52">
-        <v>0.006276232813817062</v>
+        <v>0.006276536270643618</v>
       </c>
       <c r="C52">
-        <v>-0.05720959696282457</v>
+        <v>-0.05720976603817507</v>
       </c>
       <c r="D52">
         <v>-0.04791162819350603</v>
       </c>
       <c r="E52">
-        <v>0.01759601062009519</v>
+        <v>0.01759585687621268</v>
       </c>
       <c r="F52">
         <v>-0.07697571799018776</v>
       </c>
       <c r="G52">
-        <v>0.004427255371424854</v>
+        <v>0.004427036462983924</v>
       </c>
       <c r="H52">
         <v>-0.04267380696189149</v>
@@ -4417,10 +4417,10 @@
         <v>-0.04250716076277594</v>
       </c>
       <c r="K52">
-        <v>-0.00530046737680212</v>
+        <v>-0.005300203100487066</v>
       </c>
       <c r="L52">
-        <v>-0.02265345193701407</v>
+        <v>-0.02265334997570767</v>
       </c>
       <c r="M52">
         <v>-0.05164373484884688</v>
@@ -4432,13 +4432,13 @@
         <v>0.03128488703221333</v>
       </c>
       <c r="P52">
-        <v>0.009559988377801476</v>
+        <v>0.009559920775436881</v>
       </c>
       <c r="Q52">
         <v>-0.004005336276284632</v>
       </c>
       <c r="R52">
-        <v>-0.05034084987304766</v>
+        <v>-0.05034074874415628</v>
       </c>
       <c r="S52">
         <v>-0.06930372110684846</v>
@@ -4447,19 +4447,19 @@
         <v>-0.08874801075400052</v>
       </c>
       <c r="U52">
-        <v>-0.06417521076518407</v>
+        <v>-0.06417511337147541</v>
       </c>
       <c r="V52">
         <v>-0.0916710006958863</v>
       </c>
       <c r="W52">
-        <v>-0.02453872470635954</v>
+        <v>-0.02453864365680669</v>
       </c>
       <c r="X52">
         <v>-0.0965207477149278</v>
       </c>
       <c r="Y52">
-        <v>-0.0222114713809396</v>
+        <v>-0.02221137633527692</v>
       </c>
     </row>
     <row r="53" spans="1:25">
@@ -4467,22 +4467,22 @@
         <v>44529</v>
       </c>
       <c r="B53">
-        <v>-0.02247882056013528</v>
+        <v>-0.02247881830994958</v>
       </c>
       <c r="C53">
-        <v>0.01587291037818539</v>
+        <v>0.01587309645935231</v>
       </c>
       <c r="D53">
-        <v>-0.0154838225605276</v>
+        <v>-0.0154837523066117</v>
       </c>
       <c r="E53">
-        <v>-0.01041663418822514</v>
+        <v>-0.01041678266110002</v>
       </c>
       <c r="F53">
         <v>0.01899828462805431</v>
       </c>
       <c r="G53">
-        <v>0.0163422837509748</v>
+        <v>0.01634239425899753</v>
       </c>
       <c r="H53">
         <v>0.001558549809081988</v>
@@ -4494,28 +4494,28 @@
         <v>-0.03368238889228392</v>
       </c>
       <c r="K53">
-        <v>-0.02309049300784849</v>
+        <v>-0.02309057983122176</v>
       </c>
       <c r="L53">
-        <v>0.007688464131177852</v>
+        <v>0.007688156521579836</v>
       </c>
       <c r="M53">
         <v>-0.01150878365216612</v>
       </c>
       <c r="N53">
-        <v>-0.03249896952156617</v>
+        <v>-0.03249907451172751</v>
       </c>
       <c r="O53">
         <v>-0.1267604746095308</v>
       </c>
       <c r="P53">
-        <v>-0.005877473759687613</v>
+        <v>-0.005877474153256124</v>
       </c>
       <c r="Q53">
         <v>-0.09294013402261969</v>
       </c>
       <c r="R53">
-        <v>0.007178255831214786</v>
+        <v>0.00717814857714405</v>
       </c>
       <c r="S53">
         <v>-0.1415524719526954</v>
@@ -4530,13 +4530,13 @@
         <v>-0.002306974004313234</v>
       </c>
       <c r="W53">
-        <v>-0.04912919578951003</v>
+        <v>-0.04912927479587248</v>
       </c>
       <c r="X53">
         <v>-0.1686956749199339</v>
       </c>
       <c r="Y53">
-        <v>0.01086423042300644</v>
+        <v>0.01086413101018824</v>
       </c>
     </row>
     <row r="54" spans="1:25">
@@ -4544,28 +4544,28 @@
         <v>44536</v>
       </c>
       <c r="B54">
-        <v>0.009665853268150837</v>
+        <v>0.009665954682760436</v>
       </c>
       <c r="C54">
-        <v>-0.004557186129972468</v>
+        <v>-0.004557276581546477</v>
       </c>
       <c r="D54">
-        <v>0.04062907369682378</v>
+        <v>0.04062907079758116</v>
       </c>
       <c r="E54">
-        <v>0.007112294326315993</v>
+        <v>0.007112445429179104</v>
       </c>
       <c r="F54">
         <v>0.07578696575530586</v>
       </c>
       <c r="G54">
-        <v>0.03722967731540883</v>
+        <v>0.03722978429816259</v>
       </c>
       <c r="H54">
-        <v>-0.008714497468574001</v>
+        <v>-0.008714574470133019</v>
       </c>
       <c r="I54">
-        <v>-0.0003289335281568828</v>
+        <v>-0.0003289984577912186</v>
       </c>
       <c r="J54">
         <v>-0.02266293770114203</v>
@@ -4574,19 +4574,19 @@
         <v>0.02181810572895615</v>
       </c>
       <c r="L54">
-        <v>0.03833609621405198</v>
+        <v>0.03833620133035343</v>
       </c>
       <c r="M54">
         <v>0.06630700310331283</v>
       </c>
       <c r="N54">
-        <v>-0.0006963526076978477</v>
+        <v>-0.0006962441664050134</v>
       </c>
       <c r="O54">
         <v>0.02822580024925703</v>
       </c>
       <c r="P54">
-        <v>0.03481686409775442</v>
+        <v>0.03481686644295245</v>
       </c>
       <c r="Q54">
         <v>0.01133002077526846</v>
@@ -4607,13 +4607,13 @@
         <v>0.006069490996180038</v>
       </c>
       <c r="W54">
-        <v>0.02815167071956237</v>
+        <v>0.02815158333814649</v>
       </c>
       <c r="X54">
         <v>-0.007172679926369718</v>
       </c>
       <c r="Y54">
-        <v>0.0346848834555149</v>
+        <v>0.03468488686657833</v>
       </c>
     </row>
     <row r="55" spans="1:25">
@@ -4621,40 +4621,40 @@
         <v>44543</v>
       </c>
       <c r="B55">
-        <v>-0.01914663794336258</v>
+        <v>-0.01914693833172809</v>
       </c>
       <c r="C55">
-        <v>-0.02517995494884928</v>
+        <v>-0.02517986366718783</v>
       </c>
       <c r="D55">
-        <v>0.01637277861067021</v>
+        <v>0.01637270891517328</v>
       </c>
       <c r="E55">
-        <v>-0.02436445830585021</v>
+        <v>-0.02436453279394024</v>
       </c>
       <c r="F55">
         <v>-0.09025429479777214</v>
       </c>
       <c r="G55">
-        <v>0.01286520538100056</v>
+        <v>0.01286499776850625</v>
       </c>
       <c r="H55">
-        <v>-0.04238619926691645</v>
+        <v>-0.04238612488091853</v>
       </c>
       <c r="I55">
-        <v>-0.008226433731599925</v>
+        <v>-0.00822636931491183</v>
       </c>
       <c r="J55">
         <v>-0.1422810476702079</v>
       </c>
       <c r="K55">
-        <v>-0.00711744310880047</v>
+        <v>-0.007117354075099058</v>
       </c>
       <c r="L55">
         <v>0.01655666007387602</v>
       </c>
       <c r="M55">
-        <v>0.01850855376840643</v>
+        <v>0.01850863924839152</v>
       </c>
       <c r="N55">
         <v>-0.01640419505726187</v>
@@ -4663,13 +4663,13 @@
         <v>0.06485663988592028</v>
       </c>
       <c r="P55">
-        <v>-0.04729414650187502</v>
+        <v>-0.04729414958033684</v>
       </c>
       <c r="Q55">
         <v>-0.05406721377236368</v>
       </c>
       <c r="R55">
-        <v>0.01040528446208566</v>
+        <v>0.01040517884719661</v>
       </c>
       <c r="S55">
         <v>-0.0833689143426749</v>
@@ -4684,13 +4684,13 @@
         <v>-0.01465105479510831</v>
       </c>
       <c r="W55">
-        <v>-0.02177269548303873</v>
+        <v>-0.0217725273557845</v>
       </c>
       <c r="X55">
         <v>-0.104455180409222</v>
       </c>
       <c r="Y55">
-        <v>-0.006137798013636897</v>
+        <v>-0.006137893644694081</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -4698,40 +4698,40 @@
         <v>44550</v>
       </c>
       <c r="B56">
-        <v>0.003189701133679002</v>
+        <v>0.003189908271395536</v>
       </c>
       <c r="C56">
-        <v>0.02398519596968085</v>
+        <v>0.02398528736321048</v>
       </c>
       <c r="D56">
         <v>0.007434988380637941</v>
       </c>
       <c r="E56">
-        <v>0.004343224277712832</v>
+        <v>0.00434322460931047</v>
       </c>
       <c r="F56">
         <v>-0.04032666394049</v>
       </c>
       <c r="G56">
-        <v>0.01676614022564049</v>
+        <v>0.01676614193298231</v>
       </c>
       <c r="H56">
         <v>0.00360644926575171</v>
       </c>
       <c r="I56">
-        <v>0.02521571340010587</v>
+        <v>0.02521564791036002</v>
       </c>
       <c r="J56">
         <v>-0.09249189530936808</v>
       </c>
       <c r="K56">
-        <v>-0.080645020997132</v>
+        <v>-0.08064519310939389</v>
       </c>
       <c r="L56">
         <v>0.0001190239384860625</v>
       </c>
       <c r="M56">
-        <v>-0.06510658261694935</v>
+        <v>-0.06510666107939178</v>
       </c>
       <c r="N56">
         <v>0.02671556071753467</v>
@@ -4740,13 +4740,13 @@
         <v>0.08923517263342617</v>
       </c>
       <c r="P56">
-        <v>0.0164918278750017</v>
+        <v>0.01649182900177437</v>
       </c>
       <c r="Q56">
         <v>0.009268785654018785</v>
       </c>
       <c r="R56">
-        <v>0.0005419738069334379</v>
+        <v>0.0005420783908485216</v>
       </c>
       <c r="S56">
         <v>-0.03311571707721961</v>
@@ -4755,19 +4755,19 @@
         <v>-0.05836570460902091</v>
       </c>
       <c r="U56">
-        <v>0.01568639785215709</v>
+        <v>0.01568628864278221</v>
       </c>
       <c r="V56">
         <v>0.03498541798616062</v>
       </c>
       <c r="W56">
-        <v>0.01000454558565589</v>
+        <v>0.01000437095555196</v>
       </c>
       <c r="X56">
         <v>-0.01176471870486484</v>
       </c>
       <c r="Y56">
-        <v>-0.004275633983620297</v>
+        <v>-0.004275443532078871</v>
       </c>
     </row>
     <row r="57" spans="1:25">
@@ -4775,40 +4775,40 @@
         <v>44557</v>
       </c>
       <c r="B57">
-        <v>0.006931288762056065</v>
+        <v>0.006931081897324276</v>
       </c>
       <c r="C57">
-        <v>0.002620846538919475</v>
+        <v>0.002620754613456455</v>
       </c>
       <c r="D57">
-        <v>-0.00492010051960845</v>
+        <v>-0.004920033549397074</v>
       </c>
       <c r="E57">
-        <v>0.003026965144175886</v>
+        <v>0.003027041392396512</v>
       </c>
       <c r="F57">
         <v>0.03093586484578892</v>
       </c>
       <c r="G57">
-        <v>0.02173651338040683</v>
+        <v>0.02173641540388926</v>
       </c>
       <c r="H57">
-        <v>0.003593651178532165</v>
+        <v>0.003593570353306985</v>
       </c>
       <c r="I57">
-        <v>-0.008090657576089955</v>
+        <v>-0.008090594213917335</v>
       </c>
       <c r="J57">
         <v>0.03796650601272589</v>
       </c>
       <c r="K57">
-        <v>0.1052629782196937</v>
+        <v>0.1052631835626026</v>
       </c>
       <c r="L57">
-        <v>0.01676081480938096</v>
+        <v>0.0167607189110941</v>
       </c>
       <c r="M57">
-        <v>0.02782830407416381</v>
+        <v>0.02782839384549307</v>
       </c>
       <c r="N57">
         <v>0.05785092596386043</v>
@@ -4817,7 +4817,7 @@
         <v>-0.0174252788126954</v>
       </c>
       <c r="P57">
-        <v>0.002785910744388165</v>
+        <v>0.002785910931641933</v>
       </c>
       <c r="Q57">
         <v>0.02040816008230117</v>
@@ -4832,19 +4832,19 @@
         <v>-0.1157024638687492</v>
       </c>
       <c r="U57">
-        <v>0.01637592699378621</v>
+        <v>0.01637592875456995</v>
       </c>
       <c r="V57">
         <v>-0.009577425150629537</v>
       </c>
       <c r="W57">
-        <v>0.02515298418842971</v>
+        <v>0.02515315839184118</v>
       </c>
       <c r="X57">
         <v>-0.03979592147873734</v>
       </c>
       <c r="Y57">
-        <v>-0.002862534291776075</v>
+        <v>-0.002862630337081784</v>
       </c>
     </row>
     <row r="58" spans="1:25">
@@ -4852,25 +4852,25 @@
         <v>44564</v>
       </c>
       <c r="B58">
-        <v>0.05563612867932788</v>
+        <v>0.05563623674019502</v>
       </c>
       <c r="C58">
-        <v>0.0679627926083568</v>
+        <v>0.0679626952025707</v>
       </c>
       <c r="D58">
-        <v>0.02101363222307429</v>
+        <v>0.02101356350749262</v>
       </c>
       <c r="E58">
-        <v>0.02392762967276196</v>
+        <v>0.02392755388406109</v>
       </c>
       <c r="F58">
         <v>0.06176545945494949</v>
       </c>
       <c r="G58">
-        <v>-0.005135415586373648</v>
+        <v>-0.005135122524629221</v>
       </c>
       <c r="H58">
-        <v>-0.05794261453218719</v>
+        <v>-0.05794269973445698</v>
       </c>
       <c r="I58">
         <v>0.04110930855426242</v>
@@ -4879,28 +4879,28 @@
         <v>-0.01965375330267893</v>
       </c>
       <c r="K58">
-        <v>-0.0335096598652902</v>
+        <v>-0.03350974515667593</v>
       </c>
       <c r="L58">
-        <v>0.01683500444989705</v>
+        <v>0.01683510035519031</v>
       </c>
       <c r="M58">
-        <v>-0.0967346338084818</v>
+        <v>-0.09673471270037959</v>
       </c>
       <c r="N58">
-        <v>-0.04047285659031552</v>
+        <v>-0.04047275494007463</v>
       </c>
       <c r="O58">
         <v>-0.1289041579999598</v>
       </c>
       <c r="P58">
-        <v>0.1256741662805863</v>
+        <v>0.125674241732129</v>
       </c>
       <c r="Q58">
         <v>-0.08874999598774225</v>
       </c>
       <c r="R58">
-        <v>0.03558149366996344</v>
+        <v>0.0355813912521239</v>
       </c>
       <c r="S58">
         <v>-0.07139442350504133</v>
@@ -4909,19 +4909,19 @@
         <v>-0.02570096451451576</v>
       </c>
       <c r="U58">
-        <v>-0.003405813452952544</v>
+        <v>-0.003405708022926501</v>
       </c>
       <c r="V58">
         <v>0.03384522907672571</v>
       </c>
       <c r="W58">
-        <v>0.03246131991008272</v>
+        <v>0.03246106545839522</v>
       </c>
       <c r="X58">
         <v>-0.1158342370098611</v>
       </c>
       <c r="Y58">
-        <v>0.03492812380411436</v>
+        <v>0.03492822348946478</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -4929,55 +4929,55 @@
         <v>44571</v>
       </c>
       <c r="B59">
-        <v>-0.04979399573794985</v>
+        <v>-0.04979418967907379</v>
       </c>
       <c r="C59">
-        <v>0.03411350009556635</v>
+        <v>0.03411358549845311</v>
       </c>
       <c r="D59">
         <v>-0.003632048641938335</v>
       </c>
       <c r="E59">
-        <v>-0.006315850713537574</v>
+        <v>-0.006315777163382053</v>
       </c>
       <c r="F59">
         <v>0.0723033079644837</v>
       </c>
       <c r="G59">
-        <v>-0.01800397189327763</v>
+        <v>-0.01800416717696374</v>
       </c>
       <c r="H59">
-        <v>-0.1026262050462097</v>
+        <v>-0.1026261371037988</v>
       </c>
       <c r="I59">
-        <v>-0.01441555592917243</v>
+        <v>-0.01441549407204601</v>
       </c>
       <c r="J59">
         <v>-0.02513918941474635</v>
       </c>
       <c r="K59">
-        <v>-0.04927013180989737</v>
+        <v>-0.04927004050161499</v>
       </c>
       <c r="L59">
-        <v>-0.03512489814242403</v>
+        <v>-0.03512499089832732</v>
       </c>
       <c r="M59">
         <v>-0.05904503942282668</v>
       </c>
       <c r="N59">
-        <v>-0.004077759651812007</v>
+        <v>-0.004077865157659843</v>
       </c>
       <c r="O59">
         <v>-0.1309632174392519</v>
       </c>
       <c r="P59">
-        <v>0.04340875932662636</v>
+        <v>0.04340887841591234</v>
       </c>
       <c r="Q59">
         <v>0.007407483819716676</v>
       </c>
       <c r="R59">
-        <v>-0.009743615558730823</v>
+        <v>-0.009743517623483688</v>
       </c>
       <c r="S59">
         <v>0.04024771519209147</v>
@@ -4992,7 +4992,7 @@
         <v>0.03053647995515285</v>
       </c>
       <c r="W59">
-        <v>0.006308996746879014</v>
+        <v>0.006309160314649453</v>
       </c>
       <c r="X59">
         <v>-0.06089738005481793</v>
@@ -5006,10 +5006,10 @@
         <v>44578</v>
       </c>
       <c r="B60">
-        <v>-0.08113257880058522</v>
+        <v>-0.08113239125576233</v>
       </c>
       <c r="C60">
-        <v>-0.04008886871597928</v>
+        <v>-0.04008886540521539</v>
       </c>
       <c r="D60">
         <v>-0.04495736743761902</v>
@@ -5021,22 +5021,22 @@
         <v>-0.05293208225200385</v>
       </c>
       <c r="G60">
-        <v>0.01758324915206666</v>
+        <v>0.01758345158678676</v>
       </c>
       <c r="H60">
-        <v>0.05044281577560494</v>
+        <v>0.05044282058109384</v>
       </c>
       <c r="I60">
-        <v>-0.07186008620970996</v>
+        <v>-0.07186014446150646</v>
       </c>
       <c r="J60">
         <v>-0.1664762638604973</v>
       </c>
       <c r="K60">
-        <v>-0.02303255176782626</v>
+        <v>-0.02303264559596196</v>
       </c>
       <c r="L60">
-        <v>-0.01769550284244703</v>
+        <v>-0.01769540841100248</v>
       </c>
       <c r="M60">
         <v>0.01056507223763203</v>
@@ -5048,7 +5048,7 @@
         <v>-0.1711538598767015</v>
       </c>
       <c r="P60">
-        <v>0.004174253304231934</v>
+        <v>0.004174024558161182</v>
       </c>
       <c r="Q60">
         <v>-0.040577455383772</v>
@@ -5069,7 +5069,7 @@
         <v>-0.05605970249370684</v>
       </c>
       <c r="W60">
-        <v>-0.05611284205670419</v>
+        <v>-0.05611276129509635</v>
       </c>
       <c r="X60">
         <v>-0.1015358794321345</v>
@@ -5083,10 +5083,10 @@
         <v>44585</v>
       </c>
       <c r="B61">
-        <v>0.01054587339420965</v>
+        <v>0.01054598445718136</v>
       </c>
       <c r="C61">
-        <v>0.005239767341700174</v>
+        <v>0.005239680856271356</v>
       </c>
       <c r="D61">
         <v>-0.01908394329083696</v>
@@ -5098,25 +5098,25 @@
         <v>0.1080704023617087</v>
       </c>
       <c r="G61">
-        <v>-0.007707482463968796</v>
+        <v>-0.007707580305494677</v>
       </c>
       <c r="H61">
-        <v>-0.05021997186754346</v>
+        <v>-0.05021988573070313</v>
       </c>
       <c r="I61">
-        <v>-0.03699897134730268</v>
+        <v>-0.03699890372616799</v>
       </c>
       <c r="J61">
         <v>-0.05512039638790633</v>
       </c>
       <c r="K61">
-        <v>0.01178787680689619</v>
+        <v>0.01178777850249957</v>
       </c>
       <c r="L61">
         <v>0.04197243553922703</v>
       </c>
       <c r="M61">
-        <v>0.01203860839511628</v>
+        <v>0.01203871008285828</v>
       </c>
       <c r="N61">
         <v>-0.06173059740354259</v>
@@ -5125,7 +5125,7 @@
         <v>0.1103142703874491</v>
       </c>
       <c r="P61">
-        <v>0.04309251728206198</v>
+        <v>0.04309286316117533</v>
       </c>
       <c r="Q61">
         <v>-0.04569957621688059</v>
@@ -5146,13 +5146,13 @@
         <v>-0.01527159280165502</v>
       </c>
       <c r="W61">
-        <v>-0.02712271627596563</v>
+        <v>-0.02712288508081317</v>
       </c>
       <c r="X61">
         <v>-0.1092117424209831</v>
       </c>
       <c r="Y61">
-        <v>-0.03892692899780925</v>
+        <v>-0.0389268231004154</v>
       </c>
     </row>
     <row r="62" spans="1:25">
@@ -5160,7 +5160,7 @@
         <v>44592</v>
       </c>
       <c r="B62">
-        <v>0.04058378774032589</v>
+        <v>0.04058367337608182</v>
       </c>
       <c r="C62">
         <v>0.007971753820931182</v>
@@ -5169,40 +5169,40 @@
         <v>0.03372240065528209</v>
       </c>
       <c r="E62">
-        <v>0.04572617078860985</v>
+        <v>0.04572609784591464</v>
       </c>
       <c r="F62">
         <v>0.09250733190889449</v>
       </c>
       <c r="G62">
-        <v>0.006417343979553847</v>
+        <v>0.006417542714309388</v>
       </c>
       <c r="H62">
-        <v>0.01119256762176279</v>
+        <v>0.01119266310845046</v>
       </c>
       <c r="I62">
-        <v>-0.002845912805343409</v>
+        <v>-0.002845982824672744</v>
       </c>
       <c r="J62">
         <v>0.0334679893901535</v>
       </c>
       <c r="K62">
-        <v>0.009708622782428566</v>
+        <v>0.009708720884816335</v>
       </c>
       <c r="L62">
-        <v>-0.0009312382679474984</v>
+        <v>-0.0009313321901124327</v>
       </c>
       <c r="M62">
-        <v>0.01189540428127245</v>
+        <v>0.01189530260792959</v>
       </c>
       <c r="N62">
-        <v>0.03161015217670959</v>
+        <v>0.03161003393896289</v>
       </c>
       <c r="O62">
         <v>0.09080544898784448</v>
       </c>
       <c r="P62">
-        <v>0.08142930024754635</v>
+        <v>0.08142928250169224</v>
       </c>
       <c r="Q62">
         <v>-0.01070799130849176</v>
@@ -5223,13 +5223,13 @@
         <v>-0.05628944738520869</v>
       </c>
       <c r="W62">
-        <v>0.0006829175539537768</v>
+        <v>0.0006829176140150661</v>
       </c>
       <c r="X62">
         <v>0.1423240961470438</v>
       </c>
       <c r="Y62">
-        <v>0.04871361527592044</v>
+        <v>0.04871360990833251</v>
       </c>
     </row>
     <row r="63" spans="1:25">
@@ -5240,25 +5240,25 @@
         <v>0.008914757215290781</v>
       </c>
       <c r="C63">
-        <v>0.0194676661963824</v>
+        <v>0.01946775110568844</v>
       </c>
       <c r="D63">
         <v>0.03136769975052189</v>
       </c>
       <c r="E63">
-        <v>0.01182448433239602</v>
+        <v>0.01182448515719137</v>
       </c>
       <c r="F63">
         <v>-0.03639839759838348</v>
       </c>
       <c r="G63">
-        <v>-0.03243986841948054</v>
+        <v>-0.03243986201366134</v>
       </c>
       <c r="H63">
-        <v>-0.08244267168277641</v>
+        <v>-0.08244275832750114</v>
       </c>
       <c r="I63">
-        <v>0.0103460446308028</v>
+        <v>0.0103459742112233</v>
       </c>
       <c r="J63">
         <v>-0.01544015388521225</v>
@@ -5267,19 +5267,19 @@
         <v>-0.00576916304171482</v>
       </c>
       <c r="L63">
-        <v>-0.02283975320946785</v>
+        <v>-0.02283975535662719</v>
       </c>
       <c r="M63">
         <v>0.01314771026699657</v>
       </c>
       <c r="N63">
-        <v>-0.006100828893921717</v>
+        <v>-0.006100714978396815</v>
       </c>
       <c r="O63">
         <v>0.1166841656442321</v>
       </c>
       <c r="P63">
-        <v>-0.01474008000142679</v>
+        <v>-0.01474017779098857</v>
       </c>
       <c r="Q63">
         <v>0.003307323758908076</v>
@@ -5300,13 +5300,13 @@
         <v>0.02556293718151514</v>
       </c>
       <c r="W63">
-        <v>-0.00136472721539227</v>
+        <v>-0.001364639447176463</v>
       </c>
       <c r="X63">
         <v>-0.006532869232606986</v>
       </c>
       <c r="Y63">
-        <v>-0.01356989404801434</v>
+        <v>-0.01356999769059786</v>
       </c>
     </row>
     <row r="64" spans="1:25">
@@ -5314,28 +5314,28 @@
         <v>44606</v>
       </c>
       <c r="B64">
-        <v>-0.0115645839053895</v>
+        <v>-0.01156468858973125</v>
       </c>
       <c r="C64">
-        <v>-0.05937635030485044</v>
+        <v>-0.05937651193527782</v>
       </c>
       <c r="D64">
-        <v>0.02554732921992997</v>
+        <v>0.02554739545688656</v>
       </c>
       <c r="E64">
-        <v>0.01945099297942354</v>
+        <v>0.01945099432033559</v>
       </c>
       <c r="F64">
         <v>-0.05268389642576976</v>
       </c>
       <c r="G64">
-        <v>0.02309808230629362</v>
+        <v>0.02309807759225091</v>
       </c>
       <c r="H64">
-        <v>0.0008317534272008764</v>
+        <v>0.0008318563415070646</v>
       </c>
       <c r="I64">
-        <v>-0.02365824160781571</v>
+        <v>-0.02365810385979761</v>
       </c>
       <c r="J64">
         <v>-0.1928716435907257</v>
@@ -5344,7 +5344,7 @@
         <v>0.0251450611462023</v>
       </c>
       <c r="L64">
-        <v>-0.02593780714102678</v>
+        <v>-0.0259375210152305</v>
       </c>
       <c r="M64">
         <v>0.01038173179011959</v>
@@ -5356,7 +5356,7 @@
         <v>-0.07766692363716521</v>
       </c>
       <c r="P64">
-        <v>-0.02483973670635875</v>
+        <v>-0.02483973416606289</v>
       </c>
       <c r="Q64">
         <v>-0.01498349224263673</v>
@@ -5377,13 +5377,13 @@
         <v>-0.02403554433827326</v>
       </c>
       <c r="W64">
-        <v>0.1029379797000149</v>
+        <v>0.1029378036834976</v>
       </c>
       <c r="X64">
         <v>0.03663685982878495</v>
       </c>
       <c r="Y64">
-        <v>0.009523926181716602</v>
+        <v>0.009523819667975664</v>
       </c>
     </row>
     <row r="65" spans="1:25">
@@ -5391,28 +5391,28 @@
         <v>44613</v>
       </c>
       <c r="B65">
-        <v>-0.02740896686060745</v>
+        <v>-0.02740886385431962</v>
       </c>
       <c r="C65">
-        <v>-0.09563840472024843</v>
+        <v>-0.09563832464319277</v>
       </c>
       <c r="D65">
-        <v>-0.05100830536288559</v>
+        <v>-0.05100836665534458</v>
       </c>
       <c r="E65">
-        <v>0.009616754624595991</v>
+        <v>0.009616822897577704</v>
       </c>
       <c r="F65">
         <v>-0.08310601638389581</v>
       </c>
       <c r="G65">
-        <v>-0.01038136484965813</v>
+        <v>-0.01038156225925213</v>
       </c>
       <c r="H65">
-        <v>0.02244402618267483</v>
+        <v>0.02244402387478406</v>
       </c>
       <c r="I65">
-        <v>-0.08499095414867375</v>
+        <v>-0.08499101946876375</v>
       </c>
       <c r="J65">
         <v>0.05500883791117839</v>
@@ -5421,19 +5421,19 @@
         <v>-0.09999995279534202</v>
       </c>
       <c r="L65">
-        <v>0.02268366176628045</v>
+        <v>0.02268345974762909</v>
       </c>
       <c r="M65">
         <v>0.01677249834079264</v>
       </c>
       <c r="N65">
-        <v>-0.03345176241707526</v>
+        <v>-0.03345164698536818</v>
       </c>
       <c r="O65">
         <v>-0.04666889330432245</v>
       </c>
       <c r="P65">
-        <v>0.006204777694555741</v>
+        <v>0.00620456729899499</v>
       </c>
       <c r="Q65">
         <v>0.149680460922692</v>
@@ -5454,13 +5454,13 @@
         <v>-0.02219521229664134</v>
       </c>
       <c r="W65">
-        <v>-0.02560418314088253</v>
+        <v>-0.02560394784382769</v>
       </c>
       <c r="X65">
         <v>0.02356141662682587</v>
       </c>
       <c r="Y65">
-        <v>-0.001572504385212503</v>
+        <v>-0.001572399042232275</v>
       </c>
     </row>
     <row r="66" spans="1:25">
@@ -5468,7 +5468,7 @@
         <v>44620</v>
       </c>
       <c r="B66">
-        <v>-0.09170791110214793</v>
+        <v>-0.09170763886763911</v>
       </c>
       <c r="C66">
         <v>-0.2195720738075361</v>
@@ -5483,10 +5483,10 @@
         <v>-0.03799497490418302</v>
       </c>
       <c r="G66">
-        <v>-0.0195904880871296</v>
+        <v>-0.0195903873005715</v>
       </c>
       <c r="H66">
-        <v>-0.05453924653807629</v>
+        <v>-0.05453934162451868</v>
       </c>
       <c r="I66">
         <v>-0.08181817401635971</v>
@@ -5501,22 +5501,22 @@
         <v>0.02096383457011375</v>
       </c>
       <c r="M66">
-        <v>0.04175958743940122</v>
+        <v>0.04175949203819718</v>
       </c>
       <c r="N66">
-        <v>-0.08330946788937355</v>
+        <v>-0.08330957736672429</v>
       </c>
       <c r="O66">
         <v>0.06101451865091234</v>
       </c>
       <c r="P66">
-        <v>0.08029300773490466</v>
+        <v>0.0802931203292534</v>
       </c>
       <c r="Q66">
         <v>0.03545909908630196</v>
       </c>
       <c r="R66">
-        <v>-0.019498367824201</v>
+        <v>-0.01949845735660927</v>
       </c>
       <c r="S66">
         <v>0.0005948976323348898</v>
@@ -5531,13 +5531,13 @@
         <v>-0.1635572479600816</v>
       </c>
       <c r="W66">
-        <v>-0.02828495464008718</v>
+        <v>-0.02828511610606999</v>
       </c>
       <c r="X66">
         <v>0.02124831956591811</v>
       </c>
       <c r="Y66">
-        <v>0.1164584568630715</v>
+        <v>0.1164583511880146</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -5545,7 +5545,7 @@
         <v>44627</v>
       </c>
       <c r="B67">
-        <v>-0.04099678201202128</v>
+        <v>-0.04099718933414442</v>
       </c>
       <c r="C67">
         <v>-0.02067425135299461</v>
@@ -5554,19 +5554,19 @@
         <v>0.01024324535727894</v>
       </c>
       <c r="E67">
-        <v>0.01044086887018669</v>
+        <v>0.01044107527945592</v>
       </c>
       <c r="F67">
         <v>0.03711636541412666</v>
       </c>
       <c r="G67">
-        <v>-0.07683379076115771</v>
+        <v>-0.07683398846352651</v>
       </c>
       <c r="H67">
         <v>-0.03059033747596107</v>
       </c>
       <c r="I67">
-        <v>0.07188983289988515</v>
+        <v>0.07188974792954883</v>
       </c>
       <c r="J67">
         <v>-0.02216651182034923</v>
@@ -5575,10 +5575,10 @@
         <v>0.01611898085024066</v>
       </c>
       <c r="L67">
-        <v>-0.0007670715273151441</v>
+        <v>-0.0007669769322325992</v>
       </c>
       <c r="M67">
-        <v>-0.01198312346024766</v>
+        <v>-0.01198294140363554</v>
       </c>
       <c r="N67">
         <v>0.03838175679372813</v>
@@ -5587,13 +5587,13 @@
         <v>0.09628890280199753</v>
       </c>
       <c r="P67">
-        <v>0.009870394749219358</v>
+        <v>0.009870298270080902</v>
       </c>
       <c r="Q67">
         <v>0.09481219392819118</v>
       </c>
       <c r="R67">
-        <v>-0.09517064547234311</v>
+        <v>-0.09517047153691116</v>
       </c>
       <c r="S67">
         <v>0.2187871802582835</v>
@@ -5608,13 +5608,13 @@
         <v>0.07323428464307602</v>
       </c>
       <c r="W67">
-        <v>-0.02752298680862597</v>
+        <v>-0.02752273630354451</v>
       </c>
       <c r="X67">
         <v>0.05938451917451748</v>
       </c>
       <c r="Y67">
-        <v>-0.09480706793194937</v>
+        <v>-0.09480698225359474</v>
       </c>
     </row>
     <row r="68" spans="1:25">
@@ -5622,28 +5622,28 @@
         <v>44634</v>
       </c>
       <c r="B68">
-        <v>0.08697327357345652</v>
+        <v>0.08697353447371658</v>
       </c>
       <c r="C68">
-        <v>0.09109711314937941</v>
+        <v>0.09109698504503472</v>
       </c>
       <c r="D68">
-        <v>0.06590627948769501</v>
+        <v>0.06590621048036427</v>
       </c>
       <c r="E68">
-        <v>0.02721364000130455</v>
+        <v>0.02721336207366143</v>
       </c>
       <c r="F68">
         <v>0.03716450073575883</v>
       </c>
       <c r="G68">
-        <v>0.04838714167597025</v>
+        <v>0.04838725842060532</v>
       </c>
       <c r="H68">
         <v>0.08266664296504711</v>
       </c>
       <c r="I68">
-        <v>0.1445783313995048</v>
+        <v>0.1445784221319764</v>
       </c>
       <c r="J68">
         <v>0.1850585039903669</v>
@@ -5652,10 +5652,10 @@
         <v>0.05263159538550743</v>
       </c>
       <c r="L68">
-        <v>0.03241800712185094</v>
+        <v>0.0324179093852226</v>
       </c>
       <c r="M68">
-        <v>0.07074803865928758</v>
+        <v>0.07074793941415103</v>
       </c>
       <c r="N68">
         <v>0.0167395721525927</v>
@@ -5664,13 +5664,13 @@
         <v>0.02500761427048093</v>
       </c>
       <c r="P68">
-        <v>-0.07359885952754885</v>
+        <v>-0.07359857995039765</v>
       </c>
       <c r="Q68">
         <v>-0.02707748647238872</v>
       </c>
       <c r="R68">
-        <v>0.07587662749194912</v>
+        <v>0.07587651891748526</v>
       </c>
       <c r="S68">
         <v>0.001463448129049416</v>
@@ -5685,7 +5685,7 @@
         <v>0.06477310756798405</v>
       </c>
       <c r="W68">
-        <v>0.07996420942254123</v>
+        <v>0.07996393558321135</v>
       </c>
       <c r="X68">
         <v>0.06996722778666609</v>
@@ -5699,16 +5699,16 @@
         <v>44641</v>
       </c>
       <c r="B69">
-        <v>0.01299058728435809</v>
+        <v>0.01299047077949167</v>
       </c>
       <c r="C69">
-        <v>-0.01472141311288977</v>
+        <v>-0.01472129743255224</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69">
-        <v>0.0002289594607853829</v>
+        <v>0.0002290920523817519</v>
       </c>
       <c r="F69">
         <v>-0.003317837753815112</v>
@@ -5726,13 +5726,13 @@
         <v>-0.06111647814236365</v>
       </c>
       <c r="K69">
-        <v>-0.03600002650595091</v>
+        <v>-0.03599992760314896</v>
       </c>
       <c r="L69">
-        <v>0.01189661741262937</v>
+        <v>0.01189652571750277</v>
       </c>
       <c r="M69">
-        <v>-0.0323623623381003</v>
+        <v>-0.03236244890157858</v>
       </c>
       <c r="N69">
         <v>0.07899265102710329</v>
@@ -5741,7 +5741,7 @@
         <v>0.05206783600774512</v>
       </c>
       <c r="P69">
-        <v>0.08300528913265159</v>
+        <v>0.08300485950821646</v>
       </c>
       <c r="Q69">
         <v>-0.0858925335407289</v>
@@ -5762,7 +5762,7 @@
         <v>-0.1350033235760586</v>
       </c>
       <c r="W69">
-        <v>0.01008731684946773</v>
+        <v>0.01008739790230906</v>
       </c>
       <c r="X69">
         <v>0.06883369677503448</v>
@@ -5776,28 +5776,28 @@
         <v>44648</v>
       </c>
       <c r="B70">
-        <v>-0.04657538756906576</v>
+        <v>-0.04657527403314243</v>
       </c>
       <c r="C70">
-        <v>0.02572037902888602</v>
+        <v>0.0257201407028973</v>
       </c>
       <c r="D70">
-        <v>0.01070154385432454</v>
+        <v>0.01070160928767616</v>
       </c>
       <c r="E70">
-        <v>0.01900617757434597</v>
+        <v>0.01900624258777617</v>
       </c>
       <c r="F70">
         <v>0.06502438886938799</v>
       </c>
       <c r="G70">
-        <v>0.01478752269314199</v>
+        <v>0.01478773140169398</v>
       </c>
       <c r="H70">
         <v>0.03799018322442427</v>
       </c>
       <c r="I70">
-        <v>-0.01552436724156259</v>
+        <v>-0.01552444198071012</v>
       </c>
       <c r="J70">
         <v>-0.02960017339177323</v>
@@ -5806,25 +5806,25 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.007178413994322952</v>
+        <v>0.007178505261908219</v>
       </c>
       <c r="M70">
-        <v>0.07878231500705968</v>
+        <v>0.07878250097196715</v>
       </c>
       <c r="N70">
-        <v>-0.0188011676678379</v>
+        <v>-0.01880105330272164</v>
       </c>
       <c r="O70">
         <v>0.241798616783891</v>
       </c>
       <c r="P70">
-        <v>-0.02441334805468232</v>
+        <v>-0.02441316225967227</v>
       </c>
       <c r="Q70">
         <v>0.1026247397473345</v>
       </c>
       <c r="R70">
-        <v>0.02554745520945012</v>
+        <v>0.0255475431897485</v>
       </c>
       <c r="S70">
         <v>0.01903853470598271</v>
@@ -5853,43 +5853,43 @@
         <v>44655</v>
       </c>
       <c r="B71">
-        <v>-0.01345045625758601</v>
+        <v>-0.01345057373808578</v>
       </c>
       <c r="C71">
-        <v>-0.00936428032127945</v>
+        <v>-0.009364050147153025</v>
       </c>
       <c r="D71">
-        <v>-0.01176473225795605</v>
+        <v>-0.0117647963129921</v>
       </c>
       <c r="E71">
-        <v>0.003745476681660032</v>
+        <v>0.003745346120632487</v>
       </c>
       <c r="F71">
         <v>0.03500730067928637</v>
       </c>
       <c r="G71">
-        <v>0.03230405104825507</v>
+        <v>0.03230373590357005</v>
       </c>
       <c r="H71">
         <v>0.0184966801739801</v>
       </c>
       <c r="I71">
-        <v>0.03307689592173801</v>
+        <v>0.03307697435058876</v>
       </c>
       <c r="J71">
         <v>-0.05083858355808635</v>
       </c>
       <c r="K71">
-        <v>0.04149383042457511</v>
+        <v>0.0414937235712034</v>
       </c>
       <c r="L71">
-        <v>0.02205500967505736</v>
+        <v>0.02205509964629648</v>
       </c>
       <c r="M71">
-        <v>0.08610934756202315</v>
+        <v>0.08610934042136265</v>
       </c>
       <c r="N71">
-        <v>0.03526160934941758</v>
+        <v>0.03526148868294654</v>
       </c>
       <c r="O71">
         <v>-0.07333184313123853</v>
@@ -5901,7 +5901,7 @@
         <v>0.01809091980094624</v>
       </c>
       <c r="R71">
-        <v>-0.07829172213615743</v>
+        <v>-0.07829180120822965</v>
       </c>
       <c r="S71">
         <v>-0.007473136317254547</v>
@@ -5933,25 +5933,25 @@
         <v>-0.04820710889398783</v>
       </c>
       <c r="C72">
-        <v>-0.007667433163709547</v>
+        <v>-0.007667315890600102</v>
       </c>
       <c r="D72">
-        <v>-0.04880959564902798</v>
+        <v>-0.04880946917754503</v>
       </c>
       <c r="E72">
-        <v>-0.02985083717401216</v>
+        <v>-0.02985090196825491</v>
       </c>
       <c r="F72">
         <v>-0.02295146092281175</v>
       </c>
       <c r="G72">
-        <v>-0.009556526143874033</v>
+        <v>-0.009556527095853529</v>
       </c>
       <c r="H72">
         <v>-0.008114328104021573</v>
       </c>
       <c r="I72">
-        <v>-0.03648556064959274</v>
+        <v>-0.03648548716259281</v>
       </c>
       <c r="J72">
         <v>0.006121347498873497</v>
@@ -5960,10 +5960,10 @@
         <v>0.02191238807803586</v>
       </c>
       <c r="L72">
-        <v>-0.01218965444540954</v>
+        <v>-0.012189829431826</v>
       </c>
       <c r="M72">
-        <v>-0.01806273148660675</v>
+        <v>-0.01806280645846725</v>
       </c>
       <c r="N72">
         <v>-0.02960260219001076</v>
@@ -5972,13 +5972,13 @@
         <v>-0.0941262753900266</v>
       </c>
       <c r="P72">
-        <v>0.01140042414447073</v>
+        <v>0.01140023729668616</v>
       </c>
       <c r="Q72">
         <v>-0.06153184411271462</v>
       </c>
       <c r="R72">
-        <v>0.004826159774072192</v>
+        <v>0.004826252849744472</v>
       </c>
       <c r="S72">
         <v>-0.04000001795151675</v>
@@ -6007,28 +6007,28 @@
         <v>44669</v>
       </c>
       <c r="B73">
-        <v>0.005470987470120203</v>
+        <v>0.005470860650753417</v>
       </c>
       <c r="C73">
-        <v>0.01873436414782192</v>
+        <v>0.01873400739612863</v>
       </c>
       <c r="D73">
-        <v>-0.003754579509650524</v>
+        <v>-0.003754647397457456</v>
       </c>
       <c r="E73">
-        <v>0.03076932735483529</v>
+        <v>0.0307693961977773</v>
       </c>
       <c r="F73">
         <v>-0.03873898314893032</v>
       </c>
       <c r="G73">
-        <v>0.01690102569224217</v>
+        <v>0.01690112796890153</v>
       </c>
       <c r="H73">
         <v>-0.0397351611216985</v>
       </c>
       <c r="I73">
-        <v>-0.01236469842676124</v>
+        <v>-0.01236477375344736</v>
       </c>
       <c r="J73">
         <v>-0.01576326596320521</v>
@@ -6037,10 +6037,10 @@
         <v>-0.003898755926215025</v>
       </c>
       <c r="L73">
-        <v>0.009116124878300491</v>
+        <v>0.009116214806736966</v>
       </c>
       <c r="M73">
-        <v>-0.05382714263887223</v>
+        <v>-0.0538272203943212</v>
       </c>
       <c r="N73">
         <v>-0.02476040201296537</v>
@@ -6049,13 +6049,13 @@
         <v>0.06077042394677701</v>
       </c>
       <c r="P73">
-        <v>-0.03074147262558258</v>
+        <v>-0.0307412935631286</v>
       </c>
       <c r="Q73">
         <v>-0.03229349150785754</v>
       </c>
       <c r="R73">
-        <v>-0.04514886254818751</v>
+        <v>-0.04514895099473359</v>
       </c>
       <c r="S73">
         <v>-0.1220588145921522</v>
@@ -6070,7 +6070,7 @@
         <v>0.02833845885367614</v>
       </c>
       <c r="W73">
-        <v>-0.0004487634731800139</v>
+        <v>-0.000448590405893845</v>
       </c>
       <c r="X73">
         <v>-0.1447419276670056</v>
@@ -6084,16 +6084,16 @@
         <v>44676</v>
       </c>
       <c r="B74">
-        <v>-0.058749331987618</v>
+        <v>-0.05874921326830107</v>
       </c>
       <c r="C74">
-        <v>-0.05454547247364572</v>
+        <v>-0.05454536912287655</v>
       </c>
       <c r="D74">
         <v>0.02135674946156851</v>
       </c>
       <c r="E74">
-        <v>-0.04850749701784518</v>
+        <v>-0.0485075618120876</v>
       </c>
       <c r="F74">
         <v>-0.01543402715751885</v>
@@ -6105,7 +6105,7 @@
         <v>-0.03732253833284149</v>
       </c>
       <c r="I74">
-        <v>-0.01408445483407084</v>
+        <v>-0.01408453205867422</v>
       </c>
       <c r="J74">
         <v>-0.06673222786786936</v>
@@ -6114,10 +6114,10 @@
         <v>-0.0117415632856519</v>
       </c>
       <c r="L74">
-        <v>-0.005949157601543908</v>
+        <v>-0.005948980979580409</v>
       </c>
       <c r="M74">
-        <v>0.05989034211324529</v>
+        <v>0.05989042921387977</v>
       </c>
       <c r="N74">
         <v>-0.0145012106053598</v>
@@ -6126,7 +6126,7 @@
         <v>-0.1879795079528147</v>
       </c>
       <c r="P74">
-        <v>0.001409685047084164</v>
+        <v>0.001409780347587652</v>
       </c>
       <c r="Q74">
         <v>-0.05704558118449976</v>
@@ -6147,13 +6147,13 @@
         <v>0.01925259350412989</v>
       </c>
       <c r="W74">
-        <v>0.008751440241647979</v>
+        <v>0.008751179008944288</v>
       </c>
       <c r="X74">
         <v>-0.04627951068028646</v>
       </c>
       <c r="Y74">
-        <v>-0.06508859740496731</v>
+        <v>-0.06508868783493593</v>
       </c>
     </row>
     <row r="75" spans="1:25">
@@ -6164,13 +6164,13 @@
         <v>0.03652816259568015</v>
       </c>
       <c r="C75">
-        <v>0.0003509179848841804</v>
+        <v>0.0003509180279412938</v>
       </c>
       <c r="D75">
         <v>-0.05289059505175864</v>
       </c>
       <c r="E75">
-        <v>-0.02352945021975372</v>
+        <v>-0.0235293837245647</v>
       </c>
       <c r="F75">
         <v>-0.04485083627176867</v>
@@ -6182,7 +6182,7 @@
         <v>-0.1178501367373129</v>
       </c>
       <c r="I75">
-        <v>0.007142791123704528</v>
+        <v>0.00714279168318388</v>
       </c>
       <c r="J75">
         <v>-0.08369714508126846</v>
@@ -6191,7 +6191,7 @@
         <v>-0.02376252283210212</v>
       </c>
       <c r="L75">
-        <v>-0.02266428955849809</v>
+        <v>-0.02266437437101676</v>
       </c>
       <c r="M75">
         <v>-0.03816325722029934</v>
@@ -6203,7 +6203,7 @@
         <v>-0.06078741118663877</v>
       </c>
       <c r="P75">
-        <v>0.07554276223753598</v>
+        <v>0.07554246954938826</v>
       </c>
       <c r="Q75">
         <v>-0.09955153417511264</v>
@@ -6224,13 +6224,13 @@
         <v>-0.02333329188940525</v>
       </c>
       <c r="W75">
-        <v>-0.001223470342387234</v>
+        <v>-0.001223384625947288</v>
       </c>
       <c r="X75">
         <v>-0.0765937476350963</v>
       </c>
       <c r="Y75">
-        <v>-0.1017526408294889</v>
+        <v>-0.1017525539458675</v>
       </c>
     </row>
     <row r="76" spans="1:25">
@@ -6238,10 +6238,10 @@
         <v>44690</v>
       </c>
       <c r="B76">
-        <v>-0.03742330979024577</v>
+        <v>-0.0374232451505</v>
       </c>
       <c r="C76">
-        <v>0.0705584047418637</v>
+        <v>0.07055853605181417</v>
       </c>
       <c r="D76">
         <v>-0.006858385819681123</v>
@@ -6253,40 +6253,40 @@
         <v>-0.1187599772832409</v>
       </c>
       <c r="G76">
-        <v>-0.01525642098320068</v>
+        <v>-0.01525652264658661</v>
       </c>
       <c r="H76">
         <v>0.02687132192029074</v>
       </c>
       <c r="I76">
-        <v>-0.06619379036430784</v>
+        <v>-0.06619379551235138</v>
       </c>
       <c r="J76">
         <v>-0.04156396950372909</v>
       </c>
       <c r="K76">
-        <v>0.004056921075256126</v>
+        <v>0.00405682076814573</v>
       </c>
       <c r="L76">
-        <v>0.00272162727877534</v>
+        <v>0.002721536131710334</v>
       </c>
       <c r="M76">
         <v>-0.04121337367357503</v>
       </c>
       <c r="N76">
-        <v>-0.001615494842294285</v>
+        <v>-0.001615431392514521</v>
       </c>
       <c r="O76">
         <v>-0.06438632112485232</v>
       </c>
       <c r="P76">
-        <v>-0.03086496710719866</v>
+        <v>-0.03086479560484245</v>
       </c>
       <c r="Q76">
         <v>-0.1001093197445884</v>
       </c>
       <c r="R76">
-        <v>-0.03805907131186903</v>
+        <v>-0.03805897956457471</v>
       </c>
       <c r="S76">
         <v>-0.09999997742782629</v>
@@ -6315,13 +6315,13 @@
         <v>44697</v>
       </c>
       <c r="B77">
-        <v>-0.01469471720803184</v>
+        <v>-0.01469478337406249</v>
       </c>
       <c r="C77">
         <v>0.03775740364330704</v>
       </c>
       <c r="D77">
-        <v>0.008064502348693381</v>
+        <v>0.008064573547110765</v>
       </c>
       <c r="E77">
         <v>-0.01606423742294361</v>
@@ -6330,40 +6330,40 @@
         <v>0.005690615067773797</v>
       </c>
       <c r="G77">
-        <v>-0.0770082327489866</v>
+        <v>-0.07700824069919698</v>
       </c>
       <c r="H77">
         <v>-0.03317753225564701</v>
       </c>
       <c r="I77">
-        <v>0.1181433949039079</v>
+        <v>0.1181434880287833</v>
       </c>
       <c r="J77">
         <v>-0.07422012032447023</v>
       </c>
       <c r="K77">
-        <v>-0.04040409085950325</v>
+        <v>-0.04040399499411929</v>
       </c>
       <c r="L77">
-        <v>0.0007351048129466964</v>
+        <v>0.0007350141599913318</v>
       </c>
       <c r="M77">
-        <v>0.01628626126523813</v>
+        <v>0.01628617718845571</v>
       </c>
       <c r="N77">
-        <v>0.08276645078959155</v>
+        <v>0.08276638197713693</v>
       </c>
       <c r="O77">
         <v>0.1344086039882728</v>
       </c>
       <c r="P77">
-        <v>0.04434995488860194</v>
+        <v>0.04434986358846427</v>
       </c>
       <c r="Q77">
         <v>0.05764812556580545</v>
       </c>
       <c r="R77">
-        <v>-0.0009889668534436291</v>
+        <v>-0.000988966759119192</v>
       </c>
       <c r="S77">
         <v>0.09138726757637161</v>
@@ -6378,13 +6378,13 @@
         <v>0.01029039292827361</v>
       </c>
       <c r="W77">
-        <v>0.001958701632690074</v>
+        <v>0.001958790539304811</v>
       </c>
       <c r="X77">
         <v>0.09447778145020291</v>
       </c>
       <c r="Y77">
-        <v>0.02607728330246806</v>
+        <v>0.02607717067513038</v>
       </c>
     </row>
     <row r="78" spans="1:25">
@@ -6392,22 +6392,22 @@
         <v>44704</v>
       </c>
       <c r="B78">
-        <v>0.1187149690978015</v>
+        <v>0.1187151054064719</v>
       </c>
       <c r="C78">
-        <v>0.08289059876202876</v>
+        <v>0.0828904883589936</v>
       </c>
       <c r="D78">
-        <v>0.009333388141306465</v>
+        <v>0.009333246224447755</v>
       </c>
       <c r="E78">
-        <v>0.01836734187613476</v>
+        <v>0.01836720012219195</v>
       </c>
       <c r="F78">
         <v>0.0187757348362132</v>
       </c>
       <c r="G78">
-        <v>0.04887505454180996</v>
+        <v>0.04887528371251948</v>
       </c>
       <c r="H78">
         <v>0.05558242338125652</v>
@@ -6422,25 +6422,25 @@
         <v>-0.01263155374222202</v>
       </c>
       <c r="L78">
-        <v>0.02322290160989171</v>
+        <v>0.02322299429994334</v>
       </c>
       <c r="M78">
-        <v>-0.02981742359544248</v>
+        <v>-0.02981734333278507</v>
       </c>
       <c r="N78">
-        <v>0.03327755789509279</v>
+        <v>0.03327744050606873</v>
       </c>
       <c r="O78">
         <v>-0.1639810615043104</v>
       </c>
       <c r="P78">
-        <v>0.06237757510810282</v>
+        <v>0.06237758056133402</v>
       </c>
       <c r="Q78">
         <v>0.0726321509751493</v>
       </c>
       <c r="R78">
-        <v>-0.02722776011021255</v>
+        <v>-0.0272277575107327</v>
       </c>
       <c r="S78">
         <v>0.09578313952105555</v>
@@ -6455,13 +6455,13 @@
         <v>0.02582760249595206</v>
       </c>
       <c r="W78">
-        <v>0.09353254914821818</v>
+        <v>0.09353262958161856</v>
       </c>
       <c r="X78">
         <v>0.1586625277782996</v>
       </c>
       <c r="Y78">
-        <v>0.003867239273904755</v>
+        <v>0.003867349463369862</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -6469,22 +6469,22 @@
         <v>44711</v>
       </c>
       <c r="B79">
-        <v>-0.008455849472987942</v>
+        <v>-0.008456031208622372</v>
       </c>
       <c r="C79">
-        <v>0.016094167908274</v>
+        <v>0.01609437345344933</v>
       </c>
       <c r="D79">
-        <v>-0.001321071627777393</v>
+        <v>-0.001321001744494787</v>
       </c>
       <c r="E79">
-        <v>-0.001002081068622873</v>
+        <v>-0.001001872412192073</v>
       </c>
       <c r="F79">
         <v>0.06589245428687218</v>
       </c>
       <c r="G79">
-        <v>-0.0190289347172774</v>
+        <v>-0.01902903932794653</v>
       </c>
       <c r="H79">
         <v>0.02472531491858199</v>
@@ -6499,25 +6499,25 @@
         <v>0.0106608362516516</v>
       </c>
       <c r="L79">
-        <v>-0.01952804250098095</v>
+        <v>-0.01952813103141227</v>
       </c>
       <c r="M79">
         <v>0.05496881772730289</v>
       </c>
       <c r="N79">
-        <v>-0.01150217020471667</v>
+        <v>-0.0115019442946076</v>
       </c>
       <c r="O79">
         <v>-0.03514733295561201</v>
       </c>
       <c r="P79">
-        <v>0.01537035264756614</v>
+        <v>0.01537051849218574</v>
       </c>
       <c r="Q79">
         <v>0.03831966282851385</v>
       </c>
       <c r="R79">
-        <v>0.02188295395146067</v>
+        <v>0.0218828536598703</v>
       </c>
       <c r="S79">
         <v>0.0104452238114694</v>
@@ -6532,7 +6532,7 @@
         <v>0.03262405317068806</v>
       </c>
       <c r="W79">
-        <v>-0.002738829005150989</v>
+        <v>-0.002738990847202194</v>
       </c>
       <c r="X79">
         <v>-0.06086043441317357</v>
@@ -6546,22 +6546,22 @@
         <v>44718</v>
       </c>
       <c r="B80">
-        <v>-0.08151514551994821</v>
+        <v>-0.081515150528364</v>
       </c>
       <c r="C80">
-        <v>-0.05823828546808663</v>
+        <v>-0.05823837996191794</v>
       </c>
       <c r="D80">
         <v>-0.0992063225136689</v>
       </c>
       <c r="E80">
-        <v>-0.02460111158787548</v>
+        <v>-0.02460110987395447</v>
       </c>
       <c r="F80">
         <v>-0.01492186004122886</v>
       </c>
       <c r="G80">
-        <v>-0.02700656925657541</v>
+        <v>-0.0270066779651067</v>
       </c>
       <c r="H80">
         <v>-0.06255588759550723</v>
@@ -6576,19 +6576,19 @@
         <v>-0.01898714962399717</v>
       </c>
       <c r="L80">
-        <v>-0.0219362199684312</v>
+        <v>-0.02193622194913381</v>
       </c>
       <c r="M80">
-        <v>0.008213595348455671</v>
+        <v>0.008213514519506138</v>
       </c>
       <c r="N80">
-        <v>0.002661327461771057</v>
+        <v>0.002661097295206138</v>
       </c>
       <c r="O80">
         <v>-0.04622014388714946</v>
       </c>
       <c r="P80">
-        <v>0.01382581848171127</v>
+        <v>0.0138257363170029</v>
       </c>
       <c r="Q80">
         <v>0.005730659025787954</v>
@@ -6609,13 +6609,13 @@
         <v>-0.02300820057200448</v>
       </c>
       <c r="W80">
-        <v>-0.04668853299888598</v>
+        <v>-0.04668837026663764</v>
       </c>
       <c r="X80">
         <v>-0.1083798671355831</v>
       </c>
       <c r="Y80">
-        <v>-0.05910799262309763</v>
+        <v>-0.05910788586618532</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -6623,22 +6623,22 @@
         <v>44725</v>
       </c>
       <c r="B81">
-        <v>-0.05453782736379698</v>
+        <v>-0.05453776411763589</v>
       </c>
       <c r="C81">
-        <v>-0.007691597138150152</v>
+        <v>-0.007691490596004269</v>
       </c>
       <c r="D81">
-        <v>-0.04845822242480913</v>
+        <v>-0.04845814463975406</v>
       </c>
       <c r="E81">
-        <v>0.002083341666319072</v>
+        <v>0.002083198666341213</v>
       </c>
       <c r="F81">
         <v>-0.1303197785476777</v>
       </c>
       <c r="G81">
-        <v>-0.0675590658332359</v>
+        <v>-0.06755896165545561</v>
       </c>
       <c r="H81">
         <v>-0.07168735732048004</v>
@@ -6653,13 +6653,13 @@
         <v>-0.0645162079349394</v>
       </c>
       <c r="L81">
-        <v>-0.01790791161175009</v>
+        <v>-0.0179079132649872</v>
       </c>
       <c r="M81">
-        <v>-0.04900716098597491</v>
+        <v>-0.04900716491490176</v>
       </c>
       <c r="N81">
-        <v>-0.04707506593534194</v>
+        <v>-0.04707501401867664</v>
       </c>
       <c r="O81">
         <v>-0.06817247726514875</v>
@@ -6686,13 +6686,13 @@
         <v>-0.08822501428215968</v>
       </c>
       <c r="W81">
-        <v>-0.07722988764645278</v>
+        <v>-0.0772300451652016</v>
       </c>
       <c r="X81">
         <v>-0.008145370559536347</v>
       </c>
       <c r="Y81">
-        <v>-0.1050828703454714</v>
+        <v>-0.105082915154151</v>
       </c>
     </row>
     <row r="82" spans="1:25">
@@ -6700,16 +6700,16 @@
         <v>44732</v>
       </c>
       <c r="B82">
-        <v>0.03795454038926227</v>
+        <v>0.03795446963610583</v>
       </c>
       <c r="C82">
-        <v>0.01064499809099728</v>
+        <v>0.0106448895800999</v>
       </c>
       <c r="D82">
-        <v>0.04166676203739339</v>
+        <v>0.04166667688495806</v>
       </c>
       <c r="E82">
-        <v>-0.02079010377375168</v>
+        <v>-0.02078989142430254</v>
       </c>
       <c r="F82">
         <v>0.06296957810115988</v>
@@ -6727,16 +6727,16 @@
         <v>0.1330227222152103</v>
       </c>
       <c r="K82">
-        <v>-0.1149425084820521</v>
+        <v>-0.1149425653227442</v>
       </c>
       <c r="L82">
-        <v>0.07571096918241271</v>
+        <v>0.07571116430382707</v>
       </c>
       <c r="M82">
-        <v>0.05246955965346878</v>
+        <v>0.05246964837861356</v>
       </c>
       <c r="N82">
-        <v>0.0392961812632282</v>
+        <v>0.03929624377059171</v>
       </c>
       <c r="O82">
         <v>0.07800786728754261</v>
@@ -6769,7 +6769,7 @@
         <v>0.1516108420781599</v>
       </c>
       <c r="Y82">
-        <v>-0.002552594890904869</v>
+        <v>-0.002552721515693412</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -6777,22 +6777,22 @@
         <v>44739</v>
       </c>
       <c r="B83">
-        <v>-0.0278725114060373</v>
+        <v>-0.02787237697408596</v>
       </c>
       <c r="C83">
-        <v>-0.03507523550902281</v>
+        <v>-0.03507512927193923</v>
       </c>
       <c r="D83">
         <v>-0.007407473095124795</v>
       </c>
       <c r="E83">
-        <v>0.02955429262563181</v>
+        <v>0.02955406995187237</v>
       </c>
       <c r="F83">
         <v>-0.005648153086367125</v>
       </c>
       <c r="G83">
-        <v>0.01219274504422518</v>
+        <v>0.01219263517591984</v>
       </c>
       <c r="H83">
         <v>-0.001873530799687328</v>
@@ -6804,16 +6804,16 @@
         <v>-0.1035707747557906</v>
       </c>
       <c r="K83">
-        <v>-0.0181818030019314</v>
+        <v>-0.01818173994701133</v>
       </c>
       <c r="L83">
-        <v>-0.0151954836061029</v>
+        <v>-0.01519556966433322</v>
       </c>
       <c r="M83">
-        <v>-0.002162034696363557</v>
+        <v>-0.00216195459727142</v>
       </c>
       <c r="N83">
-        <v>0.01769278623160098</v>
+        <v>0.01769290197133699</v>
       </c>
       <c r="O83">
         <v>0.6614881811441657</v>
@@ -6825,7 +6825,7 @@
         <v>-0.06395139375356174</v>
       </c>
       <c r="R83">
-        <v>-0.01295101976045399</v>
+        <v>-0.01295093055934515</v>
       </c>
       <c r="S83">
         <v>-0.09850235781683303</v>
@@ -6840,13 +6840,13 @@
         <v>-0.03348878833628788</v>
       </c>
       <c r="W83">
-        <v>-0.0229278325566854</v>
+        <v>-0.02292774198725456</v>
       </c>
       <c r="X83">
         <v>-0.05759732657303973</v>
       </c>
       <c r="Y83">
-        <v>0.008317322633969892</v>
+        <v>0.008317450273666926</v>
       </c>
     </row>
     <row r="84" spans="1:25">
@@ -6854,22 +6854,22 @@
         <v>44746</v>
       </c>
       <c r="B84">
-        <v>0.002718146432249879</v>
+        <v>0.002718076121277058</v>
       </c>
       <c r="C84">
-        <v>-0.001377776706149247</v>
+        <v>-0.001377886653271321</v>
       </c>
       <c r="D84">
-        <v>0.03134331060481665</v>
+        <v>0.03134323154268959</v>
       </c>
       <c r="E84">
-        <v>-0.04388355533063226</v>
+        <v>-0.04388348773233175</v>
       </c>
       <c r="F84">
         <v>0.1420070138341507</v>
       </c>
       <c r="G84">
-        <v>-0.007460178695208652</v>
+        <v>-0.007459962415257482</v>
       </c>
       <c r="H84">
         <v>0.0042232992183735</v>
@@ -6884,13 +6884,13 @@
         <v>-0.01851850277120803</v>
       </c>
       <c r="L84">
-        <v>-0.006907446481797974</v>
+        <v>-0.006907269012847883</v>
       </c>
       <c r="M84">
-        <v>0.01835329660485252</v>
+        <v>0.01835329513158501</v>
       </c>
       <c r="N84">
-        <v>0.004628598710192833</v>
+        <v>0.004628484456228099</v>
       </c>
       <c r="O84">
         <v>0.1220472233997136</v>
@@ -6902,7 +6902,7 @@
         <v>0.1096246613273124</v>
       </c>
       <c r="R84">
-        <v>0.02999078029835966</v>
+        <v>0.02999068721654385</v>
       </c>
       <c r="S84">
         <v>0.1488817878913711</v>
@@ -6917,13 +6917,13 @@
         <v>0.01842109602040565</v>
       </c>
       <c r="W84">
-        <v>-0.0009627273604502218</v>
+        <v>-0.0009628199659217351</v>
       </c>
       <c r="X84">
         <v>0.1507567000337948</v>
       </c>
       <c r="Y84">
-        <v>-0.0006345359639817749</v>
+        <v>-0.0006345989552691833</v>
       </c>
     </row>
     <row r="85" spans="1:25">
@@ -6931,7 +6931,7 @@
         <v>44753</v>
       </c>
       <c r="B85">
-        <v>-0.003592878941629518</v>
+        <v>-0.003592948871929957</v>
       </c>
       <c r="C85">
         <v>-0.07725775572518245</v>
@@ -6940,13 +6940,13 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <v>0.05685434977215054</v>
+        <v>0.05685442371806237</v>
       </c>
       <c r="F85">
         <v>-0.02368545794806054</v>
       </c>
       <c r="G85">
-        <v>0.0003448142743707194</v>
+        <v>0.0003448142366608842</v>
       </c>
       <c r="H85">
         <v>0.04953268290833956</v>
@@ -6958,16 +6958,16 @@
         <v>-0.06783750546129597</v>
       </c>
       <c r="K85">
-        <v>-0.1239892537177354</v>
+        <v>-0.1239891870716446</v>
       </c>
       <c r="L85">
-        <v>-0.0002803855309986281</v>
+        <v>-0.0002804748325440087</v>
       </c>
       <c r="M85">
-        <v>0.04768456322671111</v>
+        <v>0.04768455946793115</v>
       </c>
       <c r="N85">
-        <v>0.03172791377870121</v>
+        <v>0.03172802698230548</v>
       </c>
       <c r="O85">
         <v>-0.0418859629676539</v>
@@ -6994,7 +6994,7 @@
         <v>0.002153292534016193</v>
       </c>
       <c r="W85">
-        <v>0.001806876503971377</v>
+        <v>0.001806969288016935</v>
       </c>
       <c r="X85">
         <v>-0.2180070976136049</v>
@@ -7008,22 +7008,22 @@
         <v>44760</v>
       </c>
       <c r="B86">
-        <v>0.01602476037077372</v>
+        <v>0.01602483167789326</v>
       </c>
       <c r="C86">
         <v>0.04059817749924766</v>
       </c>
       <c r="D86">
-        <v>0.07670045811638726</v>
+        <v>0.07670054065557097</v>
       </c>
       <c r="E86">
-        <v>0.01224487768276283</v>
+        <v>0.01224487682601438</v>
       </c>
       <c r="F86">
         <v>0.1113537257389114</v>
       </c>
       <c r="G86">
-        <v>-0.01413120028126624</v>
+        <v>-0.01413130805938867</v>
       </c>
       <c r="H86">
         <v>0.07301871102007618</v>
@@ -7035,28 +7035,28 @@
         <v>0.1606945116553307</v>
       </c>
       <c r="K86">
-        <v>0.04615390584666179</v>
+        <v>0.0461538262562422</v>
       </c>
       <c r="L86">
-        <v>-0.03428151613316932</v>
+        <v>-0.0342816024459186</v>
       </c>
       <c r="M86">
-        <v>0.00394225736950915</v>
+        <v>0.003942181834679426</v>
       </c>
       <c r="N86">
-        <v>-0.02485068434922688</v>
+        <v>-0.02485079134488311</v>
       </c>
       <c r="O86">
         <v>-0.07736318058274472</v>
       </c>
       <c r="P86">
-        <v>0.03004490677526728</v>
+        <v>0.03004481178272322</v>
       </c>
       <c r="Q86">
         <v>0.08160245212219919</v>
       </c>
       <c r="R86">
-        <v>0.02564118061076637</v>
+        <v>0.02564108903773765</v>
       </c>
       <c r="S86">
         <v>0.0275000333786013</v>
@@ -7071,7 +7071,7 @@
         <v>0.1168886860666569</v>
       </c>
       <c r="W86">
-        <v>0.03294468588074184</v>
+        <v>0.03294459021282381</v>
       </c>
       <c r="X86">
         <v>0.1410090133326263</v>
@@ -7085,16 +7085,16 @@
         <v>44767</v>
       </c>
       <c r="B87">
-        <v>0.005228189312563414</v>
+        <v>0.005228258388101814</v>
       </c>
       <c r="C87">
-        <v>0.04896102143978687</v>
+        <v>0.04896090661966701</v>
       </c>
       <c r="D87">
         <v>0.01075259859984046</v>
       </c>
       <c r="E87">
-        <v>0.004032343630301138</v>
+        <v>0.004032274230037824</v>
       </c>
       <c r="F87">
         <v>-0.02946957997272792</v>
@@ -7118,7 +7118,7 @@
         <v>0.01394368716874772</v>
       </c>
       <c r="M87">
-        <v>0.0161827698597814</v>
+        <v>0.01618269491699831</v>
       </c>
       <c r="N87">
         <v>-0.06474219141265525</v>
@@ -7127,13 +7127,13 @@
         <v>-0.04266934165481784</v>
       </c>
       <c r="P87">
-        <v>0.1131143109804102</v>
+        <v>0.1131144136337696</v>
       </c>
       <c r="Q87">
         <v>0.08333325338807285</v>
       </c>
       <c r="R87">
-        <v>0.01759254745472694</v>
+        <v>0.01759263830915225</v>
       </c>
       <c r="S87">
         <v>0.2390511056878779</v>
@@ -7162,22 +7162,22 @@
         <v>44774</v>
       </c>
       <c r="B88">
-        <v>0.003467492013278894</v>
+        <v>0.00346742305873371</v>
       </c>
       <c r="C88">
-        <v>-0.003160790263242341</v>
+        <v>-0.003160681148405953</v>
       </c>
       <c r="D88">
-        <v>0.006649066279973859</v>
+        <v>0.006648995838980154</v>
       </c>
       <c r="E88">
-        <v>-0.01606432117186707</v>
+        <v>-0.01606425232792374</v>
       </c>
       <c r="F88">
         <v>-0.004723309270788012</v>
       </c>
       <c r="G88">
-        <v>0.04182547504122192</v>
+        <v>0.04182558847577544</v>
       </c>
       <c r="H88">
         <v>0.01049472265191032</v>
@@ -7189,13 +7189,13 @@
         <v>0.02749862140545711</v>
       </c>
       <c r="K88">
-        <v>0.1005746948809634</v>
+        <v>0.1005746238301033</v>
       </c>
       <c r="L88">
         <v>-0.01953915292457453</v>
       </c>
       <c r="M88">
-        <v>-0.1147541551838983</v>
+        <v>-0.1147540898976189</v>
       </c>
       <c r="N88">
         <v>0.01625781073721355</v>
@@ -7239,22 +7239,22 @@
         <v>44781</v>
       </c>
       <c r="B89">
-        <v>0.05502766750023746</v>
+        <v>0.05502759902141041</v>
       </c>
       <c r="C89">
         <v>0.003065067541732969</v>
       </c>
       <c r="D89">
-        <v>0.002642003304113461</v>
+        <v>0.002642073464715011</v>
       </c>
       <c r="E89">
-        <v>0.04081642220104831</v>
+        <v>0.04081627940935584</v>
       </c>
       <c r="F89">
         <v>0.04429376602910007</v>
       </c>
       <c r="G89">
-        <v>0.01347440626063334</v>
+        <v>0.01347429591297233</v>
       </c>
       <c r="H89">
         <v>0.02225531231712186</v>
@@ -7266,7 +7266,7 @@
         <v>0.05882355379909843</v>
       </c>
       <c r="K89">
-        <v>-0.005221964478143382</v>
+        <v>-0.005221900257295964</v>
       </c>
       <c r="L89">
         <v>-0.03395480946560303</v>
@@ -7281,7 +7281,7 @@
         <v>0.06514737386098068</v>
       </c>
       <c r="P89">
-        <v>0.06274736644844792</v>
+        <v>0.06274727565511018</v>
       </c>
       <c r="Q89">
         <v>-0.007820561163241924</v>
@@ -7302,7 +7302,7 @@
         <v>0.03589738680870891</v>
       </c>
       <c r="W89">
-        <v>0.01177442076590696</v>
+        <v>0.01177450174708805</v>
       </c>
       <c r="X89">
         <v>0.1726875859168162</v>
@@ -7316,7 +7316,7 @@
         <v>44788</v>
       </c>
       <c r="B90">
-        <v>-0.0286579942941434</v>
+        <v>-0.02865793124710914</v>
       </c>
       <c r="C90">
         <v>-0.02247762850493507</v>
@@ -7325,13 +7325,13 @@
         <v>-0.03162063777133384</v>
       </c>
       <c r="E90">
-        <v>0.01764699436749573</v>
+        <v>0.01764713000197649</v>
       </c>
       <c r="F90">
         <v>-0.001731265518293501</v>
       </c>
       <c r="G90">
-        <v>0.02086316165149849</v>
+        <v>0.02086305421852219</v>
       </c>
       <c r="H90">
         <v>0.01342516988814246</v>
@@ -7346,7 +7346,7 @@
         <v>-0.01574799981413533</v>
       </c>
       <c r="L90">
-        <v>0.02425897907853081</v>
+        <v>0.02425888271063648</v>
       </c>
       <c r="M90">
         <v>0.01217399498042315</v>
@@ -7358,7 +7358,7 @@
         <v>0.2870109930389815</v>
       </c>
       <c r="P90">
-        <v>0.01057553849275417</v>
+        <v>0.01057571026159132</v>
       </c>
       <c r="Q90">
         <v>-0.006637620844246461</v>
@@ -7379,7 +7379,7 @@
         <v>-0.0529322130104154</v>
       </c>
       <c r="W90">
-        <v>-0.02630130034988953</v>
+        <v>-0.02630161839982337</v>
       </c>
       <c r="X90">
         <v>-0.09207857604612957</v>
@@ -7402,13 +7402,13 @@
         <v>-0.04081625887283735</v>
       </c>
       <c r="E91">
-        <v>-0.009633950188434715</v>
+        <v>-0.009634081668728922</v>
       </c>
       <c r="F91">
         <v>0.03836985410855598</v>
       </c>
       <c r="G91">
-        <v>-0.04968930764951696</v>
+        <v>-0.04968931287869005</v>
       </c>
       <c r="H91">
         <v>-0.04296451936325452</v>
@@ -7423,7 +7423,7 @@
         <v>0.11466658613781</v>
       </c>
       <c r="L91">
-        <v>-0.0297678920704102</v>
+        <v>-0.02976780078565122</v>
       </c>
       <c r="M91">
         <v>0.06290530707819442</v>
@@ -7435,7 +7435,7 @@
         <v>0.1272879616031979</v>
       </c>
       <c r="P91">
-        <v>0.0402848511946956</v>
+        <v>0.04028484778907004</v>
       </c>
       <c r="Q91">
         <v>-0.006890750063963447</v>
@@ -7456,7 +7456,7 @@
         <v>-0.04503414887884283</v>
       </c>
       <c r="W91">
-        <v>-0.03334777874646799</v>
+        <v>-0.03334745816699658</v>
       </c>
       <c r="X91">
         <v>0.07904552063222159</v>
@@ -7470,7 +7470,7 @@
         <v>44802</v>
       </c>
       <c r="B92">
-        <v>-0.008371821327221585</v>
+        <v>-0.00837175219746189</v>
       </c>
       <c r="C92">
         <v>0.01180391050498808</v>
@@ -7479,13 +7479,13 @@
         <v>-0.008510698727245858</v>
       </c>
       <c r="E92">
-        <v>-0.00778199942890645</v>
+        <v>-0.00778199994797335</v>
       </c>
       <c r="F92">
         <v>0.0179540731383443</v>
       </c>
       <c r="G92">
-        <v>-0.0360532845368664</v>
+        <v>-0.03605295630941707</v>
       </c>
       <c r="H92">
         <v>-0.0490086005392858</v>
@@ -7497,10 +7497,10 @@
         <v>-0.0792374602773811</v>
       </c>
       <c r="K92">
-        <v>-0.06459329237858058</v>
+        <v>-0.06459323322618471</v>
       </c>
       <c r="L92">
-        <v>-0.002657424317372148</v>
+        <v>-0.002657521289504916</v>
       </c>
       <c r="M92">
         <v>-0.05491152812812039</v>
@@ -7512,13 +7512,13 @@
         <v>-0.06167132048765844</v>
       </c>
       <c r="P92">
-        <v>-0.02329620259789189</v>
+        <v>-0.02329636323447193</v>
       </c>
       <c r="Q92">
         <v>-0.05382677248467616</v>
       </c>
       <c r="R92">
-        <v>-0.01755855303326748</v>
+        <v>-0.01755847240919173</v>
       </c>
       <c r="S92">
         <v>-0.08858736475120699</v>
@@ -7533,13 +7533,13 @@
         <v>-0.04378954600663088</v>
       </c>
       <c r="W92">
-        <v>-0.04478092079433305</v>
+        <v>-0.04478100202284896</v>
       </c>
       <c r="X92">
         <v>-0.1060815355276631</v>
       </c>
       <c r="Y92">
-        <v>-0.07577497352335893</v>
+        <v>-0.07577503054821655</v>
       </c>
     </row>
     <row r="93" spans="1:25">
@@ -7547,7 +7547,7 @@
         <v>44809</v>
       </c>
       <c r="B93">
-        <v>0.04801683885060171</v>
+        <v>0.04801683550318558</v>
       </c>
       <c r="C93">
         <v>0.02423823418887872</v>
@@ -7556,13 +7556,13 @@
         <v>-0.02718164280846924</v>
       </c>
       <c r="E93">
-        <v>-0.01930292523586064</v>
+        <v>-0.01930279208530461</v>
       </c>
       <c r="F93">
         <v>-0.001025388432806307</v>
       </c>
       <c r="G93">
-        <v>0.0204142754487715</v>
+        <v>0.02041404099466071</v>
       </c>
       <c r="H93">
         <v>0.02989772829787873</v>
@@ -7574,13 +7574,13 @@
         <v>0.1354929964307328</v>
       </c>
       <c r="K93">
-        <v>-0.01770341236809936</v>
+        <v>-0.01770347448567078</v>
       </c>
       <c r="L93">
-        <v>0.01824987600678574</v>
+        <v>0.01824987778123099</v>
       </c>
       <c r="M93">
-        <v>0.03266626942572937</v>
+        <v>0.03266618898001505</v>
       </c>
       <c r="N93">
         <v>0.01554912699412858</v>
@@ -7589,13 +7589,13 @@
         <v>-0.01460552403758841</v>
       </c>
       <c r="P93">
-        <v>0.009519860145410952</v>
+        <v>0.009519944140697234</v>
       </c>
       <c r="Q93">
         <v>0.0117777506510417</v>
       </c>
       <c r="R93">
-        <v>0.02212768332094184</v>
+        <v>0.02212759944002118</v>
       </c>
       <c r="S93">
         <v>0.2316111634342231</v>
@@ -7616,7 +7616,7 @@
         <v>0.156551956152954</v>
       </c>
       <c r="Y93">
-        <v>0.02670803705417213</v>
+        <v>0.02670810040225469</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -7624,7 +7624,7 @@
         <v>44816</v>
       </c>
       <c r="B94">
-        <v>-0.01753782389430592</v>
+        <v>-0.01753788924703648</v>
       </c>
       <c r="C94">
         <v>0.08614387917320121</v>
@@ -7633,7 +7633,7 @@
         <v>0.008823514290107859</v>
       </c>
       <c r="E94">
-        <v>0.00404860603004642</v>
+        <v>0.004048537205283864</v>
       </c>
       <c r="F94">
         <v>0.003284754281086988</v>
@@ -7654,10 +7654,10 @@
         <v>-0.02902369013861084</v>
       </c>
       <c r="L94">
-        <v>0.01140545354161615</v>
+        <v>0.01140555011858146</v>
       </c>
       <c r="M94">
-        <v>-0.06289070749592052</v>
+        <v>-0.06289071239516864</v>
       </c>
       <c r="N94">
         <v>-0.04177336768120088</v>
@@ -7672,7 +7672,7 @@
         <v>-0.1061937011663437</v>
       </c>
       <c r="R94">
-        <v>-0.0183180442768166</v>
+        <v>-0.0183179639883948</v>
       </c>
       <c r="S94">
         <v>-0.05261285411982919</v>
@@ -7701,7 +7701,7 @@
         <v>44823</v>
       </c>
       <c r="B95">
-        <v>-0.06781686023129163</v>
+        <v>-0.06781699564483001</v>
       </c>
       <c r="C95">
         <v>-0.05558929646312538</v>
@@ -7716,7 +7716,7 @@
         <v>-0.06241049913259877</v>
       </c>
       <c r="G95">
-        <v>-0.01952556578560261</v>
+        <v>-0.01952567973696362</v>
       </c>
       <c r="H95">
         <v>-0.04484311717564782</v>
@@ -7734,7 +7734,7 @@
         <v>-0.00525067178198424</v>
       </c>
       <c r="M95">
-        <v>-0.0002669272927796618</v>
+        <v>-0.0002668441859391413</v>
       </c>
       <c r="N95">
         <v>0.01516917627628978</v>
@@ -7743,13 +7743,13 @@
         <v>-0.1510135528072982</v>
       </c>
       <c r="P95">
-        <v>-0.08003430173151216</v>
+        <v>-0.0800342164038218</v>
       </c>
       <c r="Q95">
         <v>-0.07937091943625529</v>
       </c>
       <c r="R95">
-        <v>0.0008480451736792016</v>
+        <v>0.0008480451043206827</v>
       </c>
       <c r="S95">
         <v>-0.07354593292788725</v>
@@ -7770,7 +7770,7 @@
         <v>-0.198938082804722</v>
       </c>
       <c r="Y95">
-        <v>-0.0291202053628572</v>
+        <v>-0.02912014475094449</v>
       </c>
     </row>
     <row r="96" spans="1:25">
@@ -7778,7 +7778,7 @@
         <v>44830</v>
       </c>
       <c r="B96">
-        <v>-0.04251425739177084</v>
+        <v>-0.04251411830263085</v>
       </c>
       <c r="C96">
         <v>-0.04506269226145609</v>
@@ -7787,13 +7787,13 @@
         <v>-0.03555557264598819</v>
       </c>
       <c r="E96">
-        <v>-0.02008201076701044</v>
+        <v>-0.02008207959570585</v>
       </c>
       <c r="F96">
         <v>-0.001527751110067199</v>
       </c>
       <c r="G96">
-        <v>-0.06881551647752893</v>
+        <v>-0.0688154082546647</v>
       </c>
       <c r="H96">
         <v>0.03883903558375801</v>
@@ -7805,7 +7805,7 @@
         <v>0.02923106887121207</v>
       </c>
       <c r="K96">
-        <v>-0.02259886888830787</v>
+        <v>-0.02259893781146372</v>
       </c>
       <c r="L96">
         <v>-0.02015353874956682</v>
@@ -7820,13 +7820,13 @@
         <v>-0.1122164659371278</v>
       </c>
       <c r="P96">
-        <v>0.01819244912680085</v>
+        <v>0.01819226193755608</v>
       </c>
       <c r="Q96">
         <v>-0.05498468877354934</v>
       </c>
       <c r="R96">
-        <v>0.03813566247228173</v>
+        <v>0.03813557763865316</v>
       </c>
       <c r="S96">
         <v>-0.06682865868124443</v>
@@ -7847,7 +7847,7 @@
         <v>-0.07158634520381857</v>
       </c>
       <c r="Y96">
-        <v>-0.03063178417739554</v>
+        <v>-0.03063184469493674</v>
       </c>
     </row>
     <row r="97" spans="1:25">
@@ -7864,13 +7864,13 @@
         <v>0.05529952604637467</v>
       </c>
       <c r="E97">
-        <v>-0.001078664015931374</v>
+        <v>-0.00107866409169588</v>
       </c>
       <c r="F97">
         <v>0.00131150460410101</v>
       </c>
       <c r="G97">
-        <v>-0.01568312025653817</v>
+        <v>-0.01568318266126911</v>
       </c>
       <c r="H97">
         <v>0.03944133941689243</v>
@@ -7882,10 +7882,10 @@
         <v>0.1162248077761594</v>
       </c>
       <c r="K97">
-        <v>0.00578025836915752</v>
+        <v>0.005780399810281889</v>
       </c>
       <c r="L97">
-        <v>-0.01934372838172083</v>
+        <v>-0.01934382524323364</v>
       </c>
       <c r="M97">
         <v>0.04452318107100139</v>
@@ -7897,7 +7897,7 @@
         <v>0.02689378735242287</v>
       </c>
       <c r="P97">
-        <v>0.157141238277148</v>
+        <v>0.1571412525917306</v>
       </c>
       <c r="Q97">
         <v>-0.02287805639093532</v>
@@ -7932,7 +7932,7 @@
         <v>44844</v>
       </c>
       <c r="B98">
-        <v>0.05854706221628647</v>
+        <v>0.05854698741812681</v>
       </c>
       <c r="C98">
         <v>0.02645904961288714</v>
@@ -7941,13 +7941,13 @@
         <v>0.1251819694772418</v>
       </c>
       <c r="E98">
-        <v>-0.001162800590843727</v>
+        <v>-0.001162800672605768</v>
       </c>
       <c r="F98">
         <v>-0.01004149112635366</v>
       </c>
       <c r="G98">
-        <v>0.006518053855316897</v>
+        <v>0.006518054268555229</v>
       </c>
       <c r="H98">
         <v>0.007509908110441721</v>
@@ -7959,10 +7959,10 @@
         <v>0.01135181045812406</v>
       </c>
       <c r="K98">
-        <v>0.002873589610934868</v>
+        <v>0.002873519297976301</v>
       </c>
       <c r="L98">
-        <v>0.0265918289961995</v>
+        <v>0.0265918316227316</v>
       </c>
       <c r="M98">
         <v>0.004526665696795495</v>
@@ -7974,7 +7974,7 @@
         <v>0.04757748406144202</v>
       </c>
       <c r="P98">
-        <v>-0.01821242858044803</v>
+        <v>-0.01821227256800162</v>
       </c>
       <c r="Q98">
         <v>0.01763262288849199</v>
@@ -8001,7 +8001,7 @@
         <v>-0.0939697973734368</v>
       </c>
       <c r="Y98">
-        <v>0.004320900912641257</v>
+        <v>0.004321021687476945</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -8009,22 +8009,22 @@
         <v>44851</v>
       </c>
       <c r="B99">
-        <v>0.09928945261416944</v>
+        <v>0.0992895302912391</v>
       </c>
       <c r="C99">
         <v>0.0484133524538557</v>
       </c>
       <c r="D99">
-        <v>-0.02846049457952282</v>
+        <v>-0.02846056310684797</v>
       </c>
       <c r="E99">
-        <v>0.006195071904143479</v>
+        <v>0.006195142737206671</v>
       </c>
       <c r="F99">
         <v>0.1843438947329099</v>
       </c>
       <c r="G99">
-        <v>0.02798212110250264</v>
+        <v>0.02798218585352075</v>
       </c>
       <c r="H99">
         <v>0.02314631203464246</v>
@@ -8039,7 +8039,7 @@
         <v>-0.1060171841647182</v>
       </c>
       <c r="L99">
-        <v>0.02584211707717965</v>
+        <v>0.02584231199083753</v>
       </c>
       <c r="M99">
         <v>-0.02315680634241857</v>
@@ -8051,7 +8051,7 @@
         <v>-0.1358333428700765</v>
       </c>
       <c r="P99">
-        <v>0.06724470360438906</v>
+        <v>0.06724461802906423</v>
       </c>
       <c r="Q99">
         <v>-0.004402857149049311</v>
@@ -8078,7 +8078,7 @@
         <v>-0.08541324774701764</v>
       </c>
       <c r="Y99">
-        <v>-0.02950215419197133</v>
+        <v>-0.02950227089939372</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -8086,22 +8086,22 @@
         <v>44858</v>
       </c>
       <c r="B100">
-        <v>0.03149796402899319</v>
+        <v>0.03149809258686465</v>
       </c>
       <c r="C100">
         <v>0.02592974084065935</v>
       </c>
       <c r="D100">
-        <v>-0.02263658584015715</v>
+        <v>-0.02263651690203905</v>
       </c>
       <c r="E100">
-        <v>0.01223144154786149</v>
+        <v>0.01223151151137669</v>
       </c>
       <c r="F100">
         <v>0.07186750510100604</v>
       </c>
       <c r="G100">
-        <v>0.05910448822055425</v>
+        <v>0.05910436567277322</v>
       </c>
       <c r="H100">
         <v>0.01226990280263873</v>
@@ -8113,10 +8113,10 @@
         <v>-0.07592332512403532</v>
       </c>
       <c r="K100">
-        <v>0.04807689375144419</v>
+        <v>0.04807697195272098</v>
       </c>
       <c r="L100">
-        <v>0.03651222345107819</v>
+        <v>0.03651212623670164</v>
       </c>
       <c r="M100">
         <v>0.04049199393330638</v>
@@ -8149,13 +8149,13 @@
         <v>0.1689888340729728</v>
       </c>
       <c r="W100">
-        <v>0.08074403939360253</v>
+        <v>0.08074377287966628</v>
       </c>
       <c r="X100">
         <v>-0.02425710273391635</v>
       </c>
       <c r="Y100">
-        <v>-0.005699837707748179</v>
+        <v>-0.005699775752316838</v>
       </c>
     </row>
     <row r="101" spans="1:25">
@@ -8163,7 +8163,7 @@
         <v>44865</v>
       </c>
       <c r="B101">
-        <v>0.03648470862484809</v>
+        <v>0.03648464176158095</v>
       </c>
       <c r="C101">
         <v>0.1016010170405661</v>
@@ -8172,13 +8172,13 @@
         <v>0.02514044877936139</v>
       </c>
       <c r="E101">
-        <v>0.008450379078226877</v>
+        <v>0.008450378494153199</v>
       </c>
       <c r="F101">
         <v>0.03213484656937227</v>
       </c>
       <c r="G101">
-        <v>-0.005768434158183955</v>
+        <v>-0.005768434825642155</v>
       </c>
       <c r="H101">
         <v>0.02803031523234867</v>
@@ -8190,7 +8190,7 @@
         <v>0.1889708975933568</v>
       </c>
       <c r="K101">
-        <v>-0.01834856840606236</v>
+        <v>-0.01834864165105998</v>
       </c>
       <c r="L101">
         <v>-0.01938573356958639</v>
@@ -8205,7 +8205,7 @@
         <v>0.3490075747701402</v>
       </c>
       <c r="P101">
-        <v>0.01454371769203333</v>
+        <v>0.01454378953840729</v>
       </c>
       <c r="Q101">
         <v>0.03876173802323768</v>
@@ -8226,13 +8226,13 @@
         <v>0.008842747583511557</v>
       </c>
       <c r="W101">
-        <v>0.02020075397822896</v>
+        <v>0.02020100556211557</v>
       </c>
       <c r="X101">
         <v>-0.08079553625894598</v>
       </c>
       <c r="Y101">
-        <v>0.02165617065525094</v>
+        <v>0.02165610699525455</v>
       </c>
     </row>
     <row r="102" spans="1:25">
@@ -8240,7 +8240,7 @@
         <v>44872</v>
       </c>
       <c r="B102">
-        <v>0.03535350316671448</v>
+        <v>0.03535356116372013</v>
       </c>
       <c r="C102">
         <v>0.01389399467804253</v>
@@ -8249,13 +8249,13 @@
         <v>0.01234565728439052</v>
       </c>
       <c r="E102">
-        <v>-0.02040239200836147</v>
+        <v>-0.02040239061000404</v>
       </c>
       <c r="F102">
         <v>0.02473916063245585</v>
       </c>
       <c r="G102">
-        <v>0.04857185784810447</v>
+        <v>0.0485719798811195</v>
       </c>
       <c r="H102">
         <v>0.08179811864598885</v>
@@ -8282,7 +8282,7 @@
         <v>0.03363107661260489</v>
       </c>
       <c r="P102">
-        <v>0.01460249139314684</v>
+        <v>0.01460249035905048</v>
       </c>
       <c r="Q102">
         <v>0.1835967622818866</v>
@@ -8317,7 +8317,7 @@
         <v>44879</v>
       </c>
       <c r="B103">
-        <v>-0.01079072312780449</v>
+        <v>-0.01079095415290399</v>
       </c>
       <c r="C103">
         <v>0.03119357982889936</v>
@@ -8326,7 +8326,7 @@
         <v>-0.01761512234773355</v>
       </c>
       <c r="E103">
-        <v>-0.008223431272771586</v>
+        <v>-0.00822350066380606</v>
       </c>
       <c r="F103">
         <v>0.01642300567181221</v>
@@ -8347,7 +8347,7 @@
         <v>-0.02058827940613028</v>
       </c>
       <c r="L103">
-        <v>0.04106353111439498</v>
+        <v>0.04106334413306345</v>
       </c>
       <c r="M103">
         <v>0.01360627124315039</v>
@@ -8359,7 +8359,7 @@
         <v>-0.04812743998251479</v>
       </c>
       <c r="P103">
-        <v>-0.01641058413507634</v>
+        <v>-0.01641072258410525</v>
       </c>
       <c r="Q103">
         <v>-0.05155992515760088</v>
@@ -8386,7 +8386,7 @@
         <v>-0.1145891172163329</v>
       </c>
       <c r="Y103">
-        <v>0.006662706948973085</v>
+        <v>0.006662588441858963</v>
       </c>
     </row>
     <row r="104" spans="1:25">
@@ -8394,7 +8394,7 @@
         <v>44886</v>
       </c>
       <c r="B104">
-        <v>0.0216676428981597</v>
+        <v>0.02166788025424515</v>
       </c>
       <c r="C104">
         <v>0.01696117890165527</v>
@@ -8403,7 +8403,7 @@
         <v>0.04275859120321734</v>
       </c>
       <c r="E104">
-        <v>0.01666654908910314</v>
+        <v>0.01666661963564109</v>
       </c>
       <c r="F104">
         <v>0.05622881369399568</v>
@@ -8424,7 +8424,7 @@
         <v>0.04804804848810584</v>
       </c>
       <c r="L104">
-        <v>0.005902304534487479</v>
+        <v>0.005902485200681928</v>
       </c>
       <c r="M104">
         <v>0.04556651276309087</v>
@@ -8436,7 +8436,7 @@
         <v>0.01157204107295606</v>
       </c>
       <c r="P104">
-        <v>0.01821346841233518</v>
+        <v>0.01821346970479465</v>
       </c>
       <c r="Q104">
         <v>0.03012466099651645</v>
@@ -8463,7 +8463,7 @@
         <v>-0.006944482909843175</v>
       </c>
       <c r="Y104">
-        <v>0.03489761769156474</v>
+        <v>0.0348977395225849</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -8471,7 +8471,7 @@
         <v>44893</v>
       </c>
       <c r="B105">
-        <v>-0.01155481498506117</v>
+        <v>-0.01155492857332507</v>
       </c>
       <c r="C105">
         <v>-0.01856946578075258</v>
@@ -8480,13 +8480,13 @@
         <v>-0.052910072664755</v>
       </c>
       <c r="E105">
-        <v>-0.01827858701605412</v>
+        <v>-0.01827865513774274</v>
       </c>
       <c r="F105">
         <v>-0.02355824545385632</v>
       </c>
       <c r="G105">
-        <v>0.0265131512157335</v>
+        <v>0.02651304457618431</v>
       </c>
       <c r="H105">
         <v>0.0284070856042804</v>
@@ -8501,10 +8501,10 @@
         <v>0.04297998676312753</v>
       </c>
       <c r="L105">
-        <v>0.01576723077854258</v>
+        <v>0.01576732005464399</v>
       </c>
       <c r="M105">
-        <v>0.0565370194922088</v>
+        <v>0.0565370928787865</v>
       </c>
       <c r="N105">
         <v>0.02089126391350282</v>
@@ -8513,13 +8513,13 @@
         <v>0.3533967254294756</v>
       </c>
       <c r="P105">
-        <v>-0.02959111812061865</v>
+        <v>-0.02959098079806777</v>
       </c>
       <c r="Q105">
         <v>0.03148456648284315</v>
       </c>
       <c r="R105">
-        <v>0.015459842094522</v>
+        <v>0.01545976363529222</v>
       </c>
       <c r="S105">
         <v>0.01491921354630166</v>
@@ -8563,7 +8563,7 @@
         <v>-0.005013328847969234</v>
       </c>
       <c r="G106">
-        <v>0.002058277948657539</v>
+        <v>0.002058382047717355</v>
       </c>
       <c r="H106">
         <v>0.005261492890918262</v>
@@ -8575,13 +8575,13 @@
         <v>-0.08866238494188272</v>
       </c>
       <c r="K106">
-        <v>-0.005494622612269184</v>
+        <v>-0.005494555582605587</v>
       </c>
       <c r="L106">
-        <v>-0.01755362935142735</v>
+        <v>-0.01755371569894015</v>
       </c>
       <c r="M106">
-        <v>0.02753633255006105</v>
+        <v>0.02753619171832544</v>
       </c>
       <c r="N106">
         <v>-0.02290253732916325</v>
@@ -8590,13 +8590,13 @@
         <v>-0.02652796976656535</v>
       </c>
       <c r="P106">
-        <v>-0.05752767005341641</v>
+        <v>-0.05752780955705084</v>
       </c>
       <c r="Q106">
         <v>0.1041712385575655</v>
       </c>
       <c r="R106">
-        <v>-0.00400648529234926</v>
+        <v>-0.004006408337173917</v>
       </c>
       <c r="S106">
         <v>-0.101674144319703</v>
@@ -8617,7 +8617,7 @@
         <v>-0.1549652560350057</v>
       </c>
       <c r="Y106">
-        <v>0.02647871270976498</v>
+        <v>0.02647882293806969</v>
       </c>
     </row>
     <row r="107" spans="1:25">
@@ -8625,7 +8625,7 @@
         <v>44907</v>
       </c>
       <c r="B107">
-        <v>-0.02171610289145731</v>
+        <v>-0.02171616234072227</v>
       </c>
       <c r="C107">
         <v>-0.007574323963686069</v>
@@ -8652,13 +8652,13 @@
         <v>0.00253250502970892</v>
       </c>
       <c r="K107">
-        <v>0.03314927516353761</v>
+        <v>0.03314913812928322</v>
       </c>
       <c r="L107">
         <v>-0.0003982789197727321</v>
       </c>
       <c r="M107">
-        <v>0.00650970063691636</v>
+        <v>0.006509768675102334</v>
       </c>
       <c r="N107">
         <v>-0.02223688450692773</v>
@@ -8667,7 +8667,7 @@
         <v>0.04728828328432888</v>
       </c>
       <c r="P107">
-        <v>0.01120333663945217</v>
+        <v>0.01120341369441746</v>
       </c>
       <c r="Q107">
         <v>-0.04761440132445982</v>
@@ -8688,13 +8688,13 @@
         <v>-0.02801798231036334</v>
       </c>
       <c r="W107">
-        <v>-0.01135565715355691</v>
+        <v>-0.01135573364271669</v>
       </c>
       <c r="X107">
         <v>0.049401258835853</v>
       </c>
       <c r="Y107">
-        <v>-0.05159146019505212</v>
+        <v>-0.0515915620397891</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -8702,7 +8702,7 @@
         <v>44914</v>
       </c>
       <c r="B108">
-        <v>0.01539179733708096</v>
+        <v>0.0153919198102892</v>
       </c>
       <c r="C108">
         <v>0.02307422075182242</v>
@@ -8717,7 +8717,7 @@
         <v>-0.06254025757913662</v>
       </c>
       <c r="G108">
-        <v>0.014490789631604</v>
+        <v>0.01449089363422784</v>
       </c>
       <c r="H108">
         <v>-0.02926332820340483</v>
@@ -8729,10 +8729,10 @@
         <v>0.08409638652899987</v>
       </c>
       <c r="K108">
-        <v>0.01069515437263013</v>
+        <v>0.01069522030778658</v>
       </c>
       <c r="L108">
-        <v>0.010303353140658</v>
+        <v>0.01030326364434009</v>
       </c>
       <c r="M108">
         <v>0.00732994497437045</v>
@@ -8765,7 +8765,7 @@
         <v>0.0313166796800981</v>
       </c>
       <c r="W108">
-        <v>0.01249372644491387</v>
+        <v>0.01249372741152488</v>
       </c>
       <c r="X108">
         <v>-0.1198288338318468</v>
@@ -8779,7 +8779,7 @@
         <v>44921</v>
       </c>
       <c r="B109">
-        <v>0.02148091855784573</v>
+        <v>0.02148073772898007</v>
       </c>
       <c r="C109">
         <v>-0.01214437921225597</v>
@@ -8794,7 +8794,7 @@
         <v>0.1432001759408699</v>
       </c>
       <c r="G109">
-        <v>-0.006945326518408734</v>
+        <v>-0.006945428323454239</v>
       </c>
       <c r="H109">
         <v>0.001386082538979982</v>
@@ -8809,7 +8809,7 @@
         <v>0.02645507529224012</v>
       </c>
       <c r="L109">
-        <v>-0.004676683110737323</v>
+        <v>-0.004676506357779164</v>
       </c>
       <c r="M109">
         <v>0.003745312858467242</v>
@@ -8821,13 +8821,13 @@
         <v>0.04526353566134467</v>
       </c>
       <c r="P109">
-        <v>0.01490611967190913</v>
+        <v>0.01490619226924128</v>
       </c>
       <c r="Q109">
         <v>0.01947135040048509</v>
       </c>
       <c r="R109">
-        <v>0.0115921079683603</v>
+        <v>0.01159218248644622</v>
       </c>
       <c r="S109">
         <v>-0.03376201317889993</v>
@@ -8842,13 +8842,13 @@
         <v>-0.007591414333310786</v>
       </c>
       <c r="W109">
-        <v>-0.006766832951624724</v>
+        <v>-0.006766909881742444</v>
       </c>
       <c r="X109">
         <v>0.00243109664507557</v>
       </c>
       <c r="Y109">
-        <v>-0.0005934682266909297</v>
+        <v>-0.0005933521108182349</v>
       </c>
     </row>
     <row r="110" spans="1:25">
@@ -8856,7 +8856,7 @@
         <v>44928</v>
       </c>
       <c r="B110">
-        <v>0.02863512676479552</v>
+        <v>0.02863548165553897</v>
       </c>
       <c r="C110">
         <v>0.08184055513583655</v>
@@ -8865,7 +8865,7 @@
         <v>-0.005797140686166324</v>
       </c>
       <c r="E110">
-        <v>-0.008456062300569167</v>
+        <v>-0.008455991508329208</v>
       </c>
       <c r="F110">
         <v>-0.03855376225252938</v>
@@ -8886,10 +8886,10 @@
         <v>0.03608242592968369</v>
       </c>
       <c r="L110">
-        <v>0.02037944901270694</v>
+        <v>0.02037926919928723</v>
       </c>
       <c r="M110">
-        <v>0.03144991385541585</v>
+        <v>0.03144984743195622</v>
       </c>
       <c r="N110">
         <v>0.008070804854304781</v>
@@ -8898,13 +8898,13 @@
         <v>-0.1185012279932812</v>
       </c>
       <c r="P110">
-        <v>0.002085202529882979</v>
+        <v>0.002085202380725182</v>
       </c>
       <c r="Q110">
         <v>-0.01014350811403619</v>
       </c>
       <c r="R110">
-        <v>-0.07944996737414212</v>
+        <v>-0.07945003518568483</v>
       </c>
       <c r="S110">
         <v>-0.04991688805344996</v>
@@ -8919,13 +8919,13 @@
         <v>0.06015296756410438</v>
       </c>
       <c r="W110">
-        <v>0.0173329170710812</v>
+        <v>0.01733299667169708</v>
       </c>
       <c r="X110">
         <v>0.0840743711782197</v>
       </c>
       <c r="Y110">
-        <v>0.04334913911692118</v>
+        <v>0.04334901789559842</v>
       </c>
     </row>
     <row r="111" spans="1:25">
@@ -8933,7 +8933,7 @@
         <v>44935</v>
       </c>
       <c r="B111">
-        <v>0.04441327691281005</v>
+        <v>0.04441292504483774</v>
       </c>
       <c r="C111">
         <v>0.02564930668988663</v>
@@ -8942,13 +8942,13 @@
         <v>0.02769686934099158</v>
       </c>
       <c r="E111">
-        <v>0.02636360410563898</v>
+        <v>0.02636367361934866</v>
       </c>
       <c r="F111">
         <v>0.01295052849601408</v>
       </c>
       <c r="G111">
-        <v>-0.01975052556217971</v>
+        <v>-0.01975042391096737</v>
       </c>
       <c r="H111">
         <v>0.03738619851795488</v>
@@ -8963,10 +8963,10 @@
         <v>-0.02487560709461234</v>
       </c>
       <c r="L111">
-        <v>-0.03783641965051909</v>
+        <v>-0.03783633572839951</v>
       </c>
       <c r="M111">
-        <v>-0.03193800158908866</v>
+        <v>-0.03193800364583677</v>
       </c>
       <c r="N111">
         <v>0.01138865017176105</v>
@@ -8975,7 +8975,7 @@
         <v>-0.01014847527123397</v>
       </c>
       <c r="P111">
-        <v>0.02370396988012335</v>
+        <v>0.02370396818808107</v>
       </c>
       <c r="Q111">
         <v>0.07123219086536658</v>
@@ -8996,7 +8996,7 @@
         <v>0.03509346794247881</v>
       </c>
       <c r="W111">
-        <v>0.02521168164617027</v>
+        <v>0.02521175917562513</v>
       </c>
       <c r="X111">
         <v>0.2296793406974151</v>
@@ -9010,7 +9010,7 @@
         <v>44942</v>
       </c>
       <c r="B112">
-        <v>-0.05545065237152291</v>
+        <v>-0.05545054934747029</v>
       </c>
       <c r="C112">
         <v>-0.01943102821848142</v>
@@ -9019,13 +9019,13 @@
         <v>-0.008510695604667218</v>
       </c>
       <c r="E112">
-        <v>-0.01345476365176324</v>
+        <v>-0.01345490090398693</v>
       </c>
       <c r="F112">
         <v>-0.01740603342825575</v>
       </c>
       <c r="G112">
-        <v>-0.05242581764846388</v>
+        <v>-0.05242581221194287</v>
       </c>
       <c r="H112">
         <v>-0.01393098389657998</v>
@@ -9037,13 +9037,13 @@
         <v>-0.02718167363885304</v>
       </c>
       <c r="K112">
-        <v>0.005102087497700802</v>
+        <v>0.005102025255868226</v>
       </c>
       <c r="L112">
-        <v>-0.02704247221010014</v>
+        <v>-0.02704256286234874</v>
       </c>
       <c r="M112">
-        <v>0.03139015511241938</v>
+        <v>0.03139022372333033</v>
       </c>
       <c r="N112">
         <v>0.006990244684191849</v>
@@ -9052,7 +9052,7 @@
         <v>0.0524516882500301</v>
       </c>
       <c r="P112">
-        <v>0.001767569831699456</v>
+        <v>0.001767499979081988</v>
       </c>
       <c r="Q112">
         <v>-0.05716285499558005</v>
@@ -9087,7 +9087,7 @@
         <v>44949</v>
       </c>
       <c r="B113">
-        <v>0.03879186457697825</v>
+        <v>0.03879198005232642</v>
       </c>
       <c r="C113">
         <v>0.06483594633670253</v>
@@ -9096,13 +9096,13 @@
         <v>0.004291837930989972</v>
       </c>
       <c r="E113">
-        <v>-0.001581838569686078</v>
+        <v>-0.001581768058917965</v>
       </c>
       <c r="F113">
         <v>-0.08763134406258144</v>
       </c>
       <c r="G113">
-        <v>-0.01061699498386293</v>
+        <v>-0.01061710325859577</v>
       </c>
       <c r="H113">
         <v>0.04269032975203912</v>
@@ -9114,13 +9114,13 @@
         <v>-0.008823544261364669</v>
       </c>
       <c r="K113">
-        <v>0.005076126414751192</v>
+        <v>0.005076126729094854</v>
       </c>
       <c r="L113">
-        <v>-0.003022587836825741</v>
+        <v>-0.003022401774737338</v>
       </c>
       <c r="M113">
-        <v>-0.01873709674392099</v>
+        <v>-0.01873703224578083</v>
       </c>
       <c r="N113">
         <v>-0.008412725774729513</v>
@@ -9129,13 +9129,13 @@
         <v>-0.007906327453217066</v>
       </c>
       <c r="P113">
-        <v>0.01993824804190369</v>
+        <v>0.0199383176482415</v>
       </c>
       <c r="Q113">
         <v>-0.0484533946897</v>
       </c>
       <c r="R113">
-        <v>-0.002450916093996947</v>
+        <v>-0.002450994873724355</v>
       </c>
       <c r="S113">
         <v>0.039191634576762</v>
@@ -9150,13 +9150,13 @@
         <v>-0.008452533700630038</v>
       </c>
       <c r="W113">
-        <v>0.0125675103913756</v>
+        <v>0.01256743499867707</v>
       </c>
       <c r="X113">
         <v>-0.002515720931615784</v>
       </c>
       <c r="Y113">
-        <v>0.03624742837464057</v>
+        <v>0.03624732408080078</v>
       </c>
     </row>
     <row r="114" spans="1:25">
@@ -9164,7 +9164,7 @@
         <v>44956</v>
       </c>
       <c r="B114">
-        <v>0.005487456408771019</v>
+        <v>0.005487344635657365</v>
       </c>
       <c r="C114">
         <v>-0.03860825861900863</v>
@@ -9173,7 +9173,7 @@
         <v>0.02421657920239362</v>
       </c>
       <c r="E114">
-        <v>-0.002355189131595603</v>
+        <v>-0.002355188965266319</v>
       </c>
       <c r="F114">
         <v>0.01890032790688645</v>
@@ -9191,13 +9191,13 @@
         <v>0.005440188458371242</v>
       </c>
       <c r="K114">
-        <v>-0.08080807831866188</v>
+        <v>-0.08080802168437129</v>
       </c>
       <c r="L114">
-        <v>-0.021518137380653</v>
+        <v>-0.02151822882400101</v>
       </c>
       <c r="M114">
-        <v>-0.006751757300616945</v>
+        <v>-0.006751888316266053</v>
       </c>
       <c r="N114">
         <v>0.01028048086605904</v>
@@ -9206,13 +9206,13 @@
         <v>-0.02234239034902719</v>
       </c>
       <c r="P114">
-        <v>-0.03191766627759796</v>
+        <v>-0.03191766409935737</v>
       </c>
       <c r="Q114">
         <v>0.04910019094518714</v>
       </c>
       <c r="R114">
-        <v>-0.008190240323600939</v>
+        <v>-0.008190161997120637</v>
       </c>
       <c r="S114">
         <v>0.03182091557908318</v>
@@ -9227,13 +9227,13 @@
         <v>-0.002295108993222161</v>
       </c>
       <c r="W114">
-        <v>0.02327152264035104</v>
+        <v>0.02327167328700819</v>
       </c>
       <c r="X114">
         <v>0.0958385584484811</v>
       </c>
       <c r="Y114">
-        <v>-0.02314830796978018</v>
+        <v>-0.02314820965385544</v>
       </c>
     </row>
     <row r="115" spans="1:25">
@@ -9250,7 +9250,7 @@
         <v>0.0083449084152869</v>
       </c>
       <c r="E115">
-        <v>-0.002489443913997191</v>
+        <v>-0.002489514526969994</v>
       </c>
       <c r="F115">
         <v>-0.008768952493785398</v>
@@ -9271,10 +9271,10 @@
         <v>-0.03846155392992223</v>
       </c>
       <c r="L115">
-        <v>-0.01494446790794624</v>
+        <v>-0.01494437239843993</v>
       </c>
       <c r="M115">
-        <v>0.02857138697475103</v>
+        <v>0.02857152121857998</v>
       </c>
       <c r="N115">
         <v>0.0324091303248184</v>
@@ -9283,7 +9283,7 @@
         <v>-0.08602614694680955</v>
       </c>
       <c r="P115">
-        <v>0.06477849582344697</v>
+        <v>0.06477835026545886</v>
       </c>
       <c r="Q115">
         <v>0.05651962978561054</v>
@@ -9304,13 +9304,13 @@
         <v>-0.004600711908645305</v>
       </c>
       <c r="W115">
-        <v>-0.02103669557614551</v>
+        <v>-0.02103676680907207</v>
       </c>
       <c r="X115">
         <v>-0.116225523684102</v>
       </c>
       <c r="Y115">
-        <v>-0.006318974531537291</v>
+        <v>-0.006319077562215614</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -9318,7 +9318,7 @@
         <v>44970</v>
       </c>
       <c r="B116">
-        <v>0.008508344497042408</v>
+        <v>0.008508455092691936</v>
       </c>
       <c r="C116">
         <v>0.01272417563074013</v>
@@ -9333,7 +9333,7 @@
         <v>-0.0008506483819005206</v>
       </c>
       <c r="G116">
-        <v>0.01265726554032121</v>
+        <v>0.01265737799936684</v>
       </c>
       <c r="H116">
         <v>0.04298502184413722</v>
@@ -9345,13 +9345,13 @@
         <v>0.1402428251600882</v>
       </c>
       <c r="K116">
-        <v>0.008571437135904691</v>
+        <v>0.008571367425053378</v>
       </c>
       <c r="L116">
-        <v>-0.01085411614522858</v>
+        <v>-0.01085411509283052</v>
       </c>
       <c r="M116">
-        <v>0.01817434675074225</v>
+        <v>0.01817428124314202</v>
       </c>
       <c r="N116">
         <v>0.002389082902762629</v>
@@ -9360,7 +9360,7 @@
         <v>0.06099700231263383</v>
       </c>
       <c r="P116">
-        <v>-0.06620797193462491</v>
+        <v>-0.06620791011113392</v>
       </c>
       <c r="Q116">
         <v>-0.03801035134452757</v>
@@ -9387,7 +9387,7 @@
         <v>0.01432293437149657</v>
       </c>
       <c r="Y116">
-        <v>0.05034436150035915</v>
+        <v>0.05034447040623591</v>
       </c>
     </row>
     <row r="117" spans="1:25">
@@ -9395,7 +9395,7 @@
         <v>44977</v>
       </c>
       <c r="B117">
-        <v>-0.009209794317919795</v>
+        <v>-0.009210012633130593</v>
       </c>
       <c r="C117">
         <v>-0.02164701864782848</v>
@@ -9410,7 +9410,7 @@
         <v>-0.07679207990110248</v>
       </c>
       <c r="G117">
-        <v>-0.005356661361274329</v>
+        <v>-0.005356771819799655</v>
       </c>
       <c r="H117">
         <v>-0.03978240469125693</v>
@@ -9422,13 +9422,13 @@
         <v>-0.06929337891355325</v>
       </c>
       <c r="K117">
-        <v>0.01133140990629888</v>
+        <v>0.01133147980791982</v>
       </c>
       <c r="L117">
-        <v>-0.02056363886766444</v>
+        <v>-0.02056353882952977</v>
       </c>
       <c r="M117">
-        <v>0.01125752693957649</v>
+        <v>0.01125759012944005</v>
       </c>
       <c r="N117">
         <v>-0.00426795159816884</v>
@@ -9458,13 +9458,13 @@
         <v>0.003504287753070434</v>
       </c>
       <c r="W117">
-        <v>-0.01886428359346193</v>
+        <v>-0.01886435638469008</v>
       </c>
       <c r="X117">
         <v>-0.08985876928022785</v>
       </c>
       <c r="Y117">
-        <v>-0.06861763840955359</v>
+        <v>-0.06861753969348461</v>
       </c>
     </row>
     <row r="118" spans="1:25">
@@ -9472,7 +9472,7 @@
         <v>44984</v>
       </c>
       <c r="B118">
-        <v>0.01937133532029578</v>
+        <v>0.01937144814632608</v>
       </c>
       <c r="C118">
         <v>0.03775338613919765</v>
@@ -9481,13 +9481,13 @@
         <v>-0.03677513524091935</v>
       </c>
       <c r="E118">
-        <v>-0.0085792417009386</v>
+        <v>-0.008579313161866664</v>
       </c>
       <c r="F118">
         <v>0.1257838317720479</v>
       </c>
       <c r="G118">
-        <v>0.01213562396045464</v>
+        <v>0.01213551230896304</v>
       </c>
       <c r="H118">
         <v>0.03665210290099719</v>
@@ -9499,13 +9499,13 @@
         <v>0.02598888762106366</v>
       </c>
       <c r="K118">
-        <v>-0.04481792755374792</v>
+        <v>-0.04481785920977399</v>
       </c>
       <c r="L118">
-        <v>-0.01250225181045539</v>
+        <v>-0.01250244946888268</v>
       </c>
       <c r="M118">
-        <v>0.01213523786112236</v>
+        <v>0.01213523710283471</v>
       </c>
       <c r="N118">
         <v>-0.01183456395690619</v>
@@ -9514,7 +9514,7 @@
         <v>0.0692874626551756</v>
       </c>
       <c r="P118">
-        <v>0.01860051459934375</v>
+        <v>0.01860044390291016</v>
       </c>
       <c r="Q118">
         <v>0.02787016848265633</v>
@@ -9535,13 +9535,13 @@
         <v>0.03619049759889936</v>
       </c>
       <c r="W118">
-        <v>0.03860710363406539</v>
+        <v>0.0386072548799361</v>
       </c>
       <c r="X118">
         <v>-0.02397744324898121</v>
       </c>
       <c r="Y118">
-        <v>0.1141161988781725</v>
+        <v>0.1141160807943817</v>
       </c>
     </row>
     <row r="119" spans="1:25">
@@ -9558,13 +9558,13 @@
         <v>-0.002936877370843693</v>
       </c>
       <c r="E119">
-        <v>-0.01983529011851726</v>
+        <v>-0.01983514738959369</v>
       </c>
       <c r="F119">
         <v>-0.02293577027949945</v>
       </c>
       <c r="G119">
-        <v>-0.02667616680306817</v>
+        <v>-0.02667605943300133</v>
       </c>
       <c r="H119">
         <v>-0.008931210218630858</v>
@@ -9576,13 +9576,13 @@
         <v>-0.08140832520448904</v>
       </c>
       <c r="K119">
-        <v>0.00437933391709211</v>
+        <v>0.004379262053023414</v>
       </c>
       <c r="L119">
         <v>-0.01564745164658388</v>
       </c>
       <c r="M119">
-        <v>-0.009512471629429919</v>
+        <v>-0.00951253277937758</v>
       </c>
       <c r="N119">
         <v>-0.009554027124113906</v>
@@ -9591,7 +9591,7 @@
         <v>-0.1055453357611513</v>
       </c>
       <c r="P119">
-        <v>-0.04458828648268343</v>
+        <v>-0.04458822017189268</v>
       </c>
       <c r="Q119">
         <v>0.005638681894980735</v>
@@ -9612,7 +9612,7 @@
         <v>-0.01133576993815943</v>
       </c>
       <c r="W119">
-        <v>-0.06857993195152934</v>
+        <v>-0.06857992705266158</v>
       </c>
       <c r="X119">
         <v>-0.1076589418129126</v>
@@ -9626,7 +9626,7 @@
         <v>44998</v>
       </c>
       <c r="B120">
-        <v>-0.05866064220632106</v>
+        <v>-0.05866070056176487</v>
       </c>
       <c r="C120">
         <v>-0.1476120893197931</v>
@@ -9635,7 +9635,7 @@
         <v>-0.04123709002601172</v>
       </c>
       <c r="E120">
-        <v>-0.1150298428074616</v>
+        <v>-0.1150298343484023</v>
       </c>
       <c r="F120">
         <v>-0.05516437556754394</v>
@@ -9659,7 +9659,7 @@
         <v>0.005078946577266263</v>
       </c>
       <c r="M120">
-        <v>-0.02200883429987632</v>
+        <v>-0.02200877196973772</v>
       </c>
       <c r="N120">
         <v>0.009236659048565077</v>
@@ -9674,7 +9674,7 @@
         <v>-0.07254999726963662</v>
       </c>
       <c r="R120">
-        <v>-0.05433904675983903</v>
+        <v>-0.05433912496453419</v>
       </c>
       <c r="S120">
         <v>-0.1562073660087573</v>
@@ -9689,7 +9689,7 @@
         <v>-0.09420519650747317</v>
       </c>
       <c r="W120">
-        <v>-0.06702674322319846</v>
+        <v>-0.06702681477527561</v>
       </c>
       <c r="X120">
         <v>-0.0955465804637774</v>
@@ -9703,7 +9703,7 @@
         <v>45005</v>
       </c>
       <c r="B121">
-        <v>-0.007153558721111564</v>
+        <v>-0.007153497172640466</v>
       </c>
       <c r="C121">
         <v>-0.02131673092478348</v>
@@ -9712,13 +9712,13 @@
         <v>-0.01689715588718166</v>
       </c>
       <c r="E121">
-        <v>0.02186801859202037</v>
+        <v>0.02186793367832807</v>
       </c>
       <c r="F121">
         <v>-0.02821645747194812</v>
       </c>
       <c r="G121">
-        <v>0.02651647135292734</v>
+        <v>0.02651658013755775</v>
       </c>
       <c r="H121">
         <v>0.03294794655346123</v>
@@ -9736,7 +9736,7 @@
         <v>0.00177187523752842</v>
       </c>
       <c r="M121">
-        <v>0.07303603160689165</v>
+        <v>0.07303596321927985</v>
       </c>
       <c r="N121">
         <v>0.006311775228520222</v>
@@ -9751,7 +9751,7 @@
         <v>-0.009462743350891478</v>
       </c>
       <c r="R121">
-        <v>-0.01286448825165121</v>
+        <v>-0.01286440661706756</v>
       </c>
       <c r="S121">
         <v>0.003233626695479996</v>
@@ -9780,7 +9780,7 @@
         <v>45012</v>
       </c>
       <c r="B122">
-        <v>0.04323110450677348</v>
+        <v>0.04323091719101013</v>
       </c>
       <c r="C122">
         <v>0.05339235919499541</v>
@@ -9795,7 +9795,7 @@
         <v>0.03889705936882382</v>
       </c>
       <c r="G122">
-        <v>0.01342697669312098</v>
+        <v>0.01342686929565517</v>
       </c>
       <c r="H122">
         <v>0.04308900497328372</v>
@@ -9822,7 +9822,7 @@
         <v>-0.004519024910170644</v>
       </c>
       <c r="P122">
-        <v>0.05920994170166161</v>
+        <v>0.05920986607498335</v>
       </c>
       <c r="Q122">
         <v>0.05615116194602776</v>
@@ -9857,7 +9857,7 @@
         <v>45019</v>
       </c>
       <c r="B123">
-        <v>-0.02179425985516603</v>
+        <v>-0.02179402436373434</v>
       </c>
       <c r="C123">
         <v>0.0450137481276256</v>
@@ -9899,7 +9899,7 @@
         <v>-0.03129053656982272</v>
       </c>
       <c r="P123">
-        <v>0.04915195314845633</v>
+        <v>0.04915202805700813</v>
       </c>
       <c r="Q123">
         <v>-0.007537688442211032</v>
@@ -9934,7 +9934,7 @@
         <v>45026</v>
       </c>
       <c r="B124">
-        <v>0.09687582713971477</v>
+        <v>0.09687576002777765</v>
       </c>
       <c r="C124">
         <v>0.05235514436121047</v>
@@ -9949,7 +9949,7 @@
         <v>0.02354602881807355</v>
       </c>
       <c r="G124">
-        <v>-0.008014743270604474</v>
+        <v>-0.008014845416088767</v>
       </c>
       <c r="H124">
         <v>0.05502137280616948</v>
@@ -9976,13 +9976,13 @@
         <v>0.1464435146443515</v>
       </c>
       <c r="P124">
-        <v>0.008691807410579067</v>
+        <v>0.008691875464724275</v>
       </c>
       <c r="Q124">
         <v>-0.0144810157486156</v>
       </c>
       <c r="R124">
-        <v>0.03280062549830109</v>
+        <v>0.0328005443995687</v>
       </c>
       <c r="S124">
         <v>0.1080441524121942</v>
@@ -10026,7 +10026,7 @@
         <v>0.01390556161462375</v>
       </c>
       <c r="G125">
-        <v>0.03357609035231834</v>
+        <v>0.033576299751233</v>
       </c>
       <c r="H125">
         <v>0.01443039733940776</v>
@@ -10041,7 +10041,7 @@
         <v>0.01319258498096643</v>
       </c>
       <c r="L125">
-        <v>-0.01899406509588542</v>
+        <v>-0.01899415922003445</v>
       </c>
       <c r="M125">
         <v>0.01712383407924478</v>
@@ -10053,13 +10053,13 @@
         <v>0.0645255207145301</v>
       </c>
       <c r="P125">
-        <v>-0.0003446251597549743</v>
+        <v>-0.0003446926042279808</v>
       </c>
       <c r="Q125">
         <v>-0.0346280595679167</v>
       </c>
       <c r="R125">
-        <v>-0.002443011449770882</v>
+        <v>-0.00244293311847299</v>
       </c>
       <c r="S125">
         <v>-0.002846972335231568</v>
@@ -10088,7 +10088,7 @@
         <v>45040</v>
       </c>
       <c r="B126">
-        <v>-0.01636543300042959</v>
+        <v>-0.0163653228755839</v>
       </c>
       <c r="C126">
         <v>-0.04453164567030277</v>
@@ -10103,7 +10103,7 @@
         <v>0.07500852256031543</v>
       </c>
       <c r="G126">
-        <v>0.00825957044574932</v>
+        <v>0.008259569622883545</v>
       </c>
       <c r="H126">
         <v>-0.01831792759390216</v>
@@ -10118,7 +10118,7 @@
         <v>-0.0156250058785885</v>
       </c>
       <c r="L126">
-        <v>0.006208030573948919</v>
+        <v>0.006208127116161588</v>
       </c>
       <c r="M126">
         <v>-0.03401473920059739</v>
@@ -10165,7 +10165,7 @@
         <v>45047</v>
       </c>
       <c r="B127">
-        <v>-0.010850655424684</v>
+        <v>-0.01085076616693559</v>
       </c>
       <c r="C127">
         <v>0.03556486226426991</v>
@@ -10174,13 +10174,13 @@
         <v>0.003448210567186027</v>
       </c>
       <c r="E127">
-        <v>-0.01005004407857002</v>
+        <v>-0.01004996276029657</v>
       </c>
       <c r="F127">
         <v>0.00346498961302677</v>
       </c>
       <c r="G127">
-        <v>-0.0022381362770163</v>
+        <v>-0.002238234865458599</v>
       </c>
       <c r="H127">
         <v>0.01853227227244458</v>
@@ -10207,13 +10207,13 @@
         <v>0.03089611522700464</v>
       </c>
       <c r="P127">
-        <v>-0.08162921667974499</v>
+        <v>-0.08162915051758712</v>
       </c>
       <c r="Q127">
         <v>0.01566018483216203</v>
       </c>
       <c r="R127">
-        <v>0.02278950399123514</v>
+        <v>0.02278959189132257</v>
       </c>
       <c r="S127">
         <v>-0.1459909429797271</v>
@@ -10228,7 +10228,7 @@
         <v>0.05807717755000774</v>
       </c>
       <c r="W127">
-        <v>0.01535788024911366</v>
+        <v>0.01535780175842683</v>
       </c>
       <c r="X127">
         <v>0.02879293871211286</v>
@@ -10251,13 +10251,13 @@
         <v>-0.02061860851794328</v>
       </c>
       <c r="E128">
-        <v>0.02197092601552364</v>
+        <v>0.02197067777930117</v>
       </c>
       <c r="F128">
         <v>-0.06765020608592898</v>
       </c>
       <c r="G128">
-        <v>-0.0004486115472610575</v>
+        <v>-0.0004485125160141878</v>
       </c>
       <c r="H128">
         <v>-0.009228620705911683</v>
@@ -10272,7 +10272,7 @@
         <v>-0.02544536246434981</v>
       </c>
       <c r="L128">
-        <v>-0.01167933527195719</v>
+        <v>-0.01167943122443194</v>
       </c>
       <c r="M128">
         <v>0.07458866819426802</v>
@@ -10284,13 +10284,13 @@
         <v>0.07146737761230981</v>
       </c>
       <c r="P128">
-        <v>-0.02668377927330989</v>
+        <v>-0.02668392143685894</v>
       </c>
       <c r="Q128">
         <v>0.08115954546890203</v>
       </c>
       <c r="R128">
-        <v>-0.05793232087917477</v>
+        <v>-0.05793240184189874</v>
       </c>
       <c r="S128">
         <v>-0.05225864965291394</v>
@@ -10305,7 +10305,7 @@
         <v>0.05169204648299708</v>
       </c>
       <c r="W128">
-        <v>-0.01189885923270118</v>
+        <v>-0.01189878284904899</v>
       </c>
       <c r="X128">
         <v>-0.1948331485696271</v>
@@ -10319,7 +10319,7 @@
         <v>45061</v>
       </c>
       <c r="B129">
-        <v>0.03788216284840473</v>
+        <v>0.03788204743493639</v>
       </c>
       <c r="C129">
         <v>0.02805336842164374</v>
@@ -10328,13 +10328,13 @@
         <v>0.03865797986595254</v>
       </c>
       <c r="E129">
-        <v>-0.00662257191586757</v>
+        <v>-0.006622412224765006</v>
       </c>
       <c r="F129">
         <v>0.002693555720016283</v>
       </c>
       <c r="G129">
-        <v>-0.01788920622833368</v>
+        <v>-0.01788930353163176</v>
       </c>
       <c r="H129">
         <v>0.01371872797965379</v>
@@ -10349,7 +10349,7 @@
         <v>-0.02872054406543356</v>
       </c>
       <c r="L129">
-        <v>-0.01163075409126879</v>
+        <v>-0.01163065813406805</v>
       </c>
       <c r="M129">
         <v>-0.02177609870562791</v>
@@ -10361,13 +10361,13 @@
         <v>-0.04176690244948844</v>
       </c>
       <c r="P129">
-        <v>0.004537676594115858</v>
+        <v>0.004537824966097448</v>
       </c>
       <c r="Q129">
         <v>0.01416358435401421</v>
       </c>
       <c r="R129">
-        <v>-0.5651439202702422</v>
+        <v>-0.5651438746569999</v>
       </c>
       <c r="S129">
         <v>-0.1056074892134534</v>
@@ -10396,7 +10396,7 @@
         <v>45068</v>
       </c>
       <c r="B130">
-        <v>-0.01609422277773265</v>
+        <v>-0.01609411336647681</v>
       </c>
       <c r="C130">
         <v>0.009650533215399992</v>
@@ -10438,13 +10438,13 @@
         <v>-0.07806097086490293</v>
       </c>
       <c r="P130">
-        <v>-0.003567985700646537</v>
+        <v>-0.003568059121436318</v>
       </c>
       <c r="Q130">
         <v>-0.03635920064959186</v>
       </c>
       <c r="R130">
-        <v>1.14917697491249</v>
+        <v>1.149176749479469</v>
       </c>
       <c r="S130">
         <v>0.07314532761354586</v>
@@ -10592,7 +10592,7 @@
         <v>-0.00512688705789377</v>
       </c>
       <c r="P132">
-        <v>0.01541225148854597</v>
+        <v>0.01541217809337736</v>
       </c>
       <c r="Q132">
         <v>-0.02760645768673609</v>
@@ -10613,7 +10613,7 @@
         <v>0.02069746336154754</v>
       </c>
       <c r="W132">
-        <v>0.01154003352570898</v>
+        <v>0.01154011167421443</v>
       </c>
       <c r="X132">
         <v>0.04560998832972385</v>
@@ -10636,7 +10636,7 @@
         <v>0.01848431867973943</v>
       </c>
       <c r="E133">
-        <v>0.005050441365993752</v>
+        <v>0.005050522196335061</v>
       </c>
       <c r="F133">
         <v>-0.02331190547066475</v>
@@ -10669,7 +10669,7 @@
         <v>0.1526987043996486</v>
       </c>
       <c r="P133">
-        <v>-0.02104487466990079</v>
+        <v>-0.02104480390989028</v>
       </c>
       <c r="Q133">
         <v>-0.0261753591683539</v>
@@ -10690,7 +10690,7 @@
         <v>0.06194443172878694</v>
       </c>
       <c r="W133">
-        <v>0.04634019112444299</v>
+        <v>0.04634018754434077</v>
       </c>
       <c r="X133">
         <v>0.152671712855218</v>
@@ -10713,7 +10713,7 @@
         <v>-0.02540833539182707</v>
       </c>
       <c r="E134">
-        <v>-0.02010049160074168</v>
+        <v>-0.02010048998417657</v>
       </c>
       <c r="F134">
         <v>0.01446085105400696</v>
@@ -10767,7 +10767,7 @@
         <v>-0.06251633320078853</v>
       </c>
       <c r="W134">
-        <v>-0.01273638683612155</v>
+        <v>-0.01273645973113025</v>
       </c>
       <c r="X134">
         <v>-0.1296121026597501</v>
@@ -10790,7 +10790,7 @@
         <v>0.02234633054312751</v>
       </c>
       <c r="E135">
-        <v>0.005384703708746663</v>
+        <v>0.0053845391190388</v>
       </c>
       <c r="F135">
         <v>0.01838735600289731</v>
@@ -10823,7 +10823,7 @@
         <v>-0.184428553937507</v>
       </c>
       <c r="P135">
-        <v>0.04736328676499801</v>
+        <v>0.04736336256845197</v>
       </c>
       <c r="Q135">
         <v>0.007775237000199331</v>
@@ -10867,7 +10867,7 @@
         <v>-0.007286022536345471</v>
       </c>
       <c r="E136">
-        <v>-0.007906201521973522</v>
+        <v>-0.007906120533072047</v>
       </c>
       <c r="F136">
         <v>0.1055160028474309</v>
@@ -10888,7 +10888,7 @@
         <v>0.04912282569354254</v>
       </c>
       <c r="L136">
-        <v>-0.03788053862255192</v>
+        <v>-0.03788063222246174</v>
       </c>
       <c r="M136">
         <v>-0.0231035701440534</v>
@@ -10900,7 +10900,7 @@
         <v>0.01168934498686358</v>
       </c>
       <c r="P136">
-        <v>-0.03813509149856953</v>
+        <v>-0.03813523348953685</v>
       </c>
       <c r="Q136">
         <v>-0.02512957483007916</v>
@@ -10921,7 +10921,7 @@
         <v>-0.03120753755225392</v>
       </c>
       <c r="W136">
-        <v>-0.0002735905377443393</v>
+        <v>-0.0002735207620400137</v>
       </c>
       <c r="X136">
         <v>0.02117413918045585</v>
@@ -10950,7 +10950,7 @@
         <v>-0.02127661325679142</v>
       </c>
       <c r="G137">
-        <v>0.008400486899265314</v>
+        <v>0.008400590742309255</v>
       </c>
       <c r="H137">
         <v>0.0719579011457252</v>
@@ -10965,7 +10965,7 @@
         <v>0.06688965634705224</v>
       </c>
       <c r="L137">
-        <v>0.00389315603054885</v>
+        <v>0.003893253694427168</v>
       </c>
       <c r="M137">
         <v>-0.009869589317921923</v>
@@ -10977,7 +10977,7 @@
         <v>0.01279230184614555</v>
       </c>
       <c r="P137">
-        <v>-0.02152006610723567</v>
+        <v>-0.02151999248152014</v>
       </c>
       <c r="Q137">
         <v>0.027020909803388</v>
@@ -10998,7 +10998,7 @@
         <v>-0.001400538823305708</v>
       </c>
       <c r="W137">
-        <v>0.02088651260860463</v>
+        <v>0.02088651115083584</v>
       </c>
       <c r="X137">
         <v>0.1442036509098863</v>
@@ -11027,7 +11027,7 @@
         <v>0.03536432203650364</v>
       </c>
       <c r="G138">
-        <v>0.01919365359072867</v>
+        <v>0.01919344565826875</v>
       </c>
       <c r="H138">
         <v>-0.04067726337945576</v>
@@ -11054,7 +11054,7 @@
         <v>0.02050797490910372</v>
       </c>
       <c r="P138">
-        <v>0.02922533678685513</v>
+        <v>0.02922525988697866</v>
       </c>
       <c r="Q138">
         <v>0.03115369820721003</v>
@@ -11075,7 +11075,7 @@
         <v>-0.03534367692286966</v>
       </c>
       <c r="W138">
-        <v>0.008576827013603738</v>
+        <v>0.008576826427233009</v>
       </c>
       <c r="X138">
         <v>0.02059308014249805</v>
@@ -11098,13 +11098,13 @@
         <v>0.01174504363501372</v>
       </c>
       <c r="E139">
-        <v>-0.006161717408102896</v>
+        <v>-0.006161799587345307</v>
       </c>
       <c r="F139">
         <v>0.01508208249466025</v>
       </c>
       <c r="G139">
-        <v>0.02919957159600672</v>
+        <v>0.02919967558498127</v>
       </c>
       <c r="H139">
         <v>0.05039164490861614</v>
@@ -11119,7 +11119,7 @@
         <v>0.01257854444279971</v>
       </c>
       <c r="L139">
-        <v>0.02520699431644657</v>
+        <v>0.02520708534797511</v>
       </c>
       <c r="M139">
         <v>-0.04724120914230845</v>
@@ -11131,7 +11131,7 @@
         <v>0.04711207005965234</v>
       </c>
       <c r="P139">
-        <v>0.002598930690648871</v>
+        <v>0.002599005601105153</v>
       </c>
       <c r="Q139">
         <v>-0.04184902578811955</v>
@@ -11152,7 +11152,7 @@
         <v>-0.07589411891029429</v>
       </c>
       <c r="W139">
-        <v>0.05040310663522241</v>
+        <v>0.05040296764769159</v>
       </c>
       <c r="X139">
         <v>-0.04277648684094915</v>
@@ -11175,7 +11175,7 @@
         <v>-0.01326708452479086</v>
       </c>
       <c r="E140">
-        <v>0.00232495949905176</v>
+        <v>0.002324959691300199</v>
       </c>
       <c r="F140">
         <v>-0.04224326292789515</v>
@@ -11196,7 +11196,7 @@
         <v>0.02173910117360456</v>
       </c>
       <c r="L140">
-        <v>-0.03117826332527951</v>
+        <v>-0.03117843814347432</v>
       </c>
       <c r="M140">
         <v>0.004541952303698027</v>
@@ -11208,7 +11208,7 @@
         <v>-0.06380270238428276</v>
       </c>
       <c r="P140">
-        <v>0.03129792268281384</v>
+        <v>0.03129784816022352</v>
       </c>
       <c r="Q140">
         <v>0.002005574430928192</v>
@@ -11229,7 +11229,7 @@
         <v>-0.004405327060169051</v>
       </c>
       <c r="W140">
-        <v>-0.03272058994351634</v>
+        <v>-0.03272046298942766</v>
       </c>
       <c r="X140">
         <v>-0.02529504601559152</v>
@@ -11252,7 +11252,7 @@
         <v>0.0100841000006584</v>
       </c>
       <c r="E141">
-        <v>0.002577287056617195</v>
+        <v>0.002577369766187054</v>
       </c>
       <c r="F141">
         <v>0.01019013263426816</v>
@@ -11273,7 +11273,7 @@
         <v>0.00607902980262276</v>
       </c>
       <c r="L141">
-        <v>0.02845483300485685</v>
+        <v>0.0284549272636041</v>
       </c>
       <c r="M141">
         <v>0.1691785581631515</v>
@@ -11285,7 +11285,7 @@
         <v>-0.05511817792749774</v>
       </c>
       <c r="P141">
-        <v>0.04105384244463428</v>
+        <v>0.04105391767220246</v>
       </c>
       <c r="Q141">
         <v>-0.07016565703525957</v>
@@ -11306,7 +11306,7 @@
         <v>-0.02275598379404686</v>
       </c>
       <c r="W141">
-        <v>-0.004446340952143912</v>
+        <v>-0.004446407371294314</v>
       </c>
       <c r="X141">
         <v>-0.2119377745680643</v>
@@ -11350,7 +11350,7 @@
         <v>-0.03625371819483958</v>
       </c>
       <c r="L142">
-        <v>-0.00782287772894863</v>
+        <v>-0.007822788613874199</v>
       </c>
       <c r="M142">
         <v>0.008056775987240306</v>
@@ -11427,7 +11427,7 @@
         <v>-0.006269594606069906</v>
       </c>
       <c r="L143">
-        <v>-0.03617605779661748</v>
+        <v>-0.03617614436506655</v>
       </c>
       <c r="M143">
         <v>0.02624963878172681</v>
